--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -14,141 +14,325 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="107">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="116">
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 (Member_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">입력값 YYYY-MM-DD
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자리 이상 15자리 이내</x:t>
+  </x:si>
   <x:si>
     <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매너벨트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_bath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간식,사료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
   </x:si>
   <x:si>
     <x:t>c_no</x:t>
   </x:si>
   <x:si>
-    <x:t>r_no</x:t>
+    <x:t>c_type</x:t>
   </x:si>
   <x:si>
-    <x:t>케이지 번호</x:t>
+    <x:t>c_kind</x:t>
   </x:si>
   <x:si>
-    <x:t>사용현황</x:t>
+    <x:t>목욕서비스</x:t>
   </x:si>
   <x:si>
-    <x:t>간식,사료</x:t>
+    <x:t>c_belt</x:t>
   </x:si>
   <x:si>
     <x:t>c_price</x:t>
   </x:si>
   <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_bath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_belt</x:t>
-  </x:si>
-  <x:si>
     <x:t>c_snack</x:t>
   </x:si>
   <x:si>
-    <x:t>c_type</x:t>
+    <x:t>m_id</x:t>
   </x:si>
   <x:si>
-    <x:t>목욕서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매너벨트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
+    <x:t>Null허용</x:t>
   </x:si>
   <x:si>
     <x:t>신청날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>r_date</x:t>
+    <x:t>m_phone</x:t>
   </x:si>
   <x:si>
-    <x:t>m_id</x:t>
+    <x:t>이메일주소</x:t>
   </x:si>
   <x:si>
-    <x:t>실제 예약날짜</x:t>
+    <x:t>n_no</x:t>
   </x:si>
   <x:si>
-    <x:t>NUMBER</x:t>
+    <x:t>필수약관1</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 타입</x:t>
+    <x:t>등록내용</x:t>
   </x:si>
   <x:si>
-    <x:t>Null허용</x:t>
+    <x:t>전화번호</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블 명세서</x:t>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
   </x:si>
   <x:si>
     <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
   </x:si>
   <x:si>
     <x:t>회원 아이디</x:t>
@@ -157,184 +341,28 @@
     <x:t>DATE</x:t>
   </x:si>
   <x:si>
-    <x:t>q_title</x:t>
+    <x:t>필수약관2</x:t>
   </x:si>
   <x:si>
-    <x:t>c_explain</x:t>
+    <x:t>비밀번호</x:t>
   </x:si>
   <x:si>
-    <x:t>c_status</x:t>
+    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>c_usestatus</x:t>
+    <x:t>입력값 using, reserved, unused</x:t>
   </x:si>
   <x:si>
-    <x:t>c_picture</x:t>
+    <x:t>입력값 F(female), M(male)</x:t>
   </x:si>
   <x:si>
-    <x:t>r_payprice</x:t>
+    <x:t>입력값 not exist, exist</x:t>
   </x:si>
   <x:si>
     <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
     <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -387,6 +415,16 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -406,46 +444,6 @@
           <x:sz val="20"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -500,6 +498,108 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
         <x:color indexed="64"/>
@@ -574,40 +674,6 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -653,74 +719,6 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
         <x:color indexed="64"/>
@@ -861,32 +859,17 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -902,84 +885,91 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -999,156 +989,164 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1809,8 +1807,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Y1004"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L44" activeCellId="0" sqref="L44:L44"/>
+    <x:sheetView tabSelected="1" topLeftCell="D55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J71" activeCellId="0" sqref="J71:J71"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1853,17 +1851,17 @@
     </x:row>
     <x:row r="2" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="8" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C2" s="9"/>
-      <x:c r="D2" s="9"/>
-      <x:c r="E2" s="9"/>
-      <x:c r="F2" s="9"/>
-      <x:c r="G2" s="9"/>
-      <x:c r="H2" s="9"/>
-      <x:c r="I2" s="9"/>
-      <x:c r="J2" s="10"/>
+      <x:c r="B2" s="27" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C2" s="28"/>
+      <x:c r="D2" s="28"/>
+      <x:c r="E2" s="28"/>
+      <x:c r="F2" s="28"/>
+      <x:c r="G2" s="28"/>
+      <x:c r="H2" s="28"/>
+      <x:c r="I2" s="28"/>
+      <x:c r="J2" s="29"/>
       <x:c r="K2" s="2"/>
       <x:c r="L2" s="2"/>
       <x:c r="M2" s="2"/>
@@ -1882,15 +1880,15 @@
     </x:row>
     <x:row r="3" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="11"/>
-      <x:c r="C3" s="12"/>
-      <x:c r="D3" s="12"/>
-      <x:c r="E3" s="12"/>
-      <x:c r="F3" s="12"/>
-      <x:c r="G3" s="12"/>
-      <x:c r="H3" s="12"/>
-      <x:c r="I3" s="12"/>
-      <x:c r="J3" s="13"/>
+      <x:c r="B3" s="30"/>
+      <x:c r="C3" s="31"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+      <x:c r="F3" s="31"/>
+      <x:c r="G3" s="31"/>
+      <x:c r="H3" s="31"/>
+      <x:c r="I3" s="31"/>
+      <x:c r="J3" s="32"/>
       <x:c r="K3" s="2"/>
       <x:c r="L3" s="2"/>
       <x:c r="M3" s="2"/>
@@ -1909,15 +1907,15 @@
     </x:row>
     <x:row r="4" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A4" s="3"/>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="14"/>
-      <x:c r="D4" s="14"/>
-      <x:c r="E4" s="14"/>
-      <x:c r="F4" s="14"/>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="14"/>
-      <x:c r="J4" s="15"/>
+      <x:c r="B4" s="8"/>
+      <x:c r="C4" s="8"/>
+      <x:c r="D4" s="8"/>
+      <x:c r="E4" s="8"/>
+      <x:c r="F4" s="8"/>
+      <x:c r="G4" s="8"/>
+      <x:c r="H4" s="8"/>
+      <x:c r="I4" s="8"/>
+      <x:c r="J4" s="9"/>
       <x:c r="K4" s="2"/>
       <x:c r="L4" s="2"/>
       <x:c r="M4" s="2"/>
@@ -1936,17 +1934,17 @@
     </x:row>
     <x:row r="5" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
-      <x:c r="B5" s="16" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C5" s="17"/>
-      <x:c r="D5" s="17"/>
-      <x:c r="E5" s="17"/>
-      <x:c r="F5" s="17"/>
-      <x:c r="G5" s="17"/>
-      <x:c r="H5" s="17"/>
-      <x:c r="I5" s="17"/>
-      <x:c r="J5" s="18"/>
+      <x:c r="B5" s="33" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C5" s="34"/>
+      <x:c r="D5" s="34"/>
+      <x:c r="E5" s="34"/>
+      <x:c r="F5" s="34"/>
+      <x:c r="G5" s="34"/>
+      <x:c r="H5" s="34"/>
+      <x:c r="I5" s="34"/>
+      <x:c r="J5" s="35"/>
       <x:c r="K5" s="2"/>
       <x:c r="L5" s="2"/>
       <x:c r="M5" s="2"/>
@@ -1965,32 +1963,32 @@
     </x:row>
     <x:row r="6" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
-      <x:c r="B6" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C6" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D6" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E6" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F6" s="20" t="s">
+      <x:c r="B6" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="11" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G6" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H6" s="20" t="s">
+      <x:c r="E6" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F6" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G6" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H6" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I6" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="11" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="I6" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J6" s="20" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="2"/>
       <x:c r="L6" s="2"/>
@@ -2010,31 +2008,33 @@
     </x:row>
     <x:row r="7" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A7" s="4"/>
-      <x:c r="B7" s="19">
+      <x:c r="B7" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C7" s="20" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D7" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E7" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F7" s="20">
+      <x:c r="C7" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E7" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G7" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H7" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I7" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J7" s="20"/>
+      <x:c r="G7" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H7" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I7" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J7" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="K7" s="2"/>
       <x:c r="L7" s="2"/>
       <x:c r="M7" s="2"/>
@@ -2053,27 +2053,29 @@
     </x:row>
     <x:row r="8" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A8" s="4"/>
-      <x:c r="B8" s="19">
+      <x:c r="B8" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C8" s="20" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D8" s="20" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E8" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F8" s="21">
+      <x:c r="C8" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D8" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E8" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F8" s="12">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G8" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H8" s="20"/>
-      <x:c r="I8" s="21"/>
-      <x:c r="J8" s="20"/>
+      <x:c r="G8" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H8" s="11"/>
+      <x:c r="I8" s="12"/>
+      <x:c r="J8" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="K8" s="2"/>
       <x:c r="L8" s="2"/>
       <x:c r="M8" s="2"/>
@@ -2092,27 +2094,27 @@
     </x:row>
     <x:row r="9" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A9" s="4"/>
-      <x:c r="B9" s="19">
+      <x:c r="B9" s="10">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="20" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D9" s="20" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E9" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F9" s="20">
+      <x:c r="C9" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D9" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E9" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G9" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H9" s="21"/>
-      <x:c r="I9" s="21"/>
-      <x:c r="J9" s="20"/>
+      <x:c r="G9" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H9" s="12"/>
+      <x:c r="I9" s="12"/>
+      <x:c r="J9" s="11"/>
       <x:c r="K9" s="2"/>
       <x:c r="L9" s="2"/>
       <x:c r="M9" s="2"/>
@@ -2131,27 +2133,27 @@
     </x:row>
     <x:row r="10" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A10" s="4"/>
-      <x:c r="B10" s="19">
+      <x:c r="B10" s="10">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C10" s="20" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D10" s="20" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E10" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F10" s="20">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G10" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H10" s="20"/>
-      <x:c r="I10" s="21"/>
-      <x:c r="J10" s="20"/>
+      <x:c r="C10" s="11" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D10" s="11" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E10" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H10" s="11"/>
+      <x:c r="I10" s="12"/>
+      <x:c r="J10" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="K10" s="2"/>
       <x:c r="L10" s="2"/>
       <x:c r="M10" s="2"/>
@@ -2170,27 +2172,27 @@
     </x:row>
     <x:row r="11" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A11" s="4"/>
-      <x:c r="B11" s="19">
+      <x:c r="B11" s="10">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C11" s="20" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D11" s="20" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E11" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F11" s="20">
+      <x:c r="C11" s="11" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D11" s="11" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E11" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G11" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H11" s="21"/>
-      <x:c r="I11" s="21"/>
-      <x:c r="J11" s="20"/>
+      <x:c r="G11" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H11" s="12"/>
+      <x:c r="I11" s="12"/>
+      <x:c r="J11" s="11"/>
       <x:c r="K11" s="2"/>
       <x:c r="L11" s="2"/>
       <x:c r="M11" s="2"/>
@@ -2209,27 +2211,29 @@
     </x:row>
     <x:row r="12" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A12" s="4"/>
-      <x:c r="B12" s="19">
+      <x:c r="B12" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C12" s="20" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D12" s="20" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E12" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F12" s="20">
+      <x:c r="C12" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D12" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E12" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G12" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H12" s="21"/>
-      <x:c r="I12" s="21"/>
-      <x:c r="J12" s="20"/>
+      <x:c r="G12" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H12" s="12"/>
+      <x:c r="I12" s="12"/>
+      <x:c r="J12" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="K12" s="2"/>
       <x:c r="L12" s="2"/>
       <x:c r="M12" s="2"/>
@@ -2248,27 +2252,27 @@
     </x:row>
     <x:row r="13" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A13" s="4"/>
-      <x:c r="B13" s="19">
+      <x:c r="B13" s="10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C13" s="20" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D13" s="20" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E13" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F13" s="20">
+      <x:c r="C13" s="11" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H13" s="20"/>
-      <x:c r="I13" s="21"/>
-      <x:c r="J13" s="22"/>
+      <x:c r="G13" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H13" s="11"/>
+      <x:c r="I13" s="12"/>
+      <x:c r="J13" s="13"/>
       <x:c r="K13" s="2"/>
       <x:c r="L13" s="2"/>
       <x:c r="M13" s="2"/>
@@ -2287,28 +2291,28 @@
     </x:row>
     <x:row r="14" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A14" s="4"/>
-      <x:c r="B14" s="19">
+      <x:c r="B14" s="10">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C14" s="20" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D14" s="20" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E14" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F14" s="20">
+      <x:c r="C14" s="11" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D14" s="11" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E14" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G14" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H14" s="21"/>
-      <x:c r="I14" s="23"/>
-      <x:c r="J14" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="G14" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H14" s="12"/>
+      <x:c r="I14" s="14"/>
+      <x:c r="J14" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K14" s="2"/>
       <x:c r="L14" s="2"/>
@@ -2328,28 +2332,28 @@
     </x:row>
     <x:row r="15" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A15" s="3"/>
-      <x:c r="B15" s="19">
+      <x:c r="B15" s="10">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C15" s="20" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D15" s="20" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E15" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F15" s="20">
+      <x:c r="C15" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D15" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E15" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G15" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H15" s="21"/>
-      <x:c r="I15" s="23"/>
-      <x:c r="J15" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="G15" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H15" s="12"/>
+      <x:c r="I15" s="14"/>
+      <x:c r="J15" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K15" s="2"/>
       <x:c r="L15" s="2"/>
@@ -2369,28 +2373,28 @@
     </x:row>
     <x:row r="16" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A16" s="3"/>
-      <x:c r="B16" s="19">
+      <x:c r="B16" s="10">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C16" s="20" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D16" s="20" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E16" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F16" s="20">
+      <x:c r="C16" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D16" s="11" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E16" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G16" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H16" s="21"/>
-      <x:c r="I16" s="23"/>
-      <x:c r="J16" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="G16" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H16" s="12"/>
+      <x:c r="I16" s="14"/>
+      <x:c r="J16" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K16" s="2"/>
       <x:c r="L16" s="2"/>
@@ -2410,15 +2414,15 @@
     </x:row>
     <x:row r="17" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A17" s="3"/>
-      <x:c r="B17" s="14"/>
-      <x:c r="C17" s="14"/>
-      <x:c r="D17" s="14"/>
-      <x:c r="E17" s="14"/>
-      <x:c r="F17" s="14"/>
-      <x:c r="G17" s="14"/>
-      <x:c r="H17" s="14"/>
-      <x:c r="I17" s="14"/>
-      <x:c r="J17" s="15"/>
+      <x:c r="B17" s="8"/>
+      <x:c r="C17" s="8"/>
+      <x:c r="D17" s="8"/>
+      <x:c r="E17" s="8"/>
+      <x:c r="F17" s="8"/>
+      <x:c r="G17" s="8"/>
+      <x:c r="H17" s="8"/>
+      <x:c r="I17" s="8"/>
+      <x:c r="J17" s="9"/>
       <x:c r="K17" s="2"/>
       <x:c r="L17" s="2"/>
       <x:c r="M17" s="2"/>
@@ -2437,17 +2441,17 @@
     </x:row>
     <x:row r="18" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="16" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C18" s="17"/>
-      <x:c r="D18" s="17"/>
-      <x:c r="E18" s="17"/>
-      <x:c r="F18" s="17"/>
-      <x:c r="G18" s="17"/>
-      <x:c r="H18" s="17"/>
-      <x:c r="I18" s="17"/>
-      <x:c r="J18" s="18"/>
+      <x:c r="B18" s="33" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C18" s="34"/>
+      <x:c r="D18" s="34"/>
+      <x:c r="E18" s="34"/>
+      <x:c r="F18" s="34"/>
+      <x:c r="G18" s="34"/>
+      <x:c r="H18" s="34"/>
+      <x:c r="I18" s="34"/>
+      <x:c r="J18" s="35"/>
       <x:c r="K18" s="2"/>
       <x:c r="L18" s="2"/>
       <x:c r="M18" s="2"/>
@@ -2466,31 +2470,31 @@
     </x:row>
     <x:row r="19" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
-      <x:c r="B19" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C19" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D19" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E19" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F19" s="20" t="s">
+      <x:c r="B19" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C19" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G19" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H19" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I19" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J19" s="20"/>
+      <x:c r="E19" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F19" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G19" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H19" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I19" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J19" s="11"/>
       <x:c r="K19" s="2"/>
       <x:c r="L19" s="2"/>
       <x:c r="M19" s="2"/>
@@ -2509,31 +2513,31 @@
     </x:row>
     <x:row r="20" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A20" s="3"/>
-      <x:c r="B20" s="19">
+      <x:c r="B20" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C20" s="20" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D20" s="20" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E20" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F20" s="20">
+      <x:c r="C20" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D20" s="11" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E20" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G20" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H20" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I20" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J20" s="22"/>
+      <x:c r="G20" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H20" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I20" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J20" s="13"/>
       <x:c r="K20" s="2"/>
       <x:c r="L20" s="2"/>
       <x:c r="M20" s="2"/>
@@ -2552,28 +2556,28 @@
     </x:row>
     <x:row r="21" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A21" s="3"/>
-      <x:c r="B21" s="19">
+      <x:c r="B21" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C21" s="20" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D21" s="20" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E21" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F21" s="21">
+      <x:c r="C21" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D21" s="11" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E21" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G21" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H21" s="20"/>
-      <x:c r="I21" s="23"/>
-      <x:c r="J21" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="G21" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H21" s="11"/>
+      <x:c r="I21" s="14"/>
+      <x:c r="J21" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K21" s="2"/>
       <x:c r="L21" s="2"/>
@@ -2593,27 +2597,27 @@
     </x:row>
     <x:row r="22" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A22" s="3"/>
-      <x:c r="B22" s="19">
+      <x:c r="B22" s="10">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C22" s="20" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D22" s="20" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E22" s="20" t="s">
+      <x:c r="C22" s="11" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F22" s="20">
+      <x:c r="D22" s="11" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E22" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G22" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H22" s="21"/>
-      <x:c r="I22" s="23"/>
-      <x:c r="J22" s="25"/>
+      <x:c r="G22" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H22" s="12"/>
+      <x:c r="I22" s="14"/>
+      <x:c r="J22" s="16"/>
       <x:c r="K22" s="2"/>
       <x:c r="L22" s="2"/>
       <x:c r="M22" s="2"/>
@@ -2632,27 +2636,27 @@
     </x:row>
     <x:row r="23" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A23" s="3"/>
-      <x:c r="B23" s="19">
+      <x:c r="B23" s="10">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C23" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D23" s="20" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E23" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F23" s="20">
+      <x:c r="C23" s="11" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D23" s="11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E23" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G23" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H23" s="20"/>
-      <x:c r="I23" s="21"/>
-      <x:c r="J23" s="20"/>
+      <x:c r="G23" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H23" s="11"/>
+      <x:c r="I23" s="12"/>
+      <x:c r="J23" s="11"/>
       <x:c r="K23" s="2"/>
       <x:c r="L23" s="2"/>
       <x:c r="M23" s="2"/>
@@ -2671,25 +2675,27 @@
     </x:row>
     <x:row r="24" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A24" s="3"/>
-      <x:c r="B24" s="19">
+      <x:c r="B24" s="10">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C24" s="20" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D24" s="20" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E24" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F24" s="20"/>
-      <x:c r="G24" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H24" s="21"/>
-      <x:c r="I24" s="21"/>
-      <x:c r="J24" s="20"/>
+      <x:c r="C24" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D24" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E24" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F24" s="11"/>
+      <x:c r="G24" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H24" s="12"/>
+      <x:c r="I24" s="12"/>
+      <x:c r="J24" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="K24" s="2"/>
       <x:c r="L24" s="2"/>
       <x:c r="M24" s="2"/>
@@ -2708,25 +2714,27 @@
     </x:row>
     <x:row r="25" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A25" s="3"/>
-      <x:c r="B25" s="19">
+      <x:c r="B25" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C25" s="20" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D25" s="20" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E25" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F25" s="20"/>
-      <x:c r="G25" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H25" s="21"/>
-      <x:c r="I25" s="21"/>
-      <x:c r="J25" s="20"/>
+      <x:c r="C25" s="11" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E25" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F25" s="11"/>
+      <x:c r="G25" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H25" s="12"/>
+      <x:c r="I25" s="12"/>
+      <x:c r="J25" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="K25" s="2"/>
       <x:c r="L25" s="2"/>
       <x:c r="M25" s="2"/>
@@ -2745,29 +2753,29 @@
     </x:row>
     <x:row r="26" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A26" s="3"/>
-      <x:c r="B26" s="19">
+      <x:c r="B26" s="10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C26" s="20" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D26" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E26" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F26" s="20">
+      <x:c r="C26" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D26" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E26" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F26" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G26" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H26" s="20"/>
-      <x:c r="I26" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J26" s="20"/>
+      <x:c r="G26" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H26" s="11"/>
+      <x:c r="I26" s="12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J26" s="11"/>
       <x:c r="K26" s="2"/>
       <x:c r="L26" s="2"/>
       <x:c r="M26" s="2"/>
@@ -2786,29 +2794,29 @@
     </x:row>
     <x:row r="27" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A27" s="3"/>
-      <x:c r="B27" s="19">
+      <x:c r="B27" s="10">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C27" s="20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D27" s="20" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E27" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F27" s="20">
+      <x:c r="C27" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D27" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E27" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F27" s="11">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G27" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H27" s="21"/>
-      <x:c r="I27" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J27" s="20"/>
+      <x:c r="G27" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H27" s="12"/>
+      <x:c r="I27" s="12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J27" s="11"/>
       <x:c r="K27" s="2"/>
       <x:c r="L27" s="2"/>
       <x:c r="M27" s="2"/>
@@ -2827,15 +2835,15 @@
     </x:row>
     <x:row r="28" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A28" s="3"/>
-      <x:c r="B28" s="14"/>
-      <x:c r="C28" s="14"/>
-      <x:c r="D28" s="14"/>
-      <x:c r="E28" s="14"/>
-      <x:c r="F28" s="14"/>
-      <x:c r="G28" s="14"/>
-      <x:c r="H28" s="14"/>
-      <x:c r="I28" s="14"/>
-      <x:c r="J28" s="15"/>
+      <x:c r="B28" s="8"/>
+      <x:c r="C28" s="8"/>
+      <x:c r="D28" s="8"/>
+      <x:c r="E28" s="8"/>
+      <x:c r="F28" s="8"/>
+      <x:c r="G28" s="8"/>
+      <x:c r="H28" s="8"/>
+      <x:c r="I28" s="8"/>
+      <x:c r="J28" s="9"/>
       <x:c r="K28" s="2"/>
       <x:c r="L28" s="2"/>
       <x:c r="M28" s="2"/>
@@ -2854,17 +2862,17 @@
     </x:row>
     <x:row r="29" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A29" s="3"/>
-      <x:c r="B29" s="26" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C29" s="27"/>
-      <x:c r="D29" s="27"/>
-      <x:c r="E29" s="27"/>
-      <x:c r="F29" s="27"/>
-      <x:c r="G29" s="27"/>
-      <x:c r="H29" s="27"/>
-      <x:c r="I29" s="27"/>
-      <x:c r="J29" s="27"/>
+      <x:c r="B29" s="36" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C29" s="37"/>
+      <x:c r="D29" s="37"/>
+      <x:c r="E29" s="37"/>
+      <x:c r="F29" s="37"/>
+      <x:c r="G29" s="37"/>
+      <x:c r="H29" s="37"/>
+      <x:c r="I29" s="37"/>
+      <x:c r="J29" s="37"/>
       <x:c r="K29" s="2"/>
       <x:c r="L29" s="2"/>
       <x:c r="M29" s="2"/>
@@ -2883,31 +2891,31 @@
     </x:row>
     <x:row r="30" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
-      <x:c r="B30" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C30" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D30" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E30" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F30" s="20" t="s">
+      <x:c r="B30" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C30" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D30" s="11" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G30" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H30" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I30" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J30" s="20"/>
+      <x:c r="E30" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F30" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G30" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H30" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I30" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J30" s="11"/>
       <x:c r="K30" s="2"/>
       <x:c r="L30" s="2"/>
       <x:c r="M30" s="2"/>
@@ -2926,31 +2934,31 @@
     </x:row>
     <x:row r="31" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A31" s="3"/>
-      <x:c r="B31" s="19">
+      <x:c r="B31" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C31" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D31" s="20" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E31" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F31" s="20">
+      <x:c r="C31" s="11" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D31" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E31" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F31" s="11">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G31" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H31" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I31" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J31" s="28"/>
+      <x:c r="G31" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H31" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I31" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J31" s="17"/>
       <x:c r="K31" s="2"/>
       <x:c r="L31" s="2"/>
       <x:c r="M31" s="2"/>
@@ -2969,27 +2977,27 @@
     </x:row>
     <x:row r="32" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A32" s="3"/>
-      <x:c r="B32" s="19">
+      <x:c r="B32" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C32" s="29" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D32" s="20" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E32" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F32" s="20">
+      <x:c r="C32" s="18" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="11" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E32" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F32" s="11">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G32" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H32" s="20"/>
-      <x:c r="I32" s="20"/>
-      <x:c r="J32" s="28"/>
+      <x:c r="G32" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H32" s="11"/>
+      <x:c r="I32" s="11"/>
+      <x:c r="J32" s="17"/>
       <x:c r="K32" s="2"/>
       <x:c r="L32" s="2"/>
       <x:c r="M32" s="2"/>
@@ -3008,27 +3016,27 @@
     </x:row>
     <x:row r="33" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A33" s="3"/>
-      <x:c r="B33" s="19">
+      <x:c r="B33" s="10">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C33" s="29" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D33" s="20" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E33" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F33" s="20">
+      <x:c r="C33" s="18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D33" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E33" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F33" s="11">
         <x:v>3000</x:v>
       </x:c>
-      <x:c r="G33" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H33" s="20"/>
-      <x:c r="I33" s="20"/>
-      <x:c r="J33" s="20"/>
+      <x:c r="G33" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H33" s="11"/>
+      <x:c r="I33" s="11"/>
+      <x:c r="J33" s="11"/>
       <x:c r="K33" s="2"/>
       <x:c r="L33" s="2"/>
       <x:c r="M33" s="2"/>
@@ -3047,25 +3055,27 @@
     </x:row>
     <x:row r="34" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A34" s="4"/>
-      <x:c r="B34" s="30">
+      <x:c r="B34" s="19">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C34" s="31" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D34" s="30" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E34" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F34" s="20"/>
-      <x:c r="G34" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H34" s="32"/>
-      <x:c r="I34" s="32"/>
-      <x:c r="J34" s="33"/>
+      <x:c r="C34" s="20" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D34" s="19" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E34" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F34" s="11"/>
+      <x:c r="G34" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H34" s="21"/>
+      <x:c r="I34" s="21"/>
+      <x:c r="J34" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="K34" s="2"/>
       <x:c r="L34" s="2"/>
       <x:c r="M34" s="2"/>
@@ -3084,29 +3094,29 @@
     </x:row>
     <x:row r="35" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A35" s="4"/>
-      <x:c r="B35" s="28">
+      <x:c r="B35" s="17">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C35" s="34" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D35" s="28" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E35" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F35" s="20">
+      <x:c r="C35" s="22" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D35" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E35" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F35" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G35" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H35" s="20"/>
-      <x:c r="I35" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J35" s="24"/>
+      <x:c r="G35" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H35" s="11"/>
+      <x:c r="I35" s="23" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J35" s="15"/>
       <x:c r="K35" s="2"/>
       <x:c r="L35" s="2"/>
       <x:c r="M35" s="2"/>
@@ -3125,15 +3135,15 @@
     </x:row>
     <x:row r="36" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A36" s="4"/>
-      <x:c r="B36" s="19"/>
-      <x:c r="C36" s="20"/>
-      <x:c r="D36" s="20"/>
-      <x:c r="E36" s="20"/>
-      <x:c r="F36" s="20"/>
-      <x:c r="G36" s="20"/>
-      <x:c r="H36" s="20"/>
-      <x:c r="I36" s="35"/>
-      <x:c r="J36" s="25"/>
+      <x:c r="B36" s="8"/>
+      <x:c r="C36" s="8"/>
+      <x:c r="D36" s="8"/>
+      <x:c r="E36" s="8"/>
+      <x:c r="F36" s="8"/>
+      <x:c r="G36" s="8"/>
+      <x:c r="H36" s="8"/>
+      <x:c r="I36" s="8"/>
+      <x:c r="J36" s="9"/>
       <x:c r="K36" s="2"/>
       <x:c r="L36" s="2"/>
       <x:c r="M36" s="2"/>
@@ -3152,15 +3162,17 @@
     </x:row>
     <x:row r="37" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A37" s="3"/>
-      <x:c r="B37" s="14"/>
-      <x:c r="C37" s="14"/>
-      <x:c r="D37" s="14"/>
-      <x:c r="E37" s="14"/>
-      <x:c r="F37" s="14"/>
-      <x:c r="G37" s="14"/>
-      <x:c r="H37" s="14"/>
-      <x:c r="I37" s="14"/>
-      <x:c r="J37" s="15"/>
+      <x:c r="B37" s="33" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C37" s="34"/>
+      <x:c r="D37" s="34"/>
+      <x:c r="E37" s="34"/>
+      <x:c r="F37" s="34"/>
+      <x:c r="G37" s="34"/>
+      <x:c r="H37" s="34"/>
+      <x:c r="I37" s="34"/>
+      <x:c r="J37" s="35"/>
       <x:c r="K37" s="2"/>
       <x:c r="L37" s="2"/>
       <x:c r="M37" s="2"/>
@@ -3179,17 +3191,33 @@
     </x:row>
     <x:row r="38" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
-      <x:c r="B38" s="16" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C38" s="17"/>
-      <x:c r="D38" s="17"/>
-      <x:c r="E38" s="17"/>
-      <x:c r="F38" s="17"/>
-      <x:c r="G38" s="17"/>
-      <x:c r="H38" s="17"/>
-      <x:c r="I38" s="17"/>
-      <x:c r="J38" s="18"/>
+      <x:c r="B38" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C38" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D38" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E38" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F38" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G38" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H38" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I38" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J38" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="K38" s="2"/>
       <x:c r="L38" s="2"/>
       <x:c r="M38" s="2"/>
@@ -3208,33 +3236,31 @@
     </x:row>
     <x:row r="39" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A39" s="6"/>
-      <x:c r="B39" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C39" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D39" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E39" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F39" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G39" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H39" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I39" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J39" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="B39" s="10">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" s="11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E39" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F39" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G39" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H39" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I39" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J39" s="11"/>
       <x:c r="K39" s="2"/>
       <x:c r="L39" s="2"/>
       <x:c r="M39" s="2"/>
@@ -3253,31 +3279,27 @@
     </x:row>
     <x:row r="40" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A40" s="6"/>
-      <x:c r="B40" s="19">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C40" s="20" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D40" s="20" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E40" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F40" s="20">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G40" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H40" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I40" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J40" s="20"/>
+      <x:c r="B40" s="10">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C40" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D40" s="11" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E40" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F40" s="12"/>
+      <x:c r="G40" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H40" s="11"/>
+      <x:c r="I40" s="12"/>
+      <x:c r="J40" s="26" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="K40" s="2"/>
       <x:c r="L40" s="2"/>
       <x:c r="M40" s="2"/>
@@ -3296,25 +3318,27 @@
     </x:row>
     <x:row r="41" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A41" s="6"/>
-      <x:c r="B41" s="19">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C41" s="20" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D41" s="20" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E41" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F41" s="21"/>
-      <x:c r="G41" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H41" s="20"/>
-      <x:c r="I41" s="21"/>
-      <x:c r="J41" s="20"/>
+      <x:c r="B41" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C41" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D41" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E41" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F41" s="11">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="G41" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H41" s="12"/>
+      <x:c r="I41" s="12"/>
+      <x:c r="J41" s="11"/>
       <x:c r="K41" s="2"/>
       <x:c r="L41" s="2"/>
       <x:c r="M41" s="2"/>
@@ -3333,27 +3357,27 @@
     </x:row>
     <x:row r="42" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A42" s="6"/>
-      <x:c r="B42" s="19">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C42" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D42" s="20" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E42" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F42" s="20">
-        <x:v>3000</x:v>
-      </x:c>
-      <x:c r="G42" s="20" t="s">
+      <x:c r="B42" s="10">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C42" s="11" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D42" s="11" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H42" s="21"/>
-      <x:c r="I42" s="21"/>
-      <x:c r="J42" s="20"/>
+      <x:c r="E42" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F42" s="11">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G42" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H42" s="11"/>
+      <x:c r="I42" s="12"/>
+      <x:c r="J42" s="11"/>
       <x:c r="K42" s="2"/>
       <x:c r="L42" s="2"/>
       <x:c r="M42" s="2"/>
@@ -3372,27 +3396,29 @@
     </x:row>
     <x:row r="43" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A43" s="6"/>
-      <x:c r="B43" s="19">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C43" s="20" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D43" s="20" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E43" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F43" s="20">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G43" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H43" s="20"/>
-      <x:c r="I43" s="21"/>
-      <x:c r="J43" s="20"/>
+      <x:c r="B43" s="10">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C43" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D43" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E43" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F43" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G43" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H43" s="12"/>
+      <x:c r="I43" s="12"/>
+      <x:c r="J43" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="K43" s="2"/>
       <x:c r="L43" s="2"/>
       <x:c r="M43" s="2"/>
@@ -3411,27 +3437,15 @@
     </x:row>
     <x:row r="44" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A44" s="6"/>
-      <x:c r="B44" s="19">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C44" s="20" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D44" s="20" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E44" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F44" s="20">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G44" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H44" s="21"/>
-      <x:c r="I44" s="21"/>
-      <x:c r="J44" s="20"/>
+      <x:c r="B44" s="8"/>
+      <x:c r="C44" s="8"/>
+      <x:c r="D44" s="8"/>
+      <x:c r="E44" s="8"/>
+      <x:c r="F44" s="8"/>
+      <x:c r="G44" s="8"/>
+      <x:c r="H44" s="8"/>
+      <x:c r="I44" s="8"/>
+      <x:c r="J44" s="9"/>
       <x:c r="K44" s="2"/>
       <x:c r="L44" s="2"/>
       <x:c r="M44" s="2"/>
@@ -3450,15 +3464,17 @@
     </x:row>
     <x:row r="45" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A45" s="3"/>
-      <x:c r="B45" s="14"/>
-      <x:c r="C45" s="14"/>
-      <x:c r="D45" s="14"/>
-      <x:c r="E45" s="14"/>
-      <x:c r="F45" s="14"/>
-      <x:c r="G45" s="14"/>
-      <x:c r="H45" s="14"/>
-      <x:c r="I45" s="14"/>
-      <x:c r="J45" s="15"/>
+      <x:c r="B45" s="33" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C45" s="34"/>
+      <x:c r="D45" s="34"/>
+      <x:c r="E45" s="34"/>
+      <x:c r="F45" s="34"/>
+      <x:c r="G45" s="34"/>
+      <x:c r="H45" s="34"/>
+      <x:c r="I45" s="34"/>
+      <x:c r="J45" s="35"/>
       <x:c r="K45" s="2"/>
       <x:c r="L45" s="2"/>
       <x:c r="M45" s="2"/>
@@ -3477,17 +3493,33 @@
     </x:row>
     <x:row r="46" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
-      <x:c r="B46" s="16" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C46" s="17"/>
-      <x:c r="D46" s="17"/>
-      <x:c r="E46" s="17"/>
-      <x:c r="F46" s="17"/>
-      <x:c r="G46" s="17"/>
-      <x:c r="H46" s="17"/>
-      <x:c r="I46" s="17"/>
-      <x:c r="J46" s="18"/>
+      <x:c r="B46" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C46" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D46" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E46" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F46" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G46" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H46" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I46" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J46" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="K46" s="2"/>
       <x:c r="L46" s="2"/>
       <x:c r="M46" s="2"/>
@@ -3506,33 +3538,31 @@
     </x:row>
     <x:row r="47" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A47" s="4"/>
-      <x:c r="B47" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C47" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D47" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E47" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F47" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G47" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H47" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I47" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J47" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="B47" s="10">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C47" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E47" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F47" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G47" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H47" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I47" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J47" s="11"/>
       <x:c r="K47" s="2"/>
       <x:c r="L47" s="2"/>
       <x:c r="M47" s="2"/>
@@ -3551,31 +3581,27 @@
     </x:row>
     <x:row r="48" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A48" s="4"/>
-      <x:c r="B48" s="19">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C48" s="20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D48" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E48" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F48" s="20">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G48" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H48" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I48" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J48" s="20"/>
+      <x:c r="B48" s="10">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C48" s="11" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D48" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E48" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F48" s="12">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G48" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H48" s="11"/>
+      <x:c r="I48" s="12"/>
+      <x:c r="J48" s="11"/>
       <x:c r="K48" s="2"/>
       <x:c r="L48" s="2"/>
       <x:c r="M48" s="2"/>
@@ -3594,27 +3620,27 @@
     </x:row>
     <x:row r="49" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A49" s="4"/>
-      <x:c r="B49" s="19">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C49" s="20" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D49" s="20" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E49" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F49" s="21">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G49" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H49" s="20"/>
-      <x:c r="I49" s="21"/>
-      <x:c r="J49" s="20"/>
+      <x:c r="B49" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C49" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D49" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E49" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F49" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G49" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H49" s="12"/>
+      <x:c r="I49" s="12"/>
+      <x:c r="J49" s="11"/>
       <x:c r="K49" s="2"/>
       <x:c r="L49" s="2"/>
       <x:c r="M49" s="2"/>
@@ -3633,27 +3659,27 @@
     </x:row>
     <x:row r="50" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A50" s="4"/>
-      <x:c r="B50" s="19">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C50" s="20" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D50" s="20" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E50" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F50" s="20">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G50" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H50" s="21"/>
-      <x:c r="I50" s="21"/>
-      <x:c r="J50" s="20"/>
+      <x:c r="B50" s="10">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C50" s="11" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D50" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E50" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F50" s="11">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G50" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H50" s="11"/>
+      <x:c r="I50" s="12"/>
+      <x:c r="J50" s="11"/>
       <x:c r="K50" s="2"/>
       <x:c r="L50" s="2"/>
       <x:c r="M50" s="2"/>
@@ -3672,27 +3698,27 @@
     </x:row>
     <x:row r="51" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A51" s="4"/>
-      <x:c r="B51" s="19">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C51" s="20" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D51" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E51" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F51" s="20">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G51" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H51" s="20"/>
-      <x:c r="I51" s="21"/>
-      <x:c r="J51" s="20"/>
+      <x:c r="B51" s="10">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C51" s="11" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D51" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E51" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F51" s="11">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="G51" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H51" s="12"/>
+      <x:c r="I51" s="12"/>
+      <x:c r="J51" s="11"/>
       <x:c r="K51" s="2"/>
       <x:c r="L51" s="2"/>
       <x:c r="M51" s="2"/>
@@ -3711,27 +3737,29 @@
     </x:row>
     <x:row r="52" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A52" s="4"/>
-      <x:c r="B52" s="19">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C52" s="20" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D52" s="20" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E52" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F52" s="20">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="G52" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H52" s="21"/>
-      <x:c r="I52" s="21"/>
-      <x:c r="J52" s="20"/>
+      <x:c r="B52" s="10">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C52" s="11" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D52" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E52" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F52" s="11">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G52" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H52" s="12"/>
+      <x:c r="I52" s="12"/>
+      <x:c r="J52" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="K52" s="2"/>
       <x:c r="L52" s="2"/>
       <x:c r="M52" s="2"/>
@@ -3750,27 +3778,29 @@
     </x:row>
     <x:row r="53" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A53" s="4"/>
-      <x:c r="B53" s="19">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C53" s="20" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D53" s="20" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E53" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F53" s="20">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G53" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H53" s="21"/>
-      <x:c r="I53" s="21"/>
-      <x:c r="J53" s="20"/>
+      <x:c r="B53" s="10">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C53" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D53" s="11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E53" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F53" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G53" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H53" s="11"/>
+      <x:c r="I53" s="12"/>
+      <x:c r="J53" s="15" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="K53" s="2"/>
       <x:c r="L53" s="2"/>
       <x:c r="M53" s="2"/>
@@ -3789,27 +3819,29 @@
     </x:row>
     <x:row r="54" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A54" s="4"/>
-      <x:c r="B54" s="19">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C54" s="20" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D54" s="20" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E54" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F54" s="20">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G54" s="20" t="s">
+      <x:c r="B54" s="10">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C54" s="11" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D54" s="11" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E54" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F54" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H54" s="20"/>
-      <x:c r="I54" s="21"/>
-      <x:c r="J54" s="20"/>
+      <x:c r="G54" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H54" s="12"/>
+      <x:c r="I54" s="12"/>
+      <x:c r="J54" s="15" t="s">
+        <x:v>111</x:v>
+      </x:c>
       <x:c r="K54" s="2"/>
       <x:c r="L54" s="2"/>
       <x:c r="M54" s="2"/>
@@ -3828,27 +3860,29 @@
     </x:row>
     <x:row r="55" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A55" s="4"/>
-      <x:c r="B55" s="19">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C55" s="20" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D55" s="20" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E55" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F55" s="20">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G55" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H55" s="21"/>
-      <x:c r="I55" s="21"/>
-      <x:c r="J55" s="22"/>
+      <x:c r="B55" s="10">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C55" s="11" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D55" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E55" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F55" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G55" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H55" s="12"/>
+      <x:c r="I55" s="14"/>
+      <x:c r="J55" s="15" t="s">
+        <x:v>53</x:v>
+      </x:c>
       <x:c r="K55" s="2"/>
       <x:c r="L55" s="2"/>
       <x:c r="M55" s="2"/>
@@ -3867,28 +3901,28 @@
     </x:row>
     <x:row r="56" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A56" s="4"/>
-      <x:c r="B56" s="19">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C56" s="20" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D56" s="20" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E56" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F56" s="20">
+      <x:c r="B56" s="10">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C56" s="11" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D56" s="11" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E56" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F56" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G56" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H56" s="21"/>
-      <x:c r="I56" s="23"/>
-      <x:c r="J56" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="G56" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H56" s="12"/>
+      <x:c r="I56" s="14"/>
+      <x:c r="J56" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K56" s="2"/>
       <x:c r="L56" s="2"/>
@@ -3908,28 +3942,28 @@
     </x:row>
     <x:row r="57" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
-      <x:c r="B57" s="19">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C57" s="20" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D57" s="20" t="s">
+      <x:c r="B57" s="10">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C57" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D57" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E57" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F57" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G57" s="11" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E57" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F57" s="20">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G57" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H57" s="21"/>
-      <x:c r="I57" s="23"/>
-      <x:c r="J57" s="24" t="s">
-        <x:v>104</x:v>
+      <x:c r="H57" s="12"/>
+      <x:c r="I57" s="14"/>
+      <x:c r="J57" s="15" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K57" s="2"/>
       <x:c r="L57" s="2"/>
@@ -3949,29 +3983,15 @@
     </x:row>
     <x:row r="58" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A58" s="3"/>
-      <x:c r="B58" s="19">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C58" s="20" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D58" s="20" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E58" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F58" s="20">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G58" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H58" s="21"/>
-      <x:c r="I58" s="23"/>
-      <x:c r="J58" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
+      <x:c r="B58" s="8"/>
+      <x:c r="C58" s="8"/>
+      <x:c r="D58" s="8"/>
+      <x:c r="E58" s="8"/>
+      <x:c r="F58" s="8"/>
+      <x:c r="G58" s="8"/>
+      <x:c r="H58" s="8"/>
+      <x:c r="I58" s="8"/>
+      <x:c r="J58" s="9"/>
       <x:c r="K58" s="2"/>
       <x:c r="L58" s="2"/>
       <x:c r="M58" s="2"/>
@@ -3990,15 +4010,17 @@
     </x:row>
     <x:row r="59" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A59" s="3"/>
-      <x:c r="B59" s="14"/>
-      <x:c r="C59" s="14"/>
-      <x:c r="D59" s="14"/>
-      <x:c r="E59" s="14"/>
-      <x:c r="F59" s="14"/>
-      <x:c r="G59" s="14"/>
-      <x:c r="H59" s="14"/>
-      <x:c r="I59" s="14"/>
-      <x:c r="J59" s="15"/>
+      <x:c r="B59" s="36" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C59" s="37"/>
+      <x:c r="D59" s="37"/>
+      <x:c r="E59" s="37"/>
+      <x:c r="F59" s="37"/>
+      <x:c r="G59" s="37"/>
+      <x:c r="H59" s="37"/>
+      <x:c r="I59" s="37"/>
+      <x:c r="J59" s="37"/>
       <x:c r="K59" s="2"/>
       <x:c r="L59" s="2"/>
       <x:c r="M59" s="2"/>
@@ -4017,17 +4039,33 @@
     </x:row>
     <x:row r="60" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A60" s="3"/>
-      <x:c r="B60" s="26" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C60" s="27"/>
-      <x:c r="D60" s="27"/>
-      <x:c r="E60" s="27"/>
-      <x:c r="F60" s="27"/>
-      <x:c r="G60" s="27"/>
-      <x:c r="H60" s="27"/>
-      <x:c r="I60" s="27"/>
-      <x:c r="J60" s="27"/>
+      <x:c r="B60" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C60" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D60" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E60" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F60" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G60" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H60" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I60" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J60" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="K60" s="2"/>
       <x:c r="L60" s="2"/>
       <x:c r="M60" s="2"/>
@@ -4046,33 +4084,31 @@
     </x:row>
     <x:row r="61" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A61" s="3"/>
-      <x:c r="B61" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C61" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D61" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E61" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F61" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G61" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H61" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I61" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J61" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="B61" s="10">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C61" s="11" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D61" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E61" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F61" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G61" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H61" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I61" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J61" s="17"/>
       <x:c r="K61" s="2"/>
       <x:c r="L61" s="2"/>
       <x:c r="M61" s="2"/>
@@ -4091,31 +4127,27 @@
     </x:row>
     <x:row r="62" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A62" s="3"/>
-      <x:c r="B62" s="19">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C62" s="20" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D62" s="20" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E62" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F62" s="20">
+      <x:c r="B62" s="10">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C62" s="18" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D62" s="11" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G62" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H62" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I62" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J62" s="28"/>
+      <x:c r="E62" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F62" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G62" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H62" s="11"/>
+      <x:c r="I62" s="11"/>
+      <x:c r="J62" s="17"/>
       <x:c r="K62" s="2"/>
       <x:c r="L62" s="2"/>
       <x:c r="M62" s="2"/>
@@ -4134,27 +4166,27 @@
     </x:row>
     <x:row r="63" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A63" s="3"/>
-      <x:c r="B63" s="19">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C63" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D63" s="20" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E63" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F63" s="20">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G63" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H63" s="20"/>
-      <x:c r="I63" s="20"/>
-      <x:c r="J63" s="28"/>
+      <x:c r="B63" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C63" s="18" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D63" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E63" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F63" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G63" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H63" s="11"/>
+      <x:c r="I63" s="11"/>
+      <x:c r="J63" s="11"/>
       <x:c r="K63" s="2"/>
       <x:c r="L63" s="2"/>
       <x:c r="M63" s="2"/>
@@ -4174,26 +4206,26 @@
     <x:row r="64" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A64" s="3"/>
       <x:c r="B64" s="19">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C64" s="29" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D64" s="20" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E64" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F64" s="20">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G64" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H64" s="20"/>
-      <x:c r="I64" s="20"/>
-      <x:c r="J64" s="20"/>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C64" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D64" s="19" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E64" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F64" s="11">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G64" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H64" s="21"/>
+      <x:c r="I64" s="24"/>
+      <x:c r="J64" s="15"/>
       <x:c r="K64" s="2"/>
       <x:c r="L64" s="2"/>
       <x:c r="M64" s="2"/>
@@ -4212,27 +4244,29 @@
     </x:row>
     <x:row r="65" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A65" s="3"/>
-      <x:c r="B65" s="30">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C65" s="31" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D65" s="30" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E65" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F65" s="20">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="G65" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H65" s="32"/>
-      <x:c r="I65" s="36"/>
-      <x:c r="J65" s="33"/>
+      <x:c r="B65" s="17">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C65" s="22" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D65" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E65" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F65" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G65" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H65" s="23"/>
+      <x:c r="I65" s="16"/>
+      <x:c r="J65" s="15" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="K65" s="2"/>
       <x:c r="L65" s="2"/>
       <x:c r="M65" s="2"/>
@@ -4251,28 +4285,28 @@
     </x:row>
     <x:row r="66" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A66" s="3"/>
-      <x:c r="B66" s="28">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C66" s="34" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D66" s="28" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E66" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F66" s="20">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G66" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H66" s="35"/>
-      <x:c r="I66" s="25"/>
-      <x:c r="J66" s="24" t="s">
-        <x:v>102</x:v>
+      <x:c r="B66" s="19">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C66" s="22" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D66" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E66" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F66" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G66" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H66" s="11"/>
+      <x:c r="I66" s="23"/>
+      <x:c r="J66" s="25" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K66" s="2"/>
       <x:c r="L66" s="2"/>
@@ -4292,27 +4326,29 @@
     </x:row>
     <x:row r="67" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A67" s="3"/>
-      <x:c r="B67" s="30">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C67" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D67" s="28" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E67" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F67" s="20">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G67" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H67" s="20"/>
-      <x:c r="I67" s="35"/>
-      <x:c r="J67" s="37"/>
+      <x:c r="B67" s="17">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C67" s="22" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D67" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E67" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F67" s="11">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G67" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H67" s="11"/>
+      <x:c r="I67" s="23"/>
+      <x:c r="J67" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="K67" s="2"/>
       <x:c r="L67" s="2"/>
       <x:c r="M67" s="2"/>
@@ -4331,27 +4367,29 @@
     </x:row>
     <x:row r="68" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A68" s="3"/>
-      <x:c r="B68" s="28">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C68" s="34" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D68" s="28" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E68" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F68" s="20">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G68" s="20" t="s">
+      <x:c r="B68" s="17">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C68" s="17" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D68" s="17" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E68" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F68" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H68" s="20"/>
-      <x:c r="I68" s="35"/>
-      <x:c r="J68" s="28"/>
+      <x:c r="G68" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H68" s="11"/>
+      <x:c r="I68" s="23" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J68" s="17"/>
       <x:c r="K68" s="2"/>
       <x:c r="L68" s="2"/>
       <x:c r="M68" s="2"/>
@@ -4370,29 +4408,15 @@
     </x:row>
     <x:row r="69" spans="1:25" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
-      <x:c r="B69" s="28">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C69" s="28" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D69" s="28" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E69" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F69" s="20">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G69" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H69" s="20"/>
-      <x:c r="I69" s="35" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J69" s="28"/>
+      <x:c r="B69" s="3"/>
+      <x:c r="C69" s="3"/>
+      <x:c r="D69" s="3"/>
+      <x:c r="E69" s="3"/>
+      <x:c r="F69" s="3"/>
+      <x:c r="G69" s="3"/>
+      <x:c r="H69" s="3"/>
+      <x:c r="I69" s="3"/>
+      <x:c r="J69" s="4"/>
       <x:c r="K69" s="2"/>
       <x:c r="L69" s="2"/>
       <x:c r="M69" s="2"/>
@@ -29651,11 +29675,11 @@
     <x:mergeCell ref="B5:J5"/>
     <x:mergeCell ref="B18:J18"/>
     <x:mergeCell ref="B29:J29"/>
-    <x:mergeCell ref="B38:J38"/>
-    <x:mergeCell ref="B46:J46"/>
-    <x:mergeCell ref="B60:J60"/>
+    <x:mergeCell ref="B37:J37"/>
+    <x:mergeCell ref="B45:J45"/>
+    <x:mergeCell ref="B59:J59"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -13,12 +13,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
   <x:si>
     <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 using, reserved, unused</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 (Member_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자리 이상 15자리 이내</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
@@ -28,25 +352,19 @@
     <x:t>n_registrant</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자리 이상 15자리 이내</x:t>
+    <x:t>공지사항 (Notice_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
   </x:si>
   <x:si>
     <x:t>부가서비스(ExtraService_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
+    <x:t>입력값 not exist, exist</x:t>
   </x:si>
   <x:si>
     <x:t>예약 (Reservation_tbl)</x:t>
@@ -55,322 +373,25 @@
     <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 not exist, exist</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력값 small, middle, big</x:t>
   </x:si>
   <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1099,6 +1120,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1160,19 +1194,6 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1784,8 +1805,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H79" activeCellId="0" sqref="H79:H79"/>
+    <x:sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H86" activeCellId="0" sqref="H86:H86"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1813,29 +1834,29 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C2" s="28"/>
-      <x:c r="D2" s="28"/>
-      <x:c r="E2" s="28"/>
-      <x:c r="F2" s="28"/>
-      <x:c r="G2" s="28"/>
-      <x:c r="H2" s="28"/>
-      <x:c r="I2" s="28"/>
-      <x:c r="J2" s="29"/>
+      <x:c r="B2" s="28" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C2" s="29"/>
+      <x:c r="D2" s="29"/>
+      <x:c r="E2" s="29"/>
+      <x:c r="F2" s="29"/>
+      <x:c r="G2" s="29"/>
+      <x:c r="H2" s="29"/>
+      <x:c r="I2" s="29"/>
+      <x:c r="J2" s="30"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="30"/>
-      <x:c r="C3" s="31"/>
-      <x:c r="D3" s="31"/>
-      <x:c r="E3" s="31"/>
-      <x:c r="F3" s="31"/>
-      <x:c r="G3" s="31"/>
-      <x:c r="H3" s="31"/>
-      <x:c r="I3" s="31"/>
-      <x:c r="J3" s="32"/>
+      <x:c r="B3" s="31"/>
+      <x:c r="C3" s="32"/>
+      <x:c r="D3" s="32"/>
+      <x:c r="E3" s="32"/>
+      <x:c r="F3" s="32"/>
+      <x:c r="G3" s="32"/>
+      <x:c r="H3" s="32"/>
+      <x:c r="I3" s="32"/>
+      <x:c r="J3" s="33"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A4" s="3"/>
@@ -1851,46 +1872,46 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
-      <x:c r="B5" s="33" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="34"/>
-      <x:c r="D5" s="34"/>
-      <x:c r="E5" s="34"/>
-      <x:c r="F5" s="34"/>
-      <x:c r="G5" s="34"/>
-      <x:c r="H5" s="34"/>
-      <x:c r="I5" s="34"/>
-      <x:c r="J5" s="35"/>
+      <x:c r="B5" s="34" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C5" s="35"/>
+      <x:c r="D5" s="35"/>
+      <x:c r="E5" s="35"/>
+      <x:c r="F5" s="35"/>
+      <x:c r="G5" s="35"/>
+      <x:c r="H5" s="35"/>
+      <x:c r="I5" s="35"/>
+      <x:c r="J5" s="36"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1899,28 +1920,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J7" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1929,24 +1950,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D8" s="11" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D8" s="11" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="12">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H8" s="11"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1955,19 +1976,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -1979,22 +2000,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H10" s="11"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2003,19 +2024,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D11" s="11" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D11" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2027,24 +2048,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
       <x:c r="J12" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2053,19 +2074,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="11"/>
       <x:c r="I13" s="12"/>
@@ -2077,24 +2098,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H14" s="12"/>
       <x:c r="I14" s="14"/>
       <x:c r="J14" s="15" t="s">
-        <x:v>69</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2103,24 +2124,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H15" s="12"/>
       <x:c r="I15" s="14"/>
       <x:c r="J15" s="15" t="s">
-        <x:v>69</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2129,24 +2150,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H16" s="12"/>
       <x:c r="I16" s="14"/>
       <x:c r="J16" s="15" t="s">
-        <x:v>69</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2163,43 +2184,43 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="33" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C18" s="34"/>
-      <x:c r="D18" s="34"/>
-      <x:c r="E18" s="34"/>
-      <x:c r="F18" s="34"/>
-      <x:c r="G18" s="34"/>
-      <x:c r="H18" s="34"/>
-      <x:c r="I18" s="34"/>
-      <x:c r="J18" s="35"/>
+      <x:c r="B18" s="34" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C18" s="35"/>
+      <x:c r="D18" s="35"/>
+      <x:c r="E18" s="35"/>
+      <x:c r="F18" s="35"/>
+      <x:c r="G18" s="35"/>
+      <x:c r="H18" s="35"/>
+      <x:c r="I18" s="35"/>
+      <x:c r="J18" s="36"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
       <x:c r="B19" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D19" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F19" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H19" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I19" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J19" s="11"/>
     </x:row>
@@ -2209,25 +2230,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>102</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I20" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J20" s="13"/>
     </x:row>
@@ -2237,24 +2258,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H21" s="11"/>
       <x:c r="I21" s="14"/>
       <x:c r="J21" s="15" t="s">
-        <x:v>69</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2263,19 +2284,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H22" s="12"/>
       <x:c r="I22" s="14"/>
@@ -2287,19 +2308,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H23" s="11"/>
       <x:c r="I23" s="12"/>
@@ -2311,22 +2332,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="11" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="E24" s="11" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="F24" s="11"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H24" s="12"/>
       <x:c r="I24" s="12"/>
       <x:c r="J24" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2335,22 +2356,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F25" s="11"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H25" s="12"/>
       <x:c r="I25" s="12"/>
       <x:c r="J25" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2359,23 +2380,23 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G26" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
       <x:c r="I26" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J26" s="11"/>
     </x:row>
@@ -2385,23 +2406,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D27" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F27" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H27" s="12"/>
       <x:c r="I27" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J27" s="11"/>
     </x:row>
@@ -2419,43 +2440,43 @@
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="3"/>
-      <x:c r="B29" s="36" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C29" s="37"/>
-      <x:c r="D29" s="37"/>
-      <x:c r="E29" s="37"/>
-      <x:c r="F29" s="37"/>
-      <x:c r="G29" s="37"/>
-      <x:c r="H29" s="37"/>
-      <x:c r="I29" s="37"/>
-      <x:c r="J29" s="37"/>
+      <x:c r="B29" s="37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C29" s="38"/>
+      <x:c r="D29" s="38"/>
+      <x:c r="E29" s="38"/>
+      <x:c r="F29" s="38"/>
+      <x:c r="G29" s="38"/>
+      <x:c r="H29" s="38"/>
+      <x:c r="I29" s="38"/>
+      <x:c r="J29" s="38"/>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
       <x:c r="B30" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C30" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D30" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G30" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H30" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I30" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J30" s="11"/>
     </x:row>
@@ -2468,22 +2489,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D31" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F31" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I31" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J31" s="17"/>
     </x:row>
@@ -2493,19 +2514,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>111</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D32" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H32" s="11"/>
       <x:c r="I32" s="11"/>
@@ -2517,19 +2538,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H33" s="11"/>
       <x:c r="I33" s="11"/>
@@ -2541,22 +2562,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C34" s="20" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F34" s="11"/>
       <x:c r="G34" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H34" s="21"/>
       <x:c r="I34" s="21"/>
       <x:c r="J34" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
@@ -2565,23 +2586,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C35" s="22" t="s">
-        <x:v>103</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D35" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G35" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H35" s="11"/>
       <x:c r="I35" s="23" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J35" s="15"/>
     </x:row>
@@ -2599,46 +2620,46 @@
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="3"/>
-      <x:c r="B37" s="33" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C37" s="34"/>
-      <x:c r="D37" s="34"/>
-      <x:c r="E37" s="34"/>
-      <x:c r="F37" s="34"/>
-      <x:c r="G37" s="34"/>
-      <x:c r="H37" s="34"/>
-      <x:c r="I37" s="34"/>
-      <x:c r="J37" s="35"/>
+      <x:c r="B37" s="34" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C37" s="35"/>
+      <x:c r="D37" s="35"/>
+      <x:c r="E37" s="35"/>
+      <x:c r="F37" s="35"/>
+      <x:c r="G37" s="35"/>
+      <x:c r="H37" s="35"/>
+      <x:c r="I37" s="35"/>
+      <x:c r="J37" s="36"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
       <x:c r="B38" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C38" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D38" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E38" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F38" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G38" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H38" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I38" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J38" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
@@ -2647,25 +2668,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C39" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D39" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F39" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H39" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I39" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J39" s="11"/>
     </x:row>
@@ -2675,22 +2696,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F40" s="12"/>
       <x:c r="G40" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H40" s="11"/>
       <x:c r="I40" s="12"/>
       <x:c r="J40" s="26" t="s">
-        <x:v>2</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
@@ -2699,19 +2720,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C41" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G41" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H41" s="12"/>
       <x:c r="I41" s="12"/>
@@ -2723,19 +2744,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C42" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F42" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H42" s="11"/>
       <x:c r="I42" s="12"/>
@@ -2747,24 +2768,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C43" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G43" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H43" s="12"/>
       <x:c r="I43" s="12"/>
       <x:c r="J43" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
@@ -2781,46 +2802,46 @@
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="3"/>
-      <x:c r="B45" s="33" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C45" s="34"/>
-      <x:c r="D45" s="34"/>
-      <x:c r="E45" s="34"/>
-      <x:c r="F45" s="34"/>
-      <x:c r="G45" s="34"/>
-      <x:c r="H45" s="34"/>
-      <x:c r="I45" s="34"/>
-      <x:c r="J45" s="35"/>
+      <x:c r="B45" s="34" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C45" s="35"/>
+      <x:c r="D45" s="35"/>
+      <x:c r="E45" s="35"/>
+      <x:c r="F45" s="35"/>
+      <x:c r="G45" s="35"/>
+      <x:c r="H45" s="35"/>
+      <x:c r="I45" s="35"/>
+      <x:c r="J45" s="36"/>
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
       <x:c r="B46" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C46" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D46" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E46" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F46" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G46" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H46" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I46" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J46" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -2829,25 +2850,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D47" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E47" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F47" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H47" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I47" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J47" s="11"/>
     </x:row>
@@ -2857,19 +2878,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F48" s="12">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H48" s="11"/>
       <x:c r="I48" s="12"/>
@@ -2881,19 +2902,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F49" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H49" s="12"/>
       <x:c r="I49" s="12"/>
@@ -2905,19 +2926,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F50" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G50" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H50" s="11"/>
       <x:c r="I50" s="12"/>
@@ -2929,19 +2950,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F51" s="11">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G51" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H51" s="12"/>
       <x:c r="I51" s="12"/>
@@ -2953,24 +2974,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D52" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F52" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G52" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H52" s="12"/>
       <x:c r="I52" s="12"/>
       <x:c r="J52" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
@@ -2979,24 +3000,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F53" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H53" s="11"/>
       <x:c r="I53" s="12"/>
       <x:c r="J53" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3005,24 +3026,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F54" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G54" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H54" s="12"/>
       <x:c r="I54" s="12"/>
       <x:c r="J54" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3039,46 +3060,46 @@
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="3"/>
-      <x:c r="B56" s="36" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C56" s="37"/>
-      <x:c r="D56" s="37"/>
-      <x:c r="E56" s="37"/>
-      <x:c r="F56" s="37"/>
-      <x:c r="G56" s="37"/>
-      <x:c r="H56" s="37"/>
-      <x:c r="I56" s="37"/>
-      <x:c r="J56" s="37"/>
+      <x:c r="B56" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C56" s="38"/>
+      <x:c r="D56" s="38"/>
+      <x:c r="E56" s="38"/>
+      <x:c r="F56" s="38"/>
+      <x:c r="G56" s="38"/>
+      <x:c r="H56" s="38"/>
+      <x:c r="I56" s="38"/>
+      <x:c r="J56" s="38"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
       <x:c r="B57" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C57" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D57" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E57" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F57" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G57" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H57" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I57" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J57" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
@@ -3087,25 +3108,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="11" t="s">
-        <x:v>82</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D58" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F58" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G58" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H58" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I58" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J58" s="17"/>
     </x:row>
@@ -3115,19 +3136,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D59" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F59" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G59" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H59" s="11"/>
       <x:c r="I59" s="11"/>
@@ -3139,19 +3160,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F60" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H60" s="11"/>
       <x:c r="I60" s="11"/>
@@ -3163,19 +3184,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C61" s="20" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F61" s="11">
         <x:v>200</x:v>
       </x:c>
       <x:c r="G61" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H61" s="21"/>
       <x:c r="I61" s="24"/>
@@ -3187,24 +3208,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C62" s="22" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D62" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F62" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H62" s="23"/>
       <x:c r="I62" s="16"/>
       <x:c r="J62" s="15" t="s">
-        <x:v>10</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
@@ -3213,24 +3234,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C63" s="22" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F63" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G63" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H63" s="11"/>
       <x:c r="I63" s="23"/>
       <x:c r="J63" s="25" t="s">
-        <x:v>14</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
@@ -3239,24 +3260,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C64" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D64" s="17" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F64" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H64" s="11"/>
       <x:c r="I64" s="23"/>
       <x:c r="J64" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3265,23 +3286,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C65" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D65" s="17" t="s">
-        <x:v>100</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F65" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G65" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H65" s="11"/>
       <x:c r="I65" s="23" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J65" s="17"/>
     </x:row>
@@ -3300,7 +3321,7 @@
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="4"/>
       <x:c r="B67" s="39" t="s">
-        <x:v>9</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C67" s="39"/>
       <x:c r="D67" s="39"/>
@@ -3313,181 +3334,181 @@
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
-      <x:c r="B68" s="38" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C68" s="38" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D68" s="38" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E68" s="38" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F68" s="38" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G68" s="38" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H68" s="38" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="I68" s="38" t="s">
-        <x:v>45</x:v>
+      <x:c r="B68" s="27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C68" s="27" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D68" s="27" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E68" s="27" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F68" s="27" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G68" s="27" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H68" s="27" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I68" s="27" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J68" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
-      <x:c r="B69" s="38">
+      <x:c r="B69" s="27">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C69" s="38" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D69" s="38" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E69" s="38" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F69" s="38">
+      <x:c r="C69" s="27" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D69" s="27" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E69" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F69" s="27">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G69" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H69" s="38" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I69" s="38" t="s">
-        <x:v>62</x:v>
+      <x:c r="G69" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H69" s="27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I69" s="27" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J69" s="16"/>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="4"/>
-      <x:c r="B70" s="38">
+      <x:c r="B70" s="27">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C70" s="38" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D70" s="38" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E70" s="38" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F70" s="38">
+      <x:c r="C70" s="27" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D70" s="27" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E70" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F70" s="27">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G70" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H70" s="38"/>
-      <x:c r="I70" s="38"/>
+      <x:c r="G70" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H70" s="27"/>
+      <x:c r="I70" s="27"/>
       <x:c r="J70" s="16"/>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="4"/>
-      <x:c r="B71" s="38">
+      <x:c r="B71" s="27">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C71" s="38" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D71" s="38" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E71" s="38" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F71" s="38">
+      <x:c r="C71" s="27" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D71" s="27" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E71" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F71" s="27">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="G71" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H71" s="38"/>
-      <x:c r="I71" s="38"/>
+      <x:c r="G71" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H71" s="27"/>
+      <x:c r="I71" s="27"/>
       <x:c r="J71" s="16"/>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="3"/>
-      <x:c r="B72" s="38">
+      <x:c r="B72" s="27">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C72" s="38" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D72" s="38" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E72" s="38" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F72" s="38">
+      <x:c r="C72" s="27" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D72" s="27" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E72" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F72" s="27">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G72" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H72" s="38"/>
-      <x:c r="I72" s="38"/>
+      <x:c r="G72" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H72" s="27"/>
+      <x:c r="I72" s="27"/>
       <x:c r="J72" s="16"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="4"/>
-      <x:c r="B73" s="38">
+      <x:c r="B73" s="27">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C73" s="38" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D73" s="38" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E73" s="38" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F73" s="38">
+      <x:c r="C73" s="27" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D73" s="27" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E73" s="27" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F73" s="27">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G73" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H73" s="38"/>
-      <x:c r="I73" s="38"/>
+      <x:c r="G73" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H73" s="27"/>
+      <x:c r="I73" s="27"/>
       <x:c r="J73" s="16"/>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="4"/>
-      <x:c r="B74" s="38">
+      <x:c r="B74" s="27">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C74" s="38" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D74" s="38" t="s">
-        <x:v>72</x:v>
+      <x:c r="C74" s="27" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D74" s="27" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E74" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F74" s="11">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G74" s="38" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H74" s="38"/>
-      <x:c r="I74" s="38" t="s">
-        <x:v>44</x:v>
+      <x:c r="G74" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H74" s="27"/>
+      <x:c r="I74" s="27" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J74" s="16"/>
     </x:row>
@@ -3503,101 +3524,201 @@
       <x:c r="I75" s="3"/>
       <x:c r="J75" s="4"/>
     </x:row>
-    <x:row r="76" spans="1:10" ht="13.75">
+    <x:row r="76" spans="1:10" ht="16.399999999999999">
       <x:c r="A76" s="4"/>
-      <x:c r="B76" s="3"/>
-      <x:c r="C76" s="3"/>
-      <x:c r="D76" s="3"/>
-      <x:c r="E76" s="3"/>
-      <x:c r="F76" s="3"/>
-      <x:c r="G76" s="3"/>
-      <x:c r="H76" s="3"/>
-      <x:c r="I76" s="3"/>
-      <x:c r="J76" s="4"/>
+      <x:c r="B76" s="39" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C76" s="39"/>
+      <x:c r="D76" s="39"/>
+      <x:c r="E76" s="39"/>
+      <x:c r="F76" s="39"/>
+      <x:c r="G76" s="39"/>
+      <x:c r="H76" s="39"/>
+      <x:c r="I76" s="39"/>
+      <x:c r="J76" s="39"/>
     </x:row>
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
-      <x:c r="B77" s="3"/>
-      <x:c r="C77" s="3"/>
-      <x:c r="D77" s="3"/>
-      <x:c r="E77" s="3"/>
-      <x:c r="F77" s="3"/>
-      <x:c r="G77" s="3"/>
-      <x:c r="H77" s="3"/>
-      <x:c r="I77" s="3"/>
-      <x:c r="J77" s="4"/>
+      <x:c r="B77" s="27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C77" s="27" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D77" s="27" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E77" s="27" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F77" s="27" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G77" s="27" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H77" s="27" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I77" s="27" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J77" s="16" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="4"/>
-      <x:c r="B78" s="3"/>
-      <x:c r="C78" s="3"/>
-      <x:c r="D78" s="3"/>
-      <x:c r="E78" s="3"/>
-      <x:c r="F78" s="3"/>
-      <x:c r="G78" s="3"/>
-      <x:c r="H78" s="3"/>
-      <x:c r="I78" s="3"/>
-      <x:c r="J78" s="4"/>
+      <x:c r="B78" s="27">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C78" s="27" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D78" s="27" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E78" s="27" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F78" s="27">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G78" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H78" s="27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I78" s="27" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J78" s="16"/>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="4"/>
-      <x:c r="B79" s="3"/>
-      <x:c r="C79" s="3"/>
-      <x:c r="D79" s="3"/>
-      <x:c r="E79" s="3"/>
-      <x:c r="F79" s="3"/>
-      <x:c r="G79" s="3"/>
-      <x:c r="H79" s="3"/>
-      <x:c r="I79" s="3"/>
-      <x:c r="J79" s="4"/>
+      <x:c r="B79" s="27">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C79" s="27" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D79" s="27" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E79" s="27" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F79" s="27" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G79" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H79" s="27"/>
+      <x:c r="I79" s="27"/>
+      <x:c r="J79" s="16"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="4"/>
-      <x:c r="B80" s="3"/>
-      <x:c r="C80" s="3"/>
-      <x:c r="D80" s="3"/>
-      <x:c r="E80" s="3"/>
-      <x:c r="F80" s="3"/>
-      <x:c r="G80" s="3"/>
-      <x:c r="H80" s="3"/>
-      <x:c r="I80" s="3"/>
-      <x:c r="J80" s="4"/>
+      <x:c r="B80" s="27">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C80" s="27" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D80" s="27" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E80" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F80" s="27">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="G80" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H80" s="27"/>
+      <x:c r="I80" s="27"/>
+      <x:c r="J80" s="16"/>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="4"/>
-      <x:c r="B81" s="3"/>
-      <x:c r="C81" s="3"/>
-      <x:c r="D81" s="3"/>
-      <x:c r="E81" s="3"/>
-      <x:c r="F81" s="3"/>
-      <x:c r="G81" s="3"/>
-      <x:c r="H81" s="3"/>
-      <x:c r="I81" s="3"/>
-      <x:c r="J81" s="4"/>
+      <x:c r="B81" s="27">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C81" s="27" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D81" s="27" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E81" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F81" s="27">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G81" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H81" s="27"/>
+      <x:c r="I81" s="27"/>
+      <x:c r="J81" s="16"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="4"/>
-      <x:c r="B82" s="3"/>
-      <x:c r="C82" s="3"/>
-      <x:c r="D82" s="3"/>
-      <x:c r="E82" s="3"/>
-      <x:c r="F82" s="3"/>
-      <x:c r="G82" s="3"/>
-      <x:c r="H82" s="3"/>
-      <x:c r="I82" s="3"/>
-      <x:c r="J82" s="4"/>
+      <x:c r="B82" s="27">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C82" s="27" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D82" s="27" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E82" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F82" s="27">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G82" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H82" s="27"/>
+      <x:c r="I82" s="27"/>
+      <x:c r="J82" s="16"/>
     </x:row>
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="4"/>
-      <x:c r="B83" s="3"/>
-      <x:c r="C83" s="3"/>
-      <x:c r="D83" s="3"/>
-      <x:c r="E83" s="3"/>
-      <x:c r="F83" s="3"/>
-      <x:c r="G83" s="3"/>
-      <x:c r="H83" s="3"/>
-      <x:c r="I83" s="3"/>
-      <x:c r="J83" s="4"/>
+      <x:c r="B83" s="27">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C83" s="27" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D83" s="27" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E83" s="27" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F83" s="27">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G83" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H83" s="27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I83" s="27" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J83" s="16"/>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="3"/>
@@ -6522,7 +6643,7 @@
     <x:row r="1000" ht="15.75" customHeight="1"/>
     <x:row r="1001" ht="15.75" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="8">
+  <x:mergeCells count="9">
     <x:mergeCell ref="B2:J3"/>
     <x:mergeCell ref="B5:J5"/>
     <x:mergeCell ref="B18:J18"/>
@@ -6531,6 +6652,7 @@
     <x:mergeCell ref="B45:J45"/>
     <x:mergeCell ref="B56:J56"/>
     <x:mergeCell ref="B67:J67"/>
+    <x:mergeCell ref="B76:J76"/>
   </x:mergeCells>
   <x:pageMargins left="0.69958335161209106" right="0.69958335161209106" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -15,383 +15,383 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
   <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
     <x:t>q_content</x:t>
   </x:si>
   <x:si>
     <x:t>이미지 파일 경로명</x:t>
   </x:si>
   <x:si>
-    <x:t>r_approval</x:t>
+    <x:t>c_usestatus</x:t>
   </x:si>
   <x:si>
     <x:t>m_address</x:t>
   </x:si>
   <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
     <x:t>c_picture</x:t>
   </x:si>
   <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unused</x:t>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
   </x:si>
   <x:si>
     <x:t>c_no</x:t>
   </x:si>
   <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
     <x:t>p_num</x:t>
   </x:si>
   <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
     <x:t>케이지 번호</x:t>
   </x:si>
   <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_date</x:t>
+  </x:si>
+  <x:si>
     <x:t>실제 예약날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 not exist, exist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자리 이상 15자리 이내</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
+    <x:t>8자리 이상 15자리 이내</x:t>
+  </x:si>
+  <x:si>
     <x:t>n_registrant</x:t>
   </x:si>
   <x:si>
+    <x:t>회원 (Member_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
     <x:t>공지사항 (Notice_TBL)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 Y(yes), N(no)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 not exist, exist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
+    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
   </x:si>
   <x:si>
     <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1217,6 +1217,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1299,6 +1300,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1333,6 +1335,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1377,6 +1380,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1420,6 +1424,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1504,6 +1509,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1524,6 +1530,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1554,6 +1561,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1805,8 +1813,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H86" activeCellId="0" sqref="H86:H86"/>
+    <x:sheetView tabSelected="1" topLeftCell="D37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J49" activeCellId="0" sqref="J49:J49"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1835,7 +1843,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="28" t="s">
-        <x:v>61</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C2" s="29"/>
       <x:c r="D2" s="29"/>
@@ -1873,7 +1881,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
       <x:c r="B5" s="34" t="s">
-        <x:v>106</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="35"/>
@@ -1887,31 +1895,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F6" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1920,28 +1928,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H7" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J7" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1950,24 +1958,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F8" s="12">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="11"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1976,19 +1984,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -2000,22 +2008,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="11"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2024,19 +2032,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2048,24 +2056,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
       <x:c r="J12" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2074,19 +2082,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H13" s="11"/>
       <x:c r="I13" s="12"/>
@@ -2098,24 +2106,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H14" s="12"/>
       <x:c r="I14" s="14"/>
       <x:c r="J14" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2124,24 +2132,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H15" s="12"/>
       <x:c r="I15" s="14"/>
       <x:c r="J15" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2150,24 +2158,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="12"/>
       <x:c r="I16" s="14"/>
       <x:c r="J16" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2185,7 +2193,7 @@
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
       <x:c r="B18" s="34" t="s">
-        <x:v>117</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C18" s="35"/>
       <x:c r="D18" s="35"/>
@@ -2199,28 +2207,28 @@
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
       <x:c r="B19" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C19" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F19" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H19" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I19" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J19" s="11"/>
     </x:row>
@@ -2230,25 +2238,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I20" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J20" s="13"/>
     </x:row>
@@ -2258,24 +2266,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H21" s="11"/>
       <x:c r="I21" s="14"/>
       <x:c r="J21" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2284,19 +2292,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="12"/>
       <x:c r="I22" s="14"/>
@@ -2308,19 +2316,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H23" s="11"/>
       <x:c r="I23" s="12"/>
@@ -2332,22 +2340,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F24" s="11"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H24" s="12"/>
       <x:c r="I24" s="12"/>
       <x:c r="J24" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2356,22 +2364,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F25" s="11"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H25" s="12"/>
       <x:c r="I25" s="12"/>
       <x:c r="J25" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2380,23 +2388,23 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F26" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G26" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
       <x:c r="I26" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J26" s="11"/>
     </x:row>
@@ -2406,23 +2414,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D27" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F27" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H27" s="12"/>
       <x:c r="I27" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J27" s="11"/>
     </x:row>
@@ -2441,7 +2449,7 @@
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="3"/>
       <x:c r="B29" s="37" t="s">
-        <x:v>53</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C29" s="38"/>
       <x:c r="D29" s="38"/>
@@ -2455,28 +2463,28 @@
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
       <x:c r="B30" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C30" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D30" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G30" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H30" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I30" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J30" s="11"/>
     </x:row>
@@ -2486,25 +2494,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C31" s="11" t="s">
-        <x:v>99</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D31" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F31" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I31" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J31" s="17"/>
     </x:row>
@@ -2514,19 +2522,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D32" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F32" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H32" s="11"/>
       <x:c r="I32" s="11"/>
@@ -2538,19 +2546,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F33" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H33" s="11"/>
       <x:c r="I33" s="11"/>
@@ -2562,22 +2570,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C34" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F34" s="11"/>
       <x:c r="G34" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H34" s="21"/>
       <x:c r="I34" s="21"/>
       <x:c r="J34" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
@@ -2586,23 +2594,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C35" s="22" t="s">
-        <x:v>90</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D35" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F35" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G35" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H35" s="11"/>
       <x:c r="I35" s="23" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J35" s="15"/>
     </x:row>
@@ -2621,7 +2629,7 @@
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="3"/>
       <x:c r="B37" s="34" t="s">
-        <x:v>112</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C37" s="35"/>
       <x:c r="D37" s="35"/>
@@ -2635,31 +2643,31 @@
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
       <x:c r="B38" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C38" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D38" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E38" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F38" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G38" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H38" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I38" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J38" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
@@ -2668,25 +2676,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C39" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D39" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F39" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H39" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I39" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J39" s="11"/>
     </x:row>
@@ -2696,22 +2704,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F40" s="12"/>
       <x:c r="G40" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H40" s="11"/>
       <x:c r="I40" s="12"/>
       <x:c r="J40" s="26" t="s">
-        <x:v>110</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
@@ -2720,19 +2728,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C41" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F41" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G41" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H41" s="12"/>
       <x:c r="I41" s="12"/>
@@ -2744,19 +2752,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C42" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F42" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H42" s="11"/>
       <x:c r="I42" s="12"/>
@@ -2768,24 +2776,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C43" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F43" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G43" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H43" s="12"/>
       <x:c r="I43" s="12"/>
       <x:c r="J43" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
@@ -2803,7 +2811,7 @@
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="3"/>
       <x:c r="B45" s="34" t="s">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C45" s="35"/>
       <x:c r="D45" s="35"/>
@@ -2817,31 +2825,31 @@
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
       <x:c r="B46" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C46" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E46" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F46" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G46" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H46" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I46" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J46" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -2850,25 +2858,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D47" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E47" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F47" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H47" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I47" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J47" s="11"/>
     </x:row>
@@ -2878,19 +2886,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F48" s="12">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="11"/>
       <x:c r="I48" s="12"/>
@@ -2902,19 +2910,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F49" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H49" s="12"/>
       <x:c r="I49" s="12"/>
@@ -2926,19 +2934,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F50" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G50" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H50" s="11"/>
       <x:c r="I50" s="12"/>
@@ -2950,19 +2958,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F51" s="11">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G51" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H51" s="12"/>
       <x:c r="I51" s="12"/>
@@ -2974,24 +2982,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D52" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F52" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G52" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H52" s="12"/>
       <x:c r="I52" s="12"/>
       <x:c r="J52" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
@@ -3000,24 +3008,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F53" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H53" s="11"/>
       <x:c r="I53" s="12"/>
       <x:c r="J53" s="15" t="s">
-        <x:v>116</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3026,24 +3034,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F54" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G54" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H54" s="12"/>
       <x:c r="I54" s="12"/>
       <x:c r="J54" s="15" t="s">
-        <x:v>54</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3061,7 +3069,7 @@
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="3"/>
       <x:c r="B56" s="37" t="s">
-        <x:v>21</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C56" s="38"/>
       <x:c r="D56" s="38"/>
@@ -3075,31 +3083,31 @@
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
       <x:c r="B57" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D57" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E57" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F57" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G57" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H57" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I57" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J57" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
@@ -3108,25 +3116,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D58" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F58" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G58" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H58" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I58" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J58" s="17"/>
     </x:row>
@@ -3136,19 +3144,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D59" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F59" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G59" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H59" s="11"/>
       <x:c r="I59" s="11"/>
@@ -3160,19 +3168,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>15</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F60" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H60" s="11"/>
       <x:c r="I60" s="11"/>
@@ -3184,19 +3192,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C61" s="20" t="s">
-        <x:v>18</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F61" s="11">
         <x:v>200</x:v>
       </x:c>
       <x:c r="G61" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H61" s="21"/>
       <x:c r="I61" s="24"/>
@@ -3208,24 +3216,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C62" s="22" t="s">
-        <x:v>11</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D62" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F62" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H62" s="23"/>
       <x:c r="I62" s="16"/>
       <x:c r="J62" s="15" t="s">
-        <x:v>114</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
@@ -3234,24 +3242,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C63" s="22" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D63" s="17" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D63" s="17" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E63" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F63" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G63" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H63" s="11"/>
       <x:c r="I63" s="23"/>
       <x:c r="J63" s="25" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
@@ -3260,24 +3268,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C64" s="22" t="s">
-        <x:v>10</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D64" s="17" t="s">
-        <x:v>93</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F64" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H64" s="11"/>
       <x:c r="I64" s="23"/>
       <x:c r="J64" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3286,23 +3294,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C65" s="17" t="s">
-        <x:v>90</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D65" s="17" t="s">
-        <x:v>82</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F65" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G65" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H65" s="11"/>
       <x:c r="I65" s="23" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J65" s="17"/>
     </x:row>
@@ -3321,7 +3329,7 @@
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="4"/>
       <x:c r="B67" s="39" t="s">
-        <x:v>115</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C67" s="39"/>
       <x:c r="D67" s="39"/>
@@ -3335,31 +3343,31 @@
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
       <x:c r="B68" s="27" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C68" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D68" s="27" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E68" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F68" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G68" s="27" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H68" s="27" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I68" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J68" s="16" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
@@ -3368,25 +3376,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C69" s="27" t="s">
-        <x:v>94</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D69" s="27" t="s">
-        <x:v>96</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E69" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F69" s="27">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G69" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H69" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I69" s="27" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J69" s="16"/>
     </x:row>
@@ -3396,19 +3404,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D70" s="27" t="s">
-        <x:v>92</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E70" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F70" s="27">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G70" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H70" s="27"/>
       <x:c r="I70" s="27"/>
@@ -3420,19 +3428,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D71" s="27" t="s">
-        <x:v>103</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E71" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F71" s="27">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G71" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H71" s="27"/>
       <x:c r="I71" s="27"/>
@@ -3444,19 +3452,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C72" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D72" s="27" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E72" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F72" s="27">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G72" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H72" s="27"/>
       <x:c r="I72" s="27"/>
@@ -3468,19 +3476,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C73" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D73" s="27" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E73" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F73" s="27">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G73" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H73" s="27"/>
       <x:c r="I73" s="27"/>
@@ -3492,23 +3500,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C74" s="27" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D74" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E74" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F74" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G74" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H74" s="27"/>
       <x:c r="I74" s="27" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J74" s="16"/>
     </x:row>
@@ -3527,7 +3535,7 @@
     <x:row r="76" spans="1:10" ht="16.399999999999999">
       <x:c r="A76" s="4"/>
       <x:c r="B76" s="39" t="s">
-        <x:v>123</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C76" s="39"/>
       <x:c r="D76" s="39"/>
@@ -3541,31 +3549,31 @@
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
       <x:c r="B77" s="27" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C77" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D77" s="27" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E77" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F77" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G77" s="27" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H77" s="27" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I77" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J77" s="16" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
@@ -3574,25 +3582,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C78" s="27" t="s">
-        <x:v>120</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D78" s="27" t="s">
-        <x:v>104</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E78" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F78" s="27">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G78" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H78" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I78" s="27" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J78" s="16"/>
     </x:row>
@@ -3602,19 +3610,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C79" s="27" t="s">
-        <x:v>124</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D79" s="27" t="s">
-        <x:v>101</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E79" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F79" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G79" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H79" s="27"/>
       <x:c r="I79" s="27"/>
@@ -3626,19 +3634,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C80" s="27" t="s">
-        <x:v>125</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D80" s="27" t="s">
-        <x:v>80</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E80" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F80" s="27">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G80" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H80" s="27"/>
       <x:c r="I80" s="27"/>
@@ -3650,19 +3658,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C81" s="27" t="s">
-        <x:v>121</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D81" s="27" t="s">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E81" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F81" s="27">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G81" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H81" s="27"/>
       <x:c r="I81" s="27"/>
@@ -3674,19 +3682,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C82" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D82" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E82" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F82" s="27">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G82" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="27"/>
       <x:c r="I82" s="27"/>
@@ -3698,25 +3706,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C83" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D83" s="27" t="s">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E83" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F83" s="27">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G83" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H83" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I83" s="27" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J83" s="16"/>
     </x:row>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -13,180 +13,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
   </x:si>
   <x:si>
     <x:t>필수약관2</x:t>
   </x:si>
   <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
   </x:si>
   <x:si>
     <x:t>n_title</x:t>
   </x:si>
   <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
   </x:si>
   <x:si>
     <x:t>n_no</x:t>
@@ -195,125 +141,188 @@
     <x:t>서비스 번호</x:t>
   </x:si>
   <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
     <x:t>강아지사진</x:t>
   </x:si>
   <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
     <x:t>s_price</x:t>
   </x:si>
   <x:si>
     <x:t>등록일시</x:t>
   </x:si>
   <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
     <x:t>특이사항</x:t>
   </x:si>
   <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 not exist, exist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
   </x:si>
   <x:si>
     <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 (Member_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>c_explain</x:t>
@@ -325,73 +334,70 @@
     <x:t>p_unique</x:t>
   </x:si>
   <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
   </x:si>
   <x:si>
     <x:t>n_regdate</x:t>
   </x:si>
   <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
     <x:t>p_dogbreed</x:t>
   </x:si>
   <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
     <x:t>m_required2</x:t>
   </x:si>
   <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
+    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_TBL)</x:t>
   </x:si>
   <x:si>
     <x:t>reply_registrant</x:t>
   </x:si>
   <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력값 Y(yes), N(no)</x:t>
   </x:si>
   <x:si>
-    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1217,7 +1223,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1300,7 +1305,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1335,7 +1339,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1380,7 +1383,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1424,7 +1426,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1509,7 +1510,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1530,7 +1530,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1561,7 +1560,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1813,8 +1811,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J49" activeCellId="0" sqref="J49:J49"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1843,7 +1841,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="28" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C2" s="29"/>
       <x:c r="D2" s="29"/>
@@ -1881,7 +1879,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
       <x:c r="B5" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="35"/>
@@ -1895,31 +1893,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D6" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E6" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C6" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E6" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="F6" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1928,28 +1926,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H7" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J7" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1958,24 +1956,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F8" s="12">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H8" s="11"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1984,19 +1982,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -2008,22 +2006,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H10" s="11"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2032,19 +2030,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2056,24 +2054,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
       <x:c r="J12" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2082,19 +2080,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H13" s="11"/>
       <x:c r="I13" s="12"/>
@@ -2109,21 +2107,21 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H14" s="12"/>
       <x:c r="I14" s="14"/>
       <x:c r="J14" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2132,24 +2130,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H15" s="12"/>
       <x:c r="I15" s="14"/>
       <x:c r="J15" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2158,24 +2156,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>115</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H16" s="12"/>
       <x:c r="I16" s="14"/>
       <x:c r="J16" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2193,7 +2191,7 @@
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
       <x:c r="B18" s="34" t="s">
-        <x:v>86</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C18" s="35"/>
       <x:c r="D18" s="35"/>
@@ -2207,28 +2205,28 @@
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
       <x:c r="B19" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C19" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E19" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C19" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D19" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E19" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="F19" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H19" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I19" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J19" s="11"/>
     </x:row>
@@ -2238,25 +2236,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I20" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J20" s="13"/>
     </x:row>
@@ -2266,24 +2264,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H21" s="11"/>
       <x:c r="I21" s="14"/>
       <x:c r="J21" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2292,19 +2290,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H22" s="12"/>
       <x:c r="I22" s="14"/>
@@ -2316,19 +2314,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H23" s="11"/>
       <x:c r="I23" s="12"/>
@@ -2340,22 +2338,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="11"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H24" s="12"/>
       <x:c r="I24" s="12"/>
       <x:c r="J24" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2364,22 +2362,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F25" s="11"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H25" s="12"/>
       <x:c r="I25" s="12"/>
       <x:c r="J25" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2388,25 +2386,23 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F26" s="11">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F26" s="11"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
-      <x:c r="I26" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J26" s="11"/>
+      <x:c r="I26" s="12"/>
+      <x:c r="J26" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A27" s="3"/>
@@ -2414,1033 +2410,1035 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D27" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E27" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F27" s="11">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G27" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H27" s="11"/>
+      <x:c r="I27" s="12" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="D27" s="11" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E27" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F27" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G27" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H27" s="12"/>
-      <x:c r="I27" s="12" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="J27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A28" s="3"/>
-      <x:c r="B28" s="8"/>
-      <x:c r="C28" s="8"/>
-      <x:c r="D28" s="8"/>
-      <x:c r="E28" s="8"/>
-      <x:c r="F28" s="8"/>
-      <x:c r="G28" s="8"/>
-      <x:c r="H28" s="8"/>
-      <x:c r="I28" s="8"/>
-      <x:c r="J28" s="9"/>
+      <x:c r="B28" s="10">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C28" s="11" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D28" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E28" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F28" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G28" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H28" s="12"/>
+      <x:c r="I28" s="12" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="3"/>
-      <x:c r="B29" s="37" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C29" s="38"/>
-      <x:c r="D29" s="38"/>
-      <x:c r="E29" s="38"/>
-      <x:c r="F29" s="38"/>
-      <x:c r="G29" s="38"/>
-      <x:c r="H29" s="38"/>
-      <x:c r="I29" s="38"/>
-      <x:c r="J29" s="38"/>
+      <x:c r="B29" s="8"/>
+      <x:c r="C29" s="8"/>
+      <x:c r="D29" s="8"/>
+      <x:c r="E29" s="8"/>
+      <x:c r="F29" s="8"/>
+      <x:c r="G29" s="8"/>
+      <x:c r="H29" s="8"/>
+      <x:c r="I29" s="8"/>
+      <x:c r="J29" s="9"/>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
-      <x:c r="B30" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C30" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D30" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E30" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F30" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G30" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H30" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I30" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J30" s="11"/>
+      <x:c r="B30" s="37" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C30" s="38"/>
+      <x:c r="D30" s="38"/>
+      <x:c r="E30" s="38"/>
+      <x:c r="F30" s="38"/>
+      <x:c r="G30" s="38"/>
+      <x:c r="H30" s="38"/>
+      <x:c r="I30" s="38"/>
+      <x:c r="J30" s="38"/>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="3"/>
-      <x:c r="B31" s="10">
+      <x:c r="B31" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C31" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D31" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E31" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C31" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D31" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E31" s="11" t="s">
+      <x:c r="F31" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G31" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H31" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I31" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F31" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G31" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H31" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I31" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J31" s="17"/>
+      <x:c r="J31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A32" s="3"/>
       <x:c r="B32" s="10">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C32" s="18" t="s">
-        <x:v>67</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" s="11" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D32" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F32" s="11">
-        <x:v>50</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H32" s="11"/>
-      <x:c r="I32" s="11"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H32" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I32" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="J32" s="17"/>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A33" s="3"/>
       <x:c r="B33" s="10">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F33" s="11">
-        <x:v>3000</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H33" s="11"/>
       <x:c r="I33" s="11"/>
-      <x:c r="J33" s="11"/>
+      <x:c r="J33" s="17"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A34" s="4"/>
-      <x:c r="B34" s="19">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C34" s="20" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D34" s="19" t="s">
-        <x:v>63</x:v>
+      <x:c r="B34" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C34" s="18" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D34" s="11" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F34" s="11"/>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F34" s="11">
+        <x:v>3000</x:v>
+      </x:c>
       <x:c r="G34" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H34" s="21"/>
-      <x:c r="I34" s="21"/>
-      <x:c r="J34" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H34" s="11"/>
+      <x:c r="I34" s="11"/>
+      <x:c r="J34" s="11"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="4"/>
-      <x:c r="B35" s="17">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C35" s="22" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D35" s="17" t="s">
-        <x:v>2</x:v>
+      <x:c r="B35" s="19">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C35" s="20" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D35" s="19" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F35" s="11">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F35" s="11"/>
       <x:c r="G35" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H35" s="11"/>
-      <x:c r="I35" s="23" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J35" s="15"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H35" s="21"/>
+      <x:c r="I35" s="21"/>
+      <x:c r="J35" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="4"/>
-      <x:c r="B36" s="8"/>
-      <x:c r="C36" s="8"/>
-      <x:c r="D36" s="8"/>
-      <x:c r="E36" s="8"/>
-      <x:c r="F36" s="8"/>
-      <x:c r="G36" s="8"/>
-      <x:c r="H36" s="8"/>
-      <x:c r="I36" s="8"/>
-      <x:c r="J36" s="9"/>
+      <x:c r="B36" s="17">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C36" s="22" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D36" s="17" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E36" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F36" s="11">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G36" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H36" s="11"/>
+      <x:c r="I36" s="23" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J36" s="15"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="3"/>
-      <x:c r="B37" s="34" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C37" s="35"/>
-      <x:c r="D37" s="35"/>
-      <x:c r="E37" s="35"/>
-      <x:c r="F37" s="35"/>
-      <x:c r="G37" s="35"/>
-      <x:c r="H37" s="35"/>
-      <x:c r="I37" s="35"/>
-      <x:c r="J37" s="36"/>
+      <x:c r="B37" s="8"/>
+      <x:c r="C37" s="8"/>
+      <x:c r="D37" s="8"/>
+      <x:c r="E37" s="8"/>
+      <x:c r="F37" s="8"/>
+      <x:c r="G37" s="8"/>
+      <x:c r="H37" s="8"/>
+      <x:c r="I37" s="8"/>
+      <x:c r="J37" s="9"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
-      <x:c r="B38" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C38" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D38" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E38" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F38" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G38" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H38" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I38" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J38" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="B38" s="34" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C38" s="35"/>
+      <x:c r="D38" s="35"/>
+      <x:c r="E38" s="35"/>
+      <x:c r="F38" s="35"/>
+      <x:c r="G38" s="35"/>
+      <x:c r="H38" s="35"/>
+      <x:c r="I38" s="35"/>
+      <x:c r="J38" s="36"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A39" s="6"/>
-      <x:c r="B39" s="10">
+      <x:c r="B39" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C39" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E39" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C39" s="11" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D39" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E39" s="11" t="s">
+      <x:c r="F39" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G39" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H39" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I39" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F39" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G39" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H39" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I39" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J39" s="11"/>
+      <x:c r="J39" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A40" s="6"/>
       <x:c r="B40" s="10">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C40" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F40" s="12"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F40" s="11">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="G40" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H40" s="11"/>
-      <x:c r="I40" s="12"/>
-      <x:c r="J40" s="26" t="s">
-        <x:v>92</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H40" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I40" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J40" s="11"/>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A41" s="6"/>
       <x:c r="B41" s="10">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F41" s="11">
-        <x:v>3000</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F41" s="12"/>
       <x:c r="G41" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H41" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H41" s="11"/>
       <x:c r="I41" s="12"/>
-      <x:c r="J41" s="11"/>
+      <x:c r="J41" s="26" t="s">
+        <x:v>53</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A42" s="6"/>
       <x:c r="B42" s="10">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C42" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F42" s="11">
-        <x:v>50</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H42" s="11"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H42" s="12"/>
       <x:c r="I42" s="12"/>
       <x:c r="J42" s="11"/>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A43" s="6"/>
       <x:c r="B43" s="10">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C43" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F43" s="11">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G43" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H43" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H43" s="11"/>
       <x:c r="I43" s="12"/>
-      <x:c r="J43" s="11" t="s">
-        <x:v>118</x:v>
-      </x:c>
+      <x:c r="J43" s="11"/>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A44" s="6"/>
-      <x:c r="B44" s="8"/>
-      <x:c r="C44" s="8"/>
-      <x:c r="D44" s="8"/>
-      <x:c r="E44" s="8"/>
-      <x:c r="F44" s="8"/>
-      <x:c r="G44" s="8"/>
-      <x:c r="H44" s="8"/>
-      <x:c r="I44" s="8"/>
-      <x:c r="J44" s="9"/>
+      <x:c r="B44" s="10">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C44" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D44" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E44" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F44" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G44" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H44" s="12"/>
+      <x:c r="I44" s="12"/>
+      <x:c r="J44" s="11" t="s">
+        <x:v>107</x:v>
+      </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="3"/>
-      <x:c r="B45" s="34" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C45" s="35"/>
-      <x:c r="D45" s="35"/>
-      <x:c r="E45" s="35"/>
-      <x:c r="F45" s="35"/>
-      <x:c r="G45" s="35"/>
-      <x:c r="H45" s="35"/>
-      <x:c r="I45" s="35"/>
-      <x:c r="J45" s="36"/>
+      <x:c r="B45" s="8"/>
+      <x:c r="C45" s="8"/>
+      <x:c r="D45" s="8"/>
+      <x:c r="E45" s="8"/>
+      <x:c r="F45" s="8"/>
+      <x:c r="G45" s="8"/>
+      <x:c r="H45" s="8"/>
+      <x:c r="I45" s="8"/>
+      <x:c r="J45" s="9"/>
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
-      <x:c r="B46" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C46" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D46" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E46" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F46" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G46" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H46" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I46" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J46" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="B46" s="34" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C46" s="35"/>
+      <x:c r="D46" s="35"/>
+      <x:c r="E46" s="35"/>
+      <x:c r="F46" s="35"/>
+      <x:c r="G46" s="35"/>
+      <x:c r="H46" s="35"/>
+      <x:c r="I46" s="35"/>
+      <x:c r="J46" s="36"/>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="4"/>
-      <x:c r="B47" s="10">
+      <x:c r="B47" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C47" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E47" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C47" s="11" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D47" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E47" s="11" t="s">
+      <x:c r="F47" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G47" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H47" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I47" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F47" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G47" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H47" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I47" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J47" s="11"/>
+      <x:c r="J47" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A48" s="4"/>
       <x:c r="B48" s="10">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F48" s="12">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F48" s="11">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H48" s="11"/>
-      <x:c r="I48" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H48" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I48" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="J48" s="11"/>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A49" s="4"/>
       <x:c r="B49" s="10">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F49" s="11">
-        <x:v>10</x:v>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F49" s="12">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H49" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H49" s="11"/>
       <x:c r="I49" s="12"/>
       <x:c r="J49" s="11"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A50" s="4"/>
       <x:c r="B50" s="10">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F50" s="11">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G50" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H50" s="11"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H50" s="12"/>
       <x:c r="I50" s="12"/>
       <x:c r="J50" s="11"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="4"/>
       <x:c r="B51" s="10">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F51" s="11">
-        <x:v>1000</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G51" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H51" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H51" s="11"/>
       <x:c r="I51" s="12"/>
       <x:c r="J51" s="11"/>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="4"/>
       <x:c r="B52" s="10">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D52" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F52" s="11">
-        <x:v>50</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G52" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H52" s="12"/>
       <x:c r="I52" s="12"/>
-      <x:c r="J52" s="17" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="J52" s="11"/>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="4"/>
       <x:c r="B53" s="10">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F53" s="11">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G53" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H53" s="11"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H53" s="12"/>
       <x:c r="I53" s="12"/>
-      <x:c r="J53" s="15" t="s">
-        <x:v>88</x:v>
+      <x:c r="J53" s="17" t="s">
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="4"/>
       <x:c r="B54" s="10">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F54" s="11">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H54" s="12"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H54" s="11"/>
       <x:c r="I54" s="12"/>
       <x:c r="J54" s="15" t="s">
-        <x:v>27</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A55" s="3"/>
-      <x:c r="B55" s="8"/>
-      <x:c r="C55" s="8"/>
-      <x:c r="D55" s="8"/>
-      <x:c r="E55" s="8"/>
-      <x:c r="F55" s="8"/>
-      <x:c r="G55" s="8"/>
-      <x:c r="H55" s="8"/>
-      <x:c r="I55" s="8"/>
-      <x:c r="J55" s="9"/>
+      <x:c r="B55" s="10">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C55" s="11" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D55" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E55" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F55" s="11">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G55" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H55" s="12"/>
+      <x:c r="I55" s="12"/>
+      <x:c r="J55" s="15" t="s">
+        <x:v>93</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="3"/>
-      <x:c r="B56" s="37" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C56" s="38"/>
-      <x:c r="D56" s="38"/>
-      <x:c r="E56" s="38"/>
-      <x:c r="F56" s="38"/>
-      <x:c r="G56" s="38"/>
-      <x:c r="H56" s="38"/>
-      <x:c r="I56" s="38"/>
-      <x:c r="J56" s="38"/>
+      <x:c r="B56" s="8"/>
+      <x:c r="C56" s="8"/>
+      <x:c r="D56" s="8"/>
+      <x:c r="E56" s="8"/>
+      <x:c r="F56" s="8"/>
+      <x:c r="G56" s="8"/>
+      <x:c r="H56" s="8"/>
+      <x:c r="I56" s="8"/>
+      <x:c r="J56" s="9"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
-      <x:c r="B57" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C57" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D57" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E57" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F57" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G57" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H57" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I57" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J57" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="B57" s="37" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C57" s="38"/>
+      <x:c r="D57" s="38"/>
+      <x:c r="E57" s="38"/>
+      <x:c r="F57" s="38"/>
+      <x:c r="G57" s="38"/>
+      <x:c r="H57" s="38"/>
+      <x:c r="I57" s="38"/>
+      <x:c r="J57" s="38"/>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="3"/>
-      <x:c r="B58" s="10">
+      <x:c r="B58" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C58" s="11" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D58" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E58" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C58" s="11" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D58" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E58" s="11" t="s">
+      <x:c r="F58" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G58" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H58" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I58" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F58" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G58" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H58" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I58" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J58" s="17"/>
+      <x:c r="J58" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A59" s="3"/>
       <x:c r="B59" s="10">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C59" s="18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C59" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D59" s="11" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E59" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F59" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G59" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H59" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I59" s="11" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D59" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E59" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F59" s="11">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G59" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H59" s="11"/>
-      <x:c r="I59" s="11"/>
       <x:c r="J59" s="17"/>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A60" s="3"/>
       <x:c r="B60" s="10">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F60" s="11">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G60" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H60" s="11"/>
       <x:c r="I60" s="11"/>
-      <x:c r="J60" s="11"/>
+      <x:c r="J60" s="17"/>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A61" s="3"/>
-      <x:c r="B61" s="19">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C61" s="20" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D61" s="19" t="s">
-        <x:v>64</x:v>
+      <x:c r="B61" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C61" s="18" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D61" s="11" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F61" s="11">
-        <x:v>200</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H61" s="21"/>
-      <x:c r="I61" s="24"/>
-      <x:c r="J61" s="15"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H61" s="11"/>
+      <x:c r="I61" s="11"/>
+      <x:c r="J61" s="11"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A62" s="3"/>
-      <x:c r="B62" s="17">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C62" s="22" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D62" s="17" t="s">
-        <x:v>10</x:v>
+      <x:c r="B62" s="19">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C62" s="20" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D62" s="19" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F62" s="11">
-        <x:v>2</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G62" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H62" s="23"/>
-      <x:c r="I62" s="16"/>
-      <x:c r="J62" s="15" t="s">
-        <x:v>89</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H62" s="21"/>
+      <x:c r="I62" s="24"/>
+      <x:c r="J62" s="15"/>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="3"/>
-      <x:c r="B63" s="19">
-        <x:v>6</x:v>
+      <x:c r="B63" s="17">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C63" s="22" t="s">
-        <x:v>117</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>24</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F63" s="11">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G63" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H63" s="11"/>
-      <x:c r="I63" s="23"/>
-      <x:c r="J63" s="25" t="s">
-        <x:v>124</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H63" s="23"/>
+      <x:c r="I63" s="16"/>
+      <x:c r="J63" s="15" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="3"/>
-      <x:c r="B64" s="17">
-        <x:v>7</x:v>
+      <x:c r="B64" s="19">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C64" s="22" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D64" s="17" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E64" s="11" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D64" s="17" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E64" s="11" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="F64" s="11">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H64" s="11"/>
       <x:c r="I64" s="23"/>
-      <x:c r="J64" s="17" t="s">
-        <x:v>32</x:v>
+      <x:c r="J64" s="25" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A65" s="3"/>
       <x:c r="B65" s="17">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C65" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C65" s="22" t="s">
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D65" s="17" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F65" s="11">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G65" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H65" s="11"/>
-      <x:c r="I65" s="23" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J65" s="17"/>
+      <x:c r="I65" s="23"/>
+      <x:c r="J65" s="17" t="s">
+        <x:v>98</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A66" s="4"/>
-      <x:c r="B66" s="3"/>
-      <x:c r="C66" s="3"/>
-      <x:c r="D66" s="3"/>
-      <x:c r="E66" s="3"/>
-      <x:c r="F66" s="3"/>
-      <x:c r="G66" s="3"/>
-      <x:c r="H66" s="3"/>
-      <x:c r="I66" s="3"/>
-      <x:c r="J66" s="4"/>
+      <x:c r="B66" s="17">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C66" s="17" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D66" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E66" s="11" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F66" s="11">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G66" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H66" s="11"/>
+      <x:c r="I66" s="23" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J66" s="17"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="4"/>
-      <x:c r="B67" s="39" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C67" s="39"/>
-      <x:c r="D67" s="39"/>
-      <x:c r="E67" s="39"/>
-      <x:c r="F67" s="39"/>
-      <x:c r="G67" s="39"/>
-      <x:c r="H67" s="39"/>
-      <x:c r="I67" s="39"/>
-      <x:c r="J67" s="39"/>
+      <x:c r="B67" s="3"/>
+      <x:c r="C67" s="3"/>
+      <x:c r="D67" s="3"/>
+      <x:c r="E67" s="3"/>
+      <x:c r="F67" s="3"/>
+      <x:c r="G67" s="3"/>
+      <x:c r="H67" s="3"/>
+      <x:c r="I67" s="3"/>
+      <x:c r="J67" s="4"/>
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
-      <x:c r="B68" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C68" s="27" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D68" s="27" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E68" s="27" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F68" s="27" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G68" s="27" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H68" s="27" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I68" s="27" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J68" s="16" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="B68" s="39" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C68" s="39"/>
+      <x:c r="D68" s="39"/>
+      <x:c r="E68" s="39"/>
+      <x:c r="F68" s="39"/>
+      <x:c r="G68" s="39"/>
+      <x:c r="H68" s="39"/>
+      <x:c r="I68" s="39"/>
+      <x:c r="J68" s="39"/>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
-      <x:c r="B69" s="27">
+      <x:c r="B69" s="27" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C69" s="27" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D69" s="27" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E69" s="27" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C69" s="27" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D69" s="27" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E69" s="27" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F69" s="27">
-        <x:v>5</x:v>
+      <x:c r="F69" s="27" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G69" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H69" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I69" s="27" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J69" s="16"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="J69" s="16" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="4"/>
       <x:c r="B70" s="27">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D70" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E70" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F70" s="27">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G70" s="27" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H70" s="27"/>
-      <x:c r="I70" s="27"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H70" s="27" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I70" s="27" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="J70" s="16"/>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="4"/>
       <x:c r="B71" s="27">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D71" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E71" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F71" s="27">
-        <x:v>500</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G71" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H71" s="27"/>
       <x:c r="I71" s="27"/>
@@ -3449,22 +3447,22 @@
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="3"/>
       <x:c r="B72" s="27">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C72" s="27" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D72" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E72" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F72" s="27">
-        <x:v>15</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G72" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H72" s="27"/>
       <x:c r="I72" s="27"/>
@@ -3473,204 +3471,208 @@
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="4"/>
       <x:c r="B73" s="27">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C73" s="27" t="s">
-        <x:v>62</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D73" s="27" t="s">
-        <x:v>3</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E73" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F73" s="27">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G73" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H73" s="27"/>
       <x:c r="I73" s="27"/>
-      <x:c r="J73" s="16"/>
+      <x:c r="J73" s="15" t="s">
+        <x:v>125</x:v>
+      </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="4"/>
       <x:c r="B74" s="27">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C74" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D74" s="27" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E74" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F74" s="11">
-        <x:v>6</x:v>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E74" s="27" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F74" s="27">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G74" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H74" s="27"/>
-      <x:c r="I74" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="I74" s="27"/>
       <x:c r="J74" s="16"/>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="4"/>
-      <x:c r="B75" s="3"/>
-      <x:c r="C75" s="3"/>
-      <x:c r="D75" s="3"/>
-      <x:c r="E75" s="3"/>
-      <x:c r="F75" s="3"/>
-      <x:c r="G75" s="3"/>
-      <x:c r="H75" s="3"/>
-      <x:c r="I75" s="3"/>
-      <x:c r="J75" s="4"/>
-    </x:row>
-    <x:row r="76" spans="1:10" ht="16.399999999999999">
+      <x:c r="B75" s="27">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C75" s="27" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D75" s="27" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E75" s="12" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F75" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G75" s="27" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H75" s="27"/>
+      <x:c r="I75" s="27" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J75" s="16"/>
+    </x:row>
+    <x:row r="76" spans="1:10" ht="13.75">
       <x:c r="A76" s="4"/>
-      <x:c r="B76" s="39" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C76" s="39"/>
-      <x:c r="D76" s="39"/>
-      <x:c r="E76" s="39"/>
-      <x:c r="F76" s="39"/>
-      <x:c r="G76" s="39"/>
-      <x:c r="H76" s="39"/>
-      <x:c r="I76" s="39"/>
-      <x:c r="J76" s="39"/>
+      <x:c r="B76" s="3"/>
+      <x:c r="C76" s="3"/>
+      <x:c r="D76" s="3"/>
+      <x:c r="E76" s="3"/>
+      <x:c r="F76" s="3"/>
+      <x:c r="G76" s="3"/>
+      <x:c r="H76" s="3"/>
+      <x:c r="I76" s="3"/>
+      <x:c r="J76" s="4"/>
     </x:row>
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
-      <x:c r="B77" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C77" s="27" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D77" s="27" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E77" s="27" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F77" s="27" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G77" s="27" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H77" s="27" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I77" s="27" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J77" s="16" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="B77" s="39" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C77" s="39"/>
+      <x:c r="D77" s="39"/>
+      <x:c r="E77" s="39"/>
+      <x:c r="F77" s="39"/>
+      <x:c r="G77" s="39"/>
+      <x:c r="H77" s="39"/>
+      <x:c r="I77" s="39"/>
+      <x:c r="J77" s="39"/>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="4"/>
-      <x:c r="B78" s="27">
+      <x:c r="B78" s="27" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C78" s="27" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D78" s="27" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E78" s="27" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C78" s="27" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D78" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E78" s="27" t="s">
+      <x:c r="F78" s="27" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G78" s="27" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H78" s="27" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I78" s="27" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F78" s="27">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G78" s="27" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H78" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I78" s="27" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J78" s="16"/>
+      <x:c r="J78" s="16" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="4"/>
       <x:c r="B79" s="27">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C79" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D79" s="27" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E79" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F79" s="27" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F79" s="27">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G79" s="27" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H79" s="27"/>
-      <x:c r="I79" s="27"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H79" s="27" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I79" s="27" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="J79" s="16"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="4"/>
       <x:c r="B80" s="27">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C80" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D80" s="27" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E80" s="27" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F80" s="27">
-        <x:v>1000</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F80" s="27" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G80" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H80" s="27"/>
       <x:c r="I80" s="27"/>
-      <x:c r="J80" s="16"/>
+      <x:c r="J80" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="4"/>
       <x:c r="B81" s="27">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C81" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D81" s="27" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E81" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F81" s="27">
-        <x:v>50</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G81" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H81" s="27"/>
       <x:c r="I81" s="27"/>
@@ -3679,22 +3681,22 @@
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="4"/>
       <x:c r="B82" s="27">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C82" s="27" t="s">
-        <x:v>120</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D82" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E82" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F82" s="27">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G82" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H82" s="27"/>
       <x:c r="I82" s="27"/>
@@ -3703,42 +3705,54 @@
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="4"/>
       <x:c r="B83" s="27">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C83" s="27" t="s">
-        <x:v>61</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D83" s="27" t="s">
-        <x:v>5</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E83" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F83" s="27">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G83" s="27" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H83" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I83" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H83" s="27"/>
+      <x:c r="I83" s="27"/>
       <x:c r="J83" s="16"/>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="3"/>
-      <x:c r="B84" s="3"/>
-      <x:c r="C84" s="3"/>
-      <x:c r="D84" s="3"/>
-      <x:c r="E84" s="3"/>
-      <x:c r="F84" s="3"/>
-      <x:c r="G84" s="3"/>
-      <x:c r="H84" s="3"/>
-      <x:c r="I84" s="3"/>
-      <x:c r="J84" s="4"/>
+      <x:c r="B84" s="27">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C84" s="27" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D84" s="27" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E84" s="27" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F84" s="27">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G84" s="27" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H84" s="27" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I84" s="27" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J84" s="16"/>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A85" s="3"/>
@@ -6655,12 +6669,12 @@
     <x:mergeCell ref="B2:J3"/>
     <x:mergeCell ref="B5:J5"/>
     <x:mergeCell ref="B18:J18"/>
-    <x:mergeCell ref="B29:J29"/>
-    <x:mergeCell ref="B37:J37"/>
-    <x:mergeCell ref="B45:J45"/>
-    <x:mergeCell ref="B56:J56"/>
-    <x:mergeCell ref="B67:J67"/>
-    <x:mergeCell ref="B76:J76"/>
+    <x:mergeCell ref="B30:J30"/>
+    <x:mergeCell ref="B38:J38"/>
+    <x:mergeCell ref="B46:J46"/>
+    <x:mergeCell ref="B57:J57"/>
+    <x:mergeCell ref="B68:J68"/>
+    <x:mergeCell ref="B77:J77"/>
   </x:mergeCells>
   <x:pageMargins left="0.69958335161209106" right="0.69958335161209106" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -15,151 +15,343 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
   <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
     <x:t>실제 예약 시작날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
   </x:si>
   <x:si>
     <x:t>n_registrant</x:t>
@@ -169,235 +361,43 @@
   </x:si>
   <x:si>
     <x:t>댓글(Reply_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
+    <x:t>회원 (Member_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
     <x:t>reply_regdate</x:t>
   </x:si>
   <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 unuse, use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1223,6 +1223,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1305,6 +1306,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1339,6 +1341,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1383,6 +1386,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1426,6 +1430,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1510,6 +1515,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1530,6 +1536,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1560,6 +1567,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1812,7 +1820,7 @@
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+      <x:selection activeCell="H24" activeCellId="0" sqref="H24:H24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1841,7 +1849,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="28" t="s">
-        <x:v>47</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C2" s="29"/>
       <x:c r="D2" s="29"/>
@@ -1879,7 +1887,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
       <x:c r="B5" s="34" t="s">
-        <x:v>55</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="35"/>
@@ -1893,31 +1901,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D6" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E6" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F6" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C6" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D6" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E6" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F6" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1926,28 +1934,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H7" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J7" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1956,24 +1964,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F8" s="12">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H8" s="11"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1982,19 +1990,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -2006,22 +2014,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H10" s="11"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2030,19 +2038,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D11" s="11" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D11" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2054,24 +2062,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
       <x:c r="J12" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2080,19 +2088,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H13" s="11"/>
       <x:c r="I13" s="12"/>
@@ -2104,24 +2112,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H14" s="12"/>
       <x:c r="I14" s="14"/>
       <x:c r="J14" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2130,24 +2138,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H15" s="12"/>
       <x:c r="I15" s="14"/>
       <x:c r="J15" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2156,24 +2164,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H16" s="12"/>
       <x:c r="I16" s="14"/>
       <x:c r="J16" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2191,7 +2199,7 @@
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
       <x:c r="B18" s="34" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C18" s="35"/>
       <x:c r="D18" s="35"/>
@@ -2205,25 +2213,25 @@
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
       <x:c r="B19" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C19" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E19" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F19" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C19" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D19" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E19" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F19" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H19" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I19" s="11" t="s">
         <x:v>71</x:v>
@@ -2236,25 +2244,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I20" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J20" s="13"/>
     </x:row>
@@ -2264,24 +2272,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H21" s="11"/>
       <x:c r="I21" s="14"/>
       <x:c r="J21" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2290,19 +2298,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H22" s="12"/>
       <x:c r="I22" s="14"/>
@@ -2314,19 +2322,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H23" s="11"/>
       <x:c r="I23" s="12"/>
@@ -2338,22 +2346,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F24" s="11"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H24" s="12"/>
       <x:c r="I24" s="12"/>
       <x:c r="J24" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2362,22 +2370,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F25" s="11"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H25" s="12"/>
       <x:c r="I25" s="12"/>
       <x:c r="J25" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2386,22 +2394,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>127</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>126</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="11"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
       <x:c r="I26" s="12"/>
       <x:c r="J26" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2410,23 +2418,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D27" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F27" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H27" s="11"/>
       <x:c r="I27" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J27" s="11"/>
     </x:row>
@@ -2436,23 +2444,23 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D28" s="11" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D28" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E28" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G28" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H28" s="12"/>
       <x:c r="I28" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J28" s="11"/>
     </x:row>
@@ -2471,7 +2479,7 @@
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
       <x:c r="B30" s="37" t="s">
-        <x:v>121</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C30" s="38"/>
       <x:c r="D30" s="38"/>
@@ -2485,25 +2493,25 @@
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="3"/>
       <x:c r="B31" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C31" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D31" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E31" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F31" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C31" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D31" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E31" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F31" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I31" s="11" t="s">
         <x:v>71</x:v>
@@ -2516,25 +2524,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C32" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D32" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F32" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H32" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I32" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J32" s="17"/>
     </x:row>
@@ -2544,19 +2552,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F33" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H33" s="11"/>
       <x:c r="I33" s="11"/>
@@ -2568,19 +2576,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D34" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F34" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G34" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H34" s="11"/>
       <x:c r="I34" s="11"/>
@@ -2592,22 +2600,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C35" s="20" t="s">
-        <x:v>112</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F35" s="11"/>
       <x:c r="G35" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H35" s="21"/>
       <x:c r="I35" s="21"/>
       <x:c r="J35" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
@@ -2616,23 +2624,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C36" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D36" s="17" t="s">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E36" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F36" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G36" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H36" s="11"/>
       <x:c r="I36" s="23" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J36" s="15"/>
     </x:row>
@@ -2651,7 +2659,7 @@
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
       <x:c r="B38" s="34" t="s">
-        <x:v>122</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C38" s="35"/>
       <x:c r="D38" s="35"/>
@@ -2665,31 +2673,31 @@
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A39" s="6"/>
       <x:c r="B39" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C39" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E39" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F39" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C39" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D39" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E39" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F39" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H39" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I39" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J39" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
@@ -2698,25 +2706,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C40" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F40" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G40" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H40" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I40" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J40" s="11"/>
     </x:row>
@@ -2726,22 +2734,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="11" t="s">
-        <x:v>115</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F41" s="12"/>
       <x:c r="G41" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H41" s="11"/>
       <x:c r="I41" s="12"/>
       <x:c r="J41" s="26" t="s">
-        <x:v>53</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
@@ -2750,19 +2758,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C42" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F42" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H42" s="12"/>
       <x:c r="I42" s="12"/>
@@ -2777,16 +2785,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F43" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G43" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H43" s="11"/>
       <x:c r="I43" s="12"/>
@@ -2798,24 +2806,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C44" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D44" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E44" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F44" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G44" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H44" s="12"/>
       <x:c r="I44" s="12"/>
       <x:c r="J44" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
@@ -2833,7 +2841,7 @@
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
       <x:c r="B46" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C46" s="35"/>
       <x:c r="D46" s="35"/>
@@ -2847,31 +2855,31 @@
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="4"/>
       <x:c r="B47" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C47" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E47" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F47" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C47" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D47" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E47" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F47" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H47" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I47" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J47" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
@@ -2880,25 +2888,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F48" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H48" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I48" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J48" s="11"/>
     </x:row>
@@ -2908,19 +2916,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F49" s="12">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H49" s="11"/>
       <x:c r="I49" s="12"/>
@@ -2932,19 +2940,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F50" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G50" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H50" s="12"/>
       <x:c r="I50" s="12"/>
@@ -2956,19 +2964,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F51" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G51" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H51" s="11"/>
       <x:c r="I51" s="12"/>
@@ -2980,19 +2988,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D52" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F52" s="11">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G52" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H52" s="12"/>
       <x:c r="I52" s="12"/>
@@ -3004,24 +3012,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F53" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G53" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H53" s="12"/>
       <x:c r="I53" s="12"/>
       <x:c r="J53" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3030,24 +3038,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>118</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F54" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H54" s="11"/>
       <x:c r="I54" s="12"/>
       <x:c r="J54" s="15" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3056,24 +3064,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C55" s="11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D55" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E55" s="11" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="D55" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E55" s="11" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="F55" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G55" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H55" s="12"/>
       <x:c r="I55" s="12"/>
       <x:c r="J55" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
@@ -3091,7 +3099,7 @@
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
       <x:c r="B57" s="37" t="s">
-        <x:v>102</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C57" s="38"/>
       <x:c r="D57" s="38"/>
@@ -3105,31 +3113,31 @@
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="3"/>
       <x:c r="B58" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C58" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D58" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E58" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F58" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C58" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D58" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E58" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F58" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G58" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H58" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I58" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J58" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
@@ -3138,25 +3146,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D59" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F59" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G59" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H59" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I59" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J59" s="17"/>
     </x:row>
@@ -3166,19 +3174,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G60" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H60" s="11"/>
       <x:c r="I60" s="11"/>
@@ -3190,19 +3198,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D61" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F61" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H61" s="11"/>
       <x:c r="I61" s="11"/>
@@ -3214,19 +3222,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C62" s="20" t="s">
-        <x:v>105</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F62" s="11">
         <x:v>200</x:v>
       </x:c>
       <x:c r="G62" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H62" s="21"/>
       <x:c r="I62" s="24"/>
@@ -3238,24 +3246,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C63" s="22" t="s">
-        <x:v>104</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F63" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G63" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H63" s="23"/>
       <x:c r="I63" s="16"/>
       <x:c r="J63" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
@@ -3264,24 +3272,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C64" s="22" t="s">
-        <x:v>117</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D64" s="17" t="s">
-        <x:v>89</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F64" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H64" s="11"/>
       <x:c r="I64" s="23"/>
       <x:c r="J64" s="25" t="s">
-        <x:v>62</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3290,24 +3298,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C65" s="22" t="s">
-        <x:v>108</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D65" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F65" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G65" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H65" s="11"/>
       <x:c r="I65" s="23"/>
       <x:c r="J65" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
@@ -3316,23 +3324,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C66" s="17" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D66" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E66" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F66" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G66" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H66" s="11"/>
       <x:c r="I66" s="23" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J66" s="17"/>
     </x:row>
@@ -3351,7 +3359,7 @@
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
       <x:c r="B68" s="39" t="s">
-        <x:v>61</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C68" s="39"/>
       <x:c r="D68" s="39"/>
@@ -3365,31 +3373,31 @@
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
       <x:c r="B69" s="27" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C69" s="27" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D69" s="27" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E69" s="27" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F69" s="27" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C69" s="27" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D69" s="27" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E69" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F69" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G69" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H69" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I69" s="27" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J69" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -3398,25 +3406,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D70" s="27" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E70" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F70" s="27">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G70" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H70" s="27" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I70" s="27" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J70" s="16"/>
     </x:row>
@@ -3426,19 +3434,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D71" s="27" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E71" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F71" s="27">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G71" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H71" s="27"/>
       <x:c r="I71" s="27"/>
@@ -3450,19 +3458,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C72" s="27" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D72" s="27" t="s">
-        <x:v>42</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E72" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F72" s="27">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G72" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H72" s="27"/>
       <x:c r="I72" s="27"/>
@@ -3474,24 +3482,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C73" s="27" t="s">
-        <x:v>111</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D73" s="27" t="s">
-        <x:v>86</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E73" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F73" s="27">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G73" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H73" s="27"/>
       <x:c r="I73" s="27"/>
       <x:c r="J73" s="15" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
@@ -3500,19 +3508,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C74" s="27" t="s">
-        <x:v>45</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D74" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E74" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F74" s="27">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G74" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H74" s="27"/>
       <x:c r="I74" s="27"/>
@@ -3524,23 +3532,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C75" s="27" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D75" s="27" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E75" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F75" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G75" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H75" s="27"/>
       <x:c r="I75" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J75" s="16"/>
     </x:row>
@@ -3559,7 +3567,7 @@
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
       <x:c r="B77" s="39" t="s">
-        <x:v>51</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C77" s="39"/>
       <x:c r="D77" s="39"/>
@@ -3573,31 +3581,31 @@
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="4"/>
       <x:c r="B78" s="27" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C78" s="27" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D78" s="27" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E78" s="27" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F78" s="27" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C78" s="27" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D78" s="27" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E78" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F78" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G78" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H78" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I78" s="27" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="J78" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
@@ -3606,25 +3614,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C79" s="27" t="s">
-        <x:v>95</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D79" s="27" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E79" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F79" s="27">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G79" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H79" s="27" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I79" s="27" t="s">
-        <x:v>81</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J79" s="16"/>
     </x:row>
@@ -3634,24 +3642,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C80" s="27" t="s">
-        <x:v>54</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D80" s="27" t="s">
-        <x:v>46</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E80" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F80" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G80" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H80" s="27"/>
       <x:c r="I80" s="27"/>
       <x:c r="J80" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
@@ -3660,19 +3668,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C81" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D81" s="27" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E81" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F81" s="27">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G81" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H81" s="27"/>
       <x:c r="I81" s="27"/>
@@ -3684,19 +3692,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C82" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D82" s="27" t="s">
-        <x:v>88</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E82" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F82" s="27">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G82" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H82" s="27"/>
       <x:c r="I82" s="27"/>
@@ -3708,19 +3716,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C83" s="27" t="s">
-        <x:v>123</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D83" s="27" t="s">
-        <x:v>90</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E83" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F83" s="27">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G83" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H83" s="27"/>
       <x:c r="I83" s="27"/>
@@ -3732,25 +3740,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C84" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D84" s="27" t="s">
-        <x:v>85</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E84" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F84" s="27">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G84" s="27" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H84" s="27" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="I84" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J84" s="16"/>
     </x:row>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -13,351 +13,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="128">
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
   <x:si>
     <x:t>m_pw</x:t>
   </x:si>
   <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
     <x:t>Null허용</x:t>
   </x:si>
   <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
     <x:t>사용현황</x:t>
   </x:si>
   <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
     <x:t>서비스명</x:t>
   </x:si>
   <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
     <x:t>q_title</x:t>
   </x:si>
   <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
     <x:t>신청날짜</x:t>
   </x:si>
   <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_no</x:t>
   </x:si>
   <x:si>
-    <x:t>댓글번호</x:t>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
   </x:si>
   <x:si>
     <x:t>m_phone</x:t>
   </x:si>
   <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
     <x:t>c_price</x:t>
   </x:si>
   <x:si>
-    <x:t>필수약관2</x:t>
+    <x:t>서비스 설명</x:t>
   </x:si>
   <x:si>
     <x:t>n_title</x:t>
   </x:si>
   <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
     <x:t>c_no</x:t>
   </x:si>
   <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 (Member_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
   </x:si>
   <x:si>
     <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
   </x:si>
   <x:si>
     <x:t>댓글(Reply_tbl)</x:t>
@@ -367,37 +205,199 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>회원 (Member_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 unuse, use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -812,7 +812,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="40">
+  <x:cellXfs count="39">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1121,19 +1121,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1819,8 +1806,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H24" activeCellId="0" sqref="H24:H24"/>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G29" activeCellId="0" sqref="G29:G29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
@@ -1848,29 +1835,29 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="28" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C2" s="29"/>
-      <x:c r="D2" s="29"/>
-      <x:c r="E2" s="29"/>
-      <x:c r="F2" s="29"/>
-      <x:c r="G2" s="29"/>
-      <x:c r="H2" s="29"/>
-      <x:c r="I2" s="29"/>
-      <x:c r="J2" s="30"/>
+      <x:c r="B2" s="27" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C2" s="28"/>
+      <x:c r="D2" s="28"/>
+      <x:c r="E2" s="28"/>
+      <x:c r="F2" s="28"/>
+      <x:c r="G2" s="28"/>
+      <x:c r="H2" s="28"/>
+      <x:c r="I2" s="28"/>
+      <x:c r="J2" s="29"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="31"/>
-      <x:c r="C3" s="32"/>
-      <x:c r="D3" s="32"/>
-      <x:c r="E3" s="32"/>
-      <x:c r="F3" s="32"/>
-      <x:c r="G3" s="32"/>
-      <x:c r="H3" s="32"/>
-      <x:c r="I3" s="32"/>
-      <x:c r="J3" s="33"/>
+      <x:c r="B3" s="30"/>
+      <x:c r="C3" s="31"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+      <x:c r="F3" s="31"/>
+      <x:c r="G3" s="31"/>
+      <x:c r="H3" s="31"/>
+      <x:c r="I3" s="31"/>
+      <x:c r="J3" s="32"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A4" s="3"/>
@@ -1886,46 +1873,46 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
-      <x:c r="B5" s="34" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C5" s="35"/>
-      <x:c r="D5" s="35"/>
-      <x:c r="E5" s="35"/>
-      <x:c r="F5" s="35"/>
-      <x:c r="G5" s="35"/>
-      <x:c r="H5" s="35"/>
-      <x:c r="I5" s="35"/>
-      <x:c r="J5" s="36"/>
+      <x:c r="B5" s="33" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C5" s="34"/>
+      <x:c r="D5" s="34"/>
+      <x:c r="E5" s="34"/>
+      <x:c r="F5" s="34"/>
+      <x:c r="G5" s="34"/>
+      <x:c r="H5" s="34"/>
+      <x:c r="I5" s="34"/>
+      <x:c r="J5" s="35"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D6" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F6" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1934,28 +1921,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F7" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H7" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J7" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1964,24 +1951,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F8" s="12">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F8" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H8" s="11"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1990,19 +1977,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F9" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -2014,22 +2001,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H10" s="11"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2038,19 +2025,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -2062,24 +2049,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F12" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
       <x:c r="J12" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2088,19 +2075,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F13" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H13" s="11"/>
       <x:c r="I13" s="12"/>
@@ -2112,24 +2099,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F14" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H14" s="12"/>
       <x:c r="I14" s="14"/>
       <x:c r="J14" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2138,24 +2125,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F15" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H15" s="12"/>
       <x:c r="I15" s="14"/>
       <x:c r="J15" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2164,24 +2151,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F16" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H16" s="12"/>
       <x:c r="I16" s="14"/>
       <x:c r="J16" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2198,43 +2185,43 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="34" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C18" s="35"/>
-      <x:c r="D18" s="35"/>
-      <x:c r="E18" s="35"/>
-      <x:c r="F18" s="35"/>
-      <x:c r="G18" s="35"/>
-      <x:c r="H18" s="35"/>
-      <x:c r="I18" s="35"/>
-      <x:c r="J18" s="36"/>
+      <x:c r="B18" s="33" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" s="34"/>
+      <x:c r="D18" s="34"/>
+      <x:c r="E18" s="34"/>
+      <x:c r="F18" s="34"/>
+      <x:c r="G18" s="34"/>
+      <x:c r="H18" s="34"/>
+      <x:c r="I18" s="34"/>
+      <x:c r="J18" s="35"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
       <x:c r="B19" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C19" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D19" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J19" s="11"/>
     </x:row>
@@ -2244,25 +2231,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F20" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I20" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J20" s="13"/>
     </x:row>
@@ -2272,24 +2259,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F21" s="12">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H21" s="11"/>
       <x:c r="I21" s="14"/>
       <x:c r="J21" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2298,19 +2285,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>121</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F22" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H22" s="12"/>
       <x:c r="I22" s="14"/>
@@ -2322,19 +2309,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F23" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H23" s="11"/>
       <x:c r="I23" s="12"/>
@@ -2346,22 +2333,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F24" s="11"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H24" s="12"/>
       <x:c r="I24" s="12"/>
       <x:c r="J24" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2370,22 +2357,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F25" s="11"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H25" s="12"/>
       <x:c r="I25" s="12"/>
       <x:c r="J25" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2394,22 +2381,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F26" s="11"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
       <x:c r="I26" s="12"/>
       <x:c r="J26" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2418,23 +2405,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D27" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F27" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H27" s="11"/>
       <x:c r="I27" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J27" s="11"/>
     </x:row>
@@ -2444,23 +2431,23 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D28" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E28" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F28" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G28" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H28" s="12"/>
       <x:c r="I28" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J28" s="11"/>
     </x:row>
@@ -2478,43 +2465,43 @@
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
-      <x:c r="B30" s="37" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C30" s="38"/>
-      <x:c r="D30" s="38"/>
-      <x:c r="E30" s="38"/>
-      <x:c r="F30" s="38"/>
-      <x:c r="G30" s="38"/>
-      <x:c r="H30" s="38"/>
-      <x:c r="I30" s="38"/>
-      <x:c r="J30" s="38"/>
+      <x:c r="B30" s="36" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C30" s="37"/>
+      <x:c r="D30" s="37"/>
+      <x:c r="E30" s="37"/>
+      <x:c r="F30" s="37"/>
+      <x:c r="G30" s="37"/>
+      <x:c r="H30" s="37"/>
+      <x:c r="I30" s="37"/>
+      <x:c r="J30" s="37"/>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="3"/>
       <x:c r="B31" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C31" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D31" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I31" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J31" s="11"/>
     </x:row>
@@ -2524,25 +2511,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C32" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D32" s="11" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E32" s="11" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="D32" s="11" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E32" s="11" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="F32" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H32" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I32" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J32" s="17"/>
     </x:row>
@@ -2552,19 +2539,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F33" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H33" s="11"/>
       <x:c r="I33" s="11"/>
@@ -2576,19 +2563,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>87</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F34" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G34" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H34" s="11"/>
       <x:c r="I34" s="11"/>
@@ -2603,19 +2590,19 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F35" s="11"/>
       <x:c r="G35" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H35" s="21"/>
       <x:c r="I35" s="21"/>
       <x:c r="J35" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
@@ -2624,23 +2611,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C36" s="22" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D36" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F36" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G36" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H36" s="11"/>
       <x:c r="I36" s="23" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J36" s="15"/>
     </x:row>
@@ -2658,46 +2645,46 @@
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
-      <x:c r="B38" s="34" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C38" s="35"/>
-      <x:c r="D38" s="35"/>
-      <x:c r="E38" s="35"/>
-      <x:c r="F38" s="35"/>
-      <x:c r="G38" s="35"/>
-      <x:c r="H38" s="35"/>
-      <x:c r="I38" s="35"/>
-      <x:c r="J38" s="36"/>
+      <x:c r="B38" s="33" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C38" s="34"/>
+      <x:c r="D38" s="34"/>
+      <x:c r="E38" s="34"/>
+      <x:c r="F38" s="34"/>
+      <x:c r="G38" s="34"/>
+      <x:c r="H38" s="34"/>
+      <x:c r="I38" s="34"/>
+      <x:c r="J38" s="35"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A39" s="6"/>
       <x:c r="B39" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C39" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H39" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I39" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J39" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
@@ -2706,25 +2693,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C40" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F40" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G40" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H40" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I40" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J40" s="11"/>
     </x:row>
@@ -2734,22 +2721,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="11" t="s">
-        <x:v>102</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
-        <x:v>122</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F41" s="12"/>
       <x:c r="G41" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H41" s="11"/>
       <x:c r="I41" s="12"/>
       <x:c r="J41" s="26" t="s">
-        <x:v>116</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
@@ -2758,19 +2745,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C42" s="11" t="s">
-        <x:v>99</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F42" s="11">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H42" s="12"/>
       <x:c r="I42" s="12"/>
@@ -2782,19 +2769,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C43" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F43" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G43" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H43" s="11"/>
       <x:c r="I43" s="12"/>
@@ -2806,24 +2793,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C44" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D44" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E44" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F44" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G44" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H44" s="12"/>
       <x:c r="I44" s="12"/>
       <x:c r="J44" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
@@ -2840,46 +2827,46 @@
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
-      <x:c r="B46" s="34" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C46" s="35"/>
-      <x:c r="D46" s="35"/>
-      <x:c r="E46" s="35"/>
-      <x:c r="F46" s="35"/>
-      <x:c r="G46" s="35"/>
-      <x:c r="H46" s="35"/>
-      <x:c r="I46" s="35"/>
-      <x:c r="J46" s="36"/>
+      <x:c r="B46" s="33" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C46" s="34"/>
+      <x:c r="D46" s="34"/>
+      <x:c r="E46" s="34"/>
+      <x:c r="F46" s="34"/>
+      <x:c r="G46" s="34"/>
+      <x:c r="H46" s="34"/>
+      <x:c r="I46" s="34"/>
+      <x:c r="J46" s="35"/>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="4"/>
       <x:c r="B47" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D47" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E47" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F47" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H47" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I47" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J47" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
@@ -2888,25 +2875,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F48" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H48" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I48" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J48" s="11"/>
     </x:row>
@@ -2916,19 +2903,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E49" s="11" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F49" s="12">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F49" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H49" s="11"/>
       <x:c r="I49" s="12"/>
@@ -2940,19 +2927,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E50" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F50" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G50" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H50" s="12"/>
       <x:c r="I50" s="12"/>
@@ -2964,19 +2951,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E51" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F51" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G51" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H51" s="11"/>
       <x:c r="I51" s="12"/>
@@ -2988,19 +2975,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D52" s="11" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E52" s="11" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="D52" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E52" s="11" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="F52" s="11">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G52" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H52" s="12"/>
       <x:c r="I52" s="12"/>
@@ -3012,24 +2999,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F53" s="11">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G53" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H53" s="12"/>
       <x:c r="I53" s="12"/>
       <x:c r="J53" s="17" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3038,24 +3025,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F54" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H54" s="11"/>
       <x:c r="I54" s="12"/>
       <x:c r="J54" s="15" t="s">
-        <x:v>118</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3064,24 +3051,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C55" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D55" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E55" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F55" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G55" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H55" s="12"/>
       <x:c r="I55" s="12"/>
       <x:c r="J55" s="15" t="s">
-        <x:v>106</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
@@ -3098,46 +3085,46 @@
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
-      <x:c r="B57" s="37" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C57" s="38"/>
-      <x:c r="D57" s="38"/>
-      <x:c r="E57" s="38"/>
-      <x:c r="F57" s="38"/>
-      <x:c r="G57" s="38"/>
-      <x:c r="H57" s="38"/>
-      <x:c r="I57" s="38"/>
-      <x:c r="J57" s="38"/>
+      <x:c r="B57" s="36" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C57" s="37"/>
+      <x:c r="D57" s="37"/>
+      <x:c r="E57" s="37"/>
+      <x:c r="F57" s="37"/>
+      <x:c r="G57" s="37"/>
+      <x:c r="H57" s="37"/>
+      <x:c r="I57" s="37"/>
+      <x:c r="J57" s="37"/>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="3"/>
       <x:c r="B58" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C58" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D58" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F58" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G58" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H58" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I58" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J58" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
@@ -3146,25 +3133,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D59" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F59" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G59" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H59" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I59" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J59" s="17"/>
     </x:row>
@@ -3174,19 +3161,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F60" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G60" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H60" s="11"/>
       <x:c r="I60" s="11"/>
@@ -3198,19 +3185,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>93</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D61" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E61" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F61" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H61" s="11"/>
       <x:c r="I61" s="11"/>
@@ -3222,20 +3209,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C62" s="20" t="s">
-        <x:v>92</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F62" s="11">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="G62" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
+      <x:c r="G62" s="11"/>
       <x:c r="H62" s="21"/>
       <x:c r="I62" s="24"/>
       <x:c r="J62" s="15"/>
@@ -3246,24 +3231,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C63" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F63" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G63" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H63" s="23"/>
       <x:c r="I63" s="16"/>
       <x:c r="J63" s="15" t="s">
-        <x:v>41</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
@@ -3272,24 +3257,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C64" s="22" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D64" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F64" s="11">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H64" s="11"/>
       <x:c r="I64" s="23"/>
       <x:c r="J64" s="25" t="s">
-        <x:v>42</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3298,24 +3283,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C65" s="22" t="s">
-        <x:v>90</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D65" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F65" s="11">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G65" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
+      <x:c r="G65" s="11"/>
       <x:c r="H65" s="11"/>
       <x:c r="I65" s="23"/>
       <x:c r="J65" s="17" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
@@ -3324,23 +3307,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C66" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D66" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E66" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F66" s="11">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G66" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H66" s="11"/>
       <x:c r="I66" s="23" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J66" s="17"/>
     </x:row>
@@ -3358,197 +3341,197 @@
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
-      <x:c r="B68" s="39" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C68" s="39"/>
-      <x:c r="D68" s="39"/>
-      <x:c r="E68" s="39"/>
-      <x:c r="F68" s="39"/>
-      <x:c r="G68" s="39"/>
-      <x:c r="H68" s="39"/>
-      <x:c r="I68" s="39"/>
-      <x:c r="J68" s="39"/>
+      <x:c r="B68" s="38" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C68" s="38"/>
+      <x:c r="D68" s="38"/>
+      <x:c r="E68" s="38"/>
+      <x:c r="F68" s="38"/>
+      <x:c r="G68" s="38"/>
+      <x:c r="H68" s="38"/>
+      <x:c r="I68" s="38"/>
+      <x:c r="J68" s="38"/>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
-      <x:c r="B69" s="27" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C69" s="27" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D69" s="27" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E69" s="27" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F69" s="27" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G69" s="27" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H69" s="27" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I69" s="27" t="s">
-        <x:v>71</x:v>
+      <x:c r="B69" s="16" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C69" s="16" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D69" s="16" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E69" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F69" s="16" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G69" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H69" s="16" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I69" s="16" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J69" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="4"/>
-      <x:c r="B70" s="27">
+      <x:c r="B70" s="16">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C70" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D70" s="27" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E70" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F70" s="27">
+      <x:c r="C70" s="16" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D70" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E70" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F70" s="16">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G70" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H70" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I70" s="27" t="s">
-        <x:v>48</x:v>
+      <x:c r="G70" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H70" s="16" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I70" s="16" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J70" s="16"/>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="4"/>
-      <x:c r="B71" s="27">
+      <x:c r="B71" s="16">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C71" s="27" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D71" s="27" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E71" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F71" s="27">
+      <x:c r="C71" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D71" s="16" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E71" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F71" s="16">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G71" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H71" s="27"/>
-      <x:c r="I71" s="27"/>
+      <x:c r="G71" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H71" s="16"/>
+      <x:c r="I71" s="16"/>
       <x:c r="J71" s="16"/>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="3"/>
-      <x:c r="B72" s="27">
+      <x:c r="B72" s="16">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C72" s="27" t="s">
+      <x:c r="C72" s="16" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D72" s="16" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E72" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F72" s="16">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="G72" s="16" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D72" s="27" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E72" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F72" s="27">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="G72" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H72" s="27"/>
-      <x:c r="I72" s="27"/>
+      <x:c r="H72" s="16"/>
+      <x:c r="I72" s="16"/>
       <x:c r="J72" s="16"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="4"/>
-      <x:c r="B73" s="27">
+      <x:c r="B73" s="16">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C73" s="27" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D73" s="27" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E73" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F73" s="27">
+      <x:c r="C73" s="16" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D73" s="16" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E73" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F73" s="16">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G73" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H73" s="27"/>
-      <x:c r="I73" s="27"/>
+      <x:c r="G73" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H73" s="16"/>
+      <x:c r="I73" s="16"/>
       <x:c r="J73" s="15" t="s">
-        <x:v>118</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="4"/>
-      <x:c r="B74" s="27">
+      <x:c r="B74" s="16">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C74" s="27" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D74" s="27" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E74" s="27" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F74" s="27">
+      <x:c r="C74" s="16" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D74" s="16" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E74" s="16" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F74" s="16">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G74" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H74" s="27"/>
-      <x:c r="I74" s="27"/>
+      <x:c r="G74" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H74" s="16"/>
+      <x:c r="I74" s="16"/>
       <x:c r="J74" s="16"/>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="4"/>
-      <x:c r="B75" s="27">
+      <x:c r="B75" s="16">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C75" s="27" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D75" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E75" s="12" t="s">
-        <x:v>32</x:v>
+      <x:c r="C75" s="16" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D75" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E75" s="11" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F75" s="11">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G75" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H75" s="27"/>
-      <x:c r="I75" s="27" t="s">
-        <x:v>62</x:v>
+      <x:c r="G75" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H75" s="16"/>
+      <x:c r="I75" s="16" t="s">
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J75" s="16"/>
     </x:row>
@@ -3566,199 +3549,199 @@
     </x:row>
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
-      <x:c r="B77" s="39" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C77" s="39"/>
-      <x:c r="D77" s="39"/>
-      <x:c r="E77" s="39"/>
-      <x:c r="F77" s="39"/>
-      <x:c r="G77" s="39"/>
-      <x:c r="H77" s="39"/>
-      <x:c r="I77" s="39"/>
-      <x:c r="J77" s="39"/>
+      <x:c r="B77" s="38" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C77" s="38"/>
+      <x:c r="D77" s="38"/>
+      <x:c r="E77" s="38"/>
+      <x:c r="F77" s="38"/>
+      <x:c r="G77" s="38"/>
+      <x:c r="H77" s="38"/>
+      <x:c r="I77" s="38"/>
+      <x:c r="J77" s="38"/>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="4"/>
-      <x:c r="B78" s="27" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C78" s="27" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D78" s="27" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E78" s="27" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F78" s="27" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G78" s="27" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H78" s="27" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I78" s="27" t="s">
-        <x:v>71</x:v>
+      <x:c r="B78" s="16" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C78" s="16" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D78" s="16" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E78" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F78" s="16" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G78" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H78" s="16" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I78" s="16" t="s">
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J78" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="4"/>
-      <x:c r="B79" s="27">
+      <x:c r="B79" s="16">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C79" s="27" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D79" s="27" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E79" s="27" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F79" s="27">
+      <x:c r="C79" s="16" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D79" s="16" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E79" s="16" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F79" s="16">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G79" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H79" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I79" s="27" t="s">
-        <x:v>48</x:v>
+      <x:c r="G79" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H79" s="16" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I79" s="16" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J79" s="16"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="4"/>
-      <x:c r="B80" s="27">
+      <x:c r="B80" s="16">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C80" s="27" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D80" s="27" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E80" s="27" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F80" s="27" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G80" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H80" s="27"/>
-      <x:c r="I80" s="27"/>
+      <x:c r="C80" s="16" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D80" s="16" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E80" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F80" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G80" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H80" s="16"/>
+      <x:c r="I80" s="16"/>
       <x:c r="J80" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="4"/>
-      <x:c r="B81" s="27">
+      <x:c r="B81" s="16">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C81" s="27" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D81" s="27" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E81" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F81" s="27">
+      <x:c r="C81" s="16" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D81" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E81" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F81" s="16">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="G81" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H81" s="27"/>
-      <x:c r="I81" s="27"/>
+      <x:c r="G81" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H81" s="16"/>
+      <x:c r="I81" s="16"/>
       <x:c r="J81" s="16"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="4"/>
-      <x:c r="B82" s="27">
+      <x:c r="B82" s="16">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C82" s="27" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D82" s="27" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E82" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F82" s="27">
+      <x:c r="C82" s="16" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D82" s="16" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E82" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F82" s="16">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G82" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H82" s="27"/>
-      <x:c r="I82" s="27"/>
+      <x:c r="G82" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H82" s="16"/>
+      <x:c r="I82" s="16"/>
       <x:c r="J82" s="16"/>
     </x:row>
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="4"/>
-      <x:c r="B83" s="27">
+      <x:c r="B83" s="16">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C83" s="27" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D83" s="27" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E83" s="27" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F83" s="27">
+      <x:c r="C83" s="16" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D83" s="16" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E83" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F83" s="16">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G83" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H83" s="27"/>
-      <x:c r="I83" s="27"/>
+      <x:c r="G83" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H83" s="16"/>
+      <x:c r="I83" s="16"/>
       <x:c r="J83" s="16"/>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="3"/>
-      <x:c r="B84" s="27">
+      <x:c r="B84" s="16">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C84" s="27" t="s">
+      <x:c r="C84" s="16" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D84" s="16" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E84" s="16" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D84" s="27" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E84" s="27" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F84" s="27">
+      <x:c r="F84" s="16">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G84" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H84" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I84" s="27" t="s">
-        <x:v>62</x:v>
+      <x:c r="G84" s="16" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H84" s="16" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I84" s="16" t="s">
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J84" s="16"/>
     </x:row>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -14,373 +14,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="128">
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 unuse, use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자리 이상 15자리 이내</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="137">
+  <x:si>
+    <x:t>회원 (Member_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
+    <x:t>8자리 이상 15자리 이내</x:t>
+  </x:si>
+  <x:si>
     <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
   <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
     <x:t>p_no</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 (Member_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>부가서비스(ExtraService_tbl)</x:t>
@@ -389,16 +407,25 @@
     <x:t>입력값 F(female), M(male)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
     <x:t>예약 (Reservation_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,51 +468,21 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="20"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -539,7 +536,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="15">
+  <x:borders count="16">
     <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
         <x:color indexed="64"/>
@@ -795,6 +792,23 @@
         <x:color indexed="64"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,7 +857,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="37">
+  <x:cellXfs count="40">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1215,6 +1229,45 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1249,7 +1302,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1270,7 +1322,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1291,7 +1342,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1322,7 +1372,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1353,7 +1402,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1431,7 +1479,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1466,7 +1513,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1501,7 +1547,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1546,7 +1591,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1590,7 +1634,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1881,8 +1924,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E54" activeCellId="0" sqref="E54:E54"/>
+    <x:sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K23" activeCellId="0" sqref="K23:K23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1911,7 +1954,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="31" t="s">
-        <x:v>36</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
@@ -1949,7 +1992,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="3"/>
       <x:c r="B5" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="26"/>
       <x:c r="D5" s="26"/>
@@ -1963,31 +2006,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="3"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D6" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G6" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I6" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J6" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -1996,28 +2039,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D7" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H7" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I7" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2026,24 +2069,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D8" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H8" s="9"/>
       <x:c r="I8" s="10"/>
       <x:c r="J8" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2052,19 +2095,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F9" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10"/>
@@ -2076,22 +2119,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D10" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H10" s="9"/>
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2100,19 +2143,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F11" s="9">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10"/>
@@ -2124,24 +2167,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D12" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H12" s="10"/>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2150,19 +2193,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D13" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H13" s="9"/>
       <x:c r="I13" s="10"/>
@@ -2174,24 +2217,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E14" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F14" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H14" s="10"/>
       <x:c r="I14" s="12"/>
       <x:c r="J14" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2200,24 +2243,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F15" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H15" s="10"/>
       <x:c r="I15" s="12"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2226,24 +2269,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D16" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E16" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F16" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H16" s="10"/>
       <x:c r="I16" s="12"/>
       <x:c r="J16" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2261,7 +2304,7 @@
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="25" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C18" s="26"/>
       <x:c r="D18" s="26"/>
@@ -2275,28 +2318,28 @@
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D19" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F19" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G19" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H19" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I19" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J19" s="9"/>
     </x:row>
@@ -2306,25 +2349,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D20" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F20" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H20" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I20" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J20" s="11"/>
     </x:row>
@@ -2334,24 +2377,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D21" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E21" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F21" s="10">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H21" s="9"/>
       <x:c r="I21" s="12"/>
       <x:c r="J21" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2360,19 +2403,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E22" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F22" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H22" s="10"/>
       <x:c r="I22" s="12"/>
@@ -2384,19 +2427,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D23" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F23" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H23" s="9"/>
       <x:c r="I23" s="10"/>
@@ -2408,22 +2451,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D24" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E24" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F24" s="9"/>
       <x:c r="G24" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H24" s="10"/>
       <x:c r="I24" s="10"/>
       <x:c r="J24" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2432,1441 +2475,1489 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D25" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="9"/>
       <x:c r="G25" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H25" s="10"/>
       <x:c r="I25" s="10"/>
       <x:c r="J25" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="8">
+      <x:c r="B26" s="37">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C26" s="9" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D26" s="9" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F26" s="9"/>
-      <x:c r="G26" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H26" s="9"/>
-      <x:c r="I26" s="10"/>
-      <x:c r="J26" s="9" t="s">
-        <x:v>48</x:v>
+      <x:c r="C26" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D26" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E26" s="11" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F26" s="11"/>
+      <x:c r="G26" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H26" s="11"/>
+      <x:c r="I26" s="38"/>
+      <x:c r="J26" s="11" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A27" s="2"/>
-      <x:c r="B27" s="8">
+      <x:c r="B27" s="14">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C27" s="9" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D27" s="9" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E27" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F27" s="9">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G27" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H27" s="9"/>
-      <x:c r="I27" s="10" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J27" s="9"/>
+      <x:c r="C27" s="14" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D27" s="14" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E27" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F27" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G27" s="14"/>
+      <x:c r="H27" s="14"/>
+      <x:c r="I27" s="39"/>
+      <x:c r="J27" s="14" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="8">
+      <x:c r="B28" s="14">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C28" s="9" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D28" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E28" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F28" s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G28" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H28" s="10"/>
-      <x:c r="I28" s="10" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J28" s="9"/>
+      <x:c r="C28" s="14" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D28" s="14" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E28" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F28" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G28" s="14"/>
+      <x:c r="H28" s="14"/>
+      <x:c r="I28" s="39"/>
+      <x:c r="J28" s="14" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="2"/>
-      <x:c r="B29" s="6"/>
-      <x:c r="C29" s="6"/>
-      <x:c r="D29" s="6"/>
-      <x:c r="E29" s="6"/>
-      <x:c r="F29" s="6"/>
-      <x:c r="G29" s="6"/>
-      <x:c r="H29" s="6"/>
-      <x:c r="I29" s="6"/>
-      <x:c r="J29" s="7"/>
+      <x:c r="B29" s="14">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C29" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D29" s="14" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E29" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F29" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G29" s="14"/>
+      <x:c r="H29" s="14"/>
+      <x:c r="I29" s="39"/>
+      <x:c r="J29" s="14" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="28" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C30" s="29"/>
-      <x:c r="D30" s="29"/>
-      <x:c r="E30" s="29"/>
-      <x:c r="F30" s="29"/>
-      <x:c r="G30" s="29"/>
-      <x:c r="H30" s="29"/>
-      <x:c r="I30" s="29"/>
-      <x:c r="J30" s="29"/>
+      <x:c r="B30" s="14">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C30" s="14" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D30" s="14" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E30" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F30" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G30" s="14"/>
+      <x:c r="H30" s="14"/>
+      <x:c r="I30" s="39"/>
+      <x:c r="J30" s="14" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C31" s="9" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D31" s="9" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E31" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F31" s="9" t="s">
+      <x:c r="B31" s="14">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C31" s="14" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="G31" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H31" s="9" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I31" s="9" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="J31" s="9"/>
+      <x:c r="D31" s="14" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E31" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F31" s="14">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G31" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H31" s="14"/>
+      <x:c r="I31" s="39" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J31" s="14"/>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A32" s="2"/>
       <x:c r="B32" s="8">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C32" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D32" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E32" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F32" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H32" s="9" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I32" s="9" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J32" s="15"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H32" s="10"/>
+      <x:c r="I32" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J32" s="9"/>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C33" s="16" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D33" s="9" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E33" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F33" s="9">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G33" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H33" s="9"/>
-      <x:c r="I33" s="9"/>
-      <x:c r="J33" s="15"/>
+      <x:c r="B33" s="6"/>
+      <x:c r="C33" s="6"/>
+      <x:c r="D33" s="6"/>
+      <x:c r="E33" s="6"/>
+      <x:c r="F33" s="6"/>
+      <x:c r="G33" s="6"/>
+      <x:c r="H33" s="6"/>
+      <x:c r="I33" s="6"/>
+      <x:c r="J33" s="7"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A34" s="3"/>
-      <x:c r="B34" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C34" s="16" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D34" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E34" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F34" s="9">
-        <x:v>3000</x:v>
-      </x:c>
-      <x:c r="G34" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H34" s="9"/>
-      <x:c r="I34" s="9"/>
-      <x:c r="J34" s="9"/>
+      <x:c r="B34" s="28" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C34" s="29"/>
+      <x:c r="D34" s="29"/>
+      <x:c r="E34" s="29"/>
+      <x:c r="F34" s="29"/>
+      <x:c r="G34" s="29"/>
+      <x:c r="H34" s="29"/>
+      <x:c r="I34" s="29"/>
+      <x:c r="J34" s="29"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="3"/>
-      <x:c r="B35" s="17">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C35" s="18" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D35" s="17" t="s">
-        <x:v>41</x:v>
+      <x:c r="B35" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C35" s="9" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D35" s="9" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E35" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F35" s="9"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F35" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="G35" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H35" s="19"/>
-      <x:c r="I35" s="19"/>
-      <x:c r="J35" s="9" t="s">
-        <x:v>48</x:v>
-      </x:c>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H35" s="9" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I35" s="9" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J35" s="9"/>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="3"/>
-      <x:c r="B36" s="15">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C36" s="20" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D36" s="15" t="s">
-        <x:v>109</x:v>
+      <x:c r="B36" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C36" s="9" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D36" s="9" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E36" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F36" s="9">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G36" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H36" s="9"/>
-      <x:c r="I36" s="21" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J36" s="13"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H36" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I36" s="9" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J36" s="15"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="6"/>
-      <x:c r="C37" s="6"/>
-      <x:c r="D37" s="6"/>
-      <x:c r="E37" s="6"/>
-      <x:c r="F37" s="6"/>
-      <x:c r="G37" s="6"/>
-      <x:c r="H37" s="6"/>
-      <x:c r="I37" s="6"/>
-      <x:c r="J37" s="7"/>
+      <x:c r="B37" s="8">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C37" s="16" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D37" s="9" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E37" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F37" s="9">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G37" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H37" s="9"/>
+      <x:c r="I37" s="9"/>
+      <x:c r="J37" s="15"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="3"/>
-      <x:c r="B38" s="25" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C38" s="26"/>
-      <x:c r="D38" s="26"/>
-      <x:c r="E38" s="26"/>
-      <x:c r="F38" s="26"/>
-      <x:c r="G38" s="26"/>
-      <x:c r="H38" s="26"/>
-      <x:c r="I38" s="26"/>
-      <x:c r="J38" s="27"/>
+      <x:c r="B38" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C38" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D38" s="9" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E38" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F38" s="9">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="G38" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H38" s="9"/>
+      <x:c r="I38" s="9"/>
+      <x:c r="J38" s="9"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A39" s="4"/>
-      <x:c r="B39" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C39" s="9" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D39" s="9" t="s">
-        <x:v>99</x:v>
+      <x:c r="B39" s="17">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C39" s="18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D39" s="17" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E39" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F39" s="9" t="s">
-        <x:v>105</x:v>
-      </x:c>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F39" s="9"/>
       <x:c r="G39" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H39" s="9" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I39" s="9" t="s">
-        <x:v>96</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H39" s="19"/>
+      <x:c r="I39" s="19"/>
       <x:c r="J39" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A40" s="4"/>
-      <x:c r="B40" s="8">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C40" s="9" t="s">
+      <x:c r="B40" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C40" s="20" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D40" s="15" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E40" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F40" s="9">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D40" s="9" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E40" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F40" s="9">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="G40" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H40" s="9" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I40" s="9" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J40" s="9"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H40" s="9"/>
+      <x:c r="I40" s="21" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J40" s="13"/>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A41" s="4"/>
-      <x:c r="B41" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C41" s="9" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D41" s="9" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E41" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F41" s="10"/>
-      <x:c r="G41" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H41" s="9"/>
-      <x:c r="I41" s="10"/>
-      <x:c r="J41" s="24" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="B41" s="6"/>
+      <x:c r="C41" s="6"/>
+      <x:c r="D41" s="6"/>
+      <x:c r="E41" s="6"/>
+      <x:c r="F41" s="6"/>
+      <x:c r="G41" s="6"/>
+      <x:c r="H41" s="6"/>
+      <x:c r="I41" s="6"/>
+      <x:c r="J41" s="7"/>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A42" s="4"/>
-      <x:c r="B42" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C42" s="9" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D42" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E42" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F42" s="9">
-        <x:v>3000</x:v>
-      </x:c>
-      <x:c r="G42" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H42" s="10"/>
-      <x:c r="I42" s="10"/>
-      <x:c r="J42" s="9"/>
+      <x:c r="B42" s="25" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="26"/>
+      <x:c r="D42" s="26"/>
+      <x:c r="E42" s="26"/>
+      <x:c r="F42" s="26"/>
+      <x:c r="G42" s="26"/>
+      <x:c r="H42" s="26"/>
+      <x:c r="I42" s="26"/>
+      <x:c r="J42" s="27"/>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A43" s="4"/>
-      <x:c r="B43" s="8">
-        <x:v>4</x:v>
+      <x:c r="B43" s="8" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D43" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E43" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F43" s="9">
-        <x:v>50</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F43" s="9" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G43" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H43" s="9"/>
-      <x:c r="I43" s="10"/>
-      <x:c r="J43" s="9"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H43" s="9" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I43" s="9" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J43" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A44" s="4"/>
       <x:c r="B44" s="8">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C44" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D44" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E44" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F44" s="9">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G44" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H44" s="10"/>
-      <x:c r="I44" s="10"/>
-      <x:c r="J44" s="9" t="s">
-        <x:v>75</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H44" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I44" s="9" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J44" s="9"/>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="2"/>
-      <x:c r="B45" s="6"/>
-      <x:c r="C45" s="6"/>
-      <x:c r="D45" s="6"/>
-      <x:c r="E45" s="6"/>
-      <x:c r="F45" s="6"/>
-      <x:c r="G45" s="6"/>
-      <x:c r="H45" s="6"/>
-      <x:c r="I45" s="6"/>
-      <x:c r="J45" s="7"/>
+      <x:c r="B45" s="8">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C45" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D45" s="9" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E45" s="9" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F45" s="10"/>
+      <x:c r="G45" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H45" s="9"/>
+      <x:c r="I45" s="10"/>
+      <x:c r="J45" s="24" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="25" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C46" s="26"/>
-      <x:c r="D46" s="26"/>
-      <x:c r="E46" s="26"/>
-      <x:c r="F46" s="26"/>
-      <x:c r="G46" s="26"/>
-      <x:c r="H46" s="26"/>
-      <x:c r="I46" s="26"/>
-      <x:c r="J46" s="27"/>
+      <x:c r="B46" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C46" s="9" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D46" s="9" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E46" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F46" s="9">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="G46" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H46" s="10"/>
+      <x:c r="I46" s="10"/>
+      <x:c r="J46" s="9"/>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="3"/>
-      <x:c r="B47" s="8" t="s">
-        <x:v>117</x:v>
+      <x:c r="B47" s="8">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C47" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D47" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E47" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F47" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F47" s="9">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G47" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H47" s="9" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I47" s="9" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="J47" s="9" t="s">
-        <x:v>106</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H47" s="9"/>
+      <x:c r="I47" s="10"/>
+      <x:c r="J47" s="9"/>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A48" s="3"/>
       <x:c r="B48" s="8">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C48" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D48" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E48" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F48" s="9">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G48" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H48" s="9" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I48" s="9" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J48" s="9"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H48" s="10"/>
+      <x:c r="I48" s="10"/>
+      <x:c r="J48" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A49" s="3"/>
-      <x:c r="B49" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C49" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D49" s="9" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E49" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F49" s="9">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G49" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H49" s="9"/>
-      <x:c r="I49" s="10"/>
-      <x:c r="J49" s="9"/>
+      <x:c r="B49" s="6"/>
+      <x:c r="C49" s="6"/>
+      <x:c r="D49" s="6"/>
+      <x:c r="E49" s="6"/>
+      <x:c r="F49" s="6"/>
+      <x:c r="G49" s="6"/>
+      <x:c r="H49" s="6"/>
+      <x:c r="I49" s="6"/>
+      <x:c r="J49" s="7"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A50" s="3"/>
-      <x:c r="B50" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C50" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D50" s="9" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E50" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F50" s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G50" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H50" s="10"/>
-      <x:c r="I50" s="10"/>
-      <x:c r="J50" s="9"/>
+      <x:c r="B50" s="25" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C50" s="26"/>
+      <x:c r="D50" s="26"/>
+      <x:c r="E50" s="26"/>
+      <x:c r="F50" s="26"/>
+      <x:c r="G50" s="26"/>
+      <x:c r="H50" s="26"/>
+      <x:c r="I50" s="26"/>
+      <x:c r="J50" s="27"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="3"/>
-      <x:c r="B51" s="8">
-        <x:v>4</x:v>
+      <x:c r="B51" s="8" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C51" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D51" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E51" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F51" s="9">
-        <x:v>7</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F51" s="9" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G51" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H51" s="9"/>
-      <x:c r="I51" s="10"/>
-      <x:c r="J51" s="9"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H51" s="9" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I51" s="9" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J51" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="3"/>
       <x:c r="B52" s="8">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C52" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D52" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E52" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F52" s="9">
-        <x:v>1000</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G52" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H52" s="10"/>
-      <x:c r="I52" s="10"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H52" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I52" s="9" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="J52" s="9"/>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="3"/>
       <x:c r="B53" s="8">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C53" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D53" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E53" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F53" s="9">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H53" s="10"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H53" s="9"/>
       <x:c r="I53" s="10"/>
-      <x:c r="J53" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="J53" s="9"/>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="3"/>
       <x:c r="B54" s="8">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C54" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D54" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E54" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F54" s="9">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G54" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H54" s="9"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H54" s="10"/>
       <x:c r="I54" s="10"/>
-      <x:c r="J54" s="13" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="J54" s="9"/>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A55" s="2"/>
       <x:c r="B55" s="8">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C55" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D55" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E55" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F55" s="9">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G55" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H55" s="10"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H55" s="9"/>
       <x:c r="I55" s="10"/>
-      <x:c r="J55" s="13" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="J55" s="9"/>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="2"/>
-      <x:c r="B56" s="6"/>
-      <x:c r="C56" s="6"/>
-      <x:c r="D56" s="6"/>
-      <x:c r="E56" s="6"/>
-      <x:c r="F56" s="6"/>
-      <x:c r="G56" s="6"/>
-      <x:c r="H56" s="6"/>
-      <x:c r="I56" s="6"/>
-      <x:c r="J56" s="7"/>
+      <x:c r="B56" s="8">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C56" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D56" s="9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E56" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F56" s="9">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="G56" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H56" s="10"/>
+      <x:c r="I56" s="10"/>
+      <x:c r="J56" s="9"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="2"/>
-      <x:c r="B57" s="28" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C57" s="29"/>
-      <x:c r="D57" s="29"/>
-      <x:c r="E57" s="29"/>
-      <x:c r="F57" s="29"/>
-      <x:c r="G57" s="29"/>
-      <x:c r="H57" s="29"/>
-      <x:c r="I57" s="29"/>
-      <x:c r="J57" s="29"/>
+      <x:c r="B57" s="8">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C57" s="9" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D57" s="9" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E57" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F57" s="9">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G57" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H57" s="10"/>
+      <x:c r="I57" s="10"/>
+      <x:c r="J57" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="2"/>
-      <x:c r="B58" s="8" t="s">
-        <x:v>117</x:v>
+      <x:c r="B58" s="8">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C58" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D58" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E58" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F58" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F58" s="9">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G58" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H58" s="9" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I58" s="9" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="J58" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H58" s="9"/>
+      <x:c r="I58" s="10"/>
+      <x:c r="J58" s="13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A59" s="2"/>
       <x:c r="B59" s="8">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C59" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D59" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E59" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F59" s="9">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G59" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H59" s="9" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I59" s="9" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J59" s="15"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H59" s="10"/>
+      <x:c r="I59" s="10"/>
+      <x:c r="J59" s="13" t="s">
+        <x:v>47</x:v>
+      </x:c>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C60" s="16" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D60" s="9" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E60" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F60" s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G60" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H60" s="9"/>
-      <x:c r="I60" s="9"/>
-      <x:c r="J60" s="15"/>
+      <x:c r="B60" s="6"/>
+      <x:c r="C60" s="6"/>
+      <x:c r="D60" s="6"/>
+      <x:c r="E60" s="6"/>
+      <x:c r="F60" s="6"/>
+      <x:c r="G60" s="6"/>
+      <x:c r="H60" s="6"/>
+      <x:c r="I60" s="6"/>
+      <x:c r="J60" s="7"/>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C61" s="16" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D61" s="9" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E61" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F61" s="9">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G61" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H61" s="9"/>
-      <x:c r="I61" s="9"/>
-      <x:c r="J61" s="9"/>
+      <x:c r="B61" s="28" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C61" s="29"/>
+      <x:c r="D61" s="29"/>
+      <x:c r="E61" s="29"/>
+      <x:c r="F61" s="29"/>
+      <x:c r="G61" s="29"/>
+      <x:c r="H61" s="29"/>
+      <x:c r="I61" s="29"/>
+      <x:c r="J61" s="29"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="17">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C62" s="18" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D62" s="17" t="s">
-        <x:v>28</x:v>
+      <x:c r="B62" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C62" s="9" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D62" s="9" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E62" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F62" s="9">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="G62" s="9"/>
-      <x:c r="H62" s="19"/>
-      <x:c r="I62" s="22"/>
-      <x:c r="J62" s="13"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F62" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G62" s="9" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H62" s="9" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I62" s="9" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J62" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="15">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C63" s="20" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D63" s="15" t="s">
+      <x:c r="B63" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C63" s="9" t="s">
         <x:v>118</x:v>
       </x:c>
+      <x:c r="D63" s="9" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E63" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F63" s="9">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G63" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H63" s="21"/>
-      <x:c r="I63" s="14"/>
-      <x:c r="J63" s="13" t="s">
-        <x:v>123</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H63" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I63" s="9" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J63" s="15"/>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="2"/>
-      <x:c r="B64" s="17">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C64" s="20" t="s">
+      <x:c r="B64" s="8">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C64" s="16" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D64" s="15" t="s">
-        <x:v>120</x:v>
+      <x:c r="D64" s="9" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E64" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F64" s="9">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G64" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H64" s="9"/>
-      <x:c r="I64" s="21"/>
-      <x:c r="J64" s="23" t="s">
-        <x:v>124</x:v>
-      </x:c>
+      <x:c r="I64" s="9"/>
+      <x:c r="J64" s="15"/>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A65" s="2"/>
-      <x:c r="B65" s="15">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C65" s="20" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D65" s="15" t="s">
-        <x:v>34</x:v>
+      <x:c r="B65" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C65" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D65" s="9" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E65" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F65" s="9">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G65" s="9"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G65" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="H65" s="9"/>
-      <x:c r="I65" s="21"/>
-      <x:c r="J65" s="15" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="I65" s="9"/>
+      <x:c r="J65" s="9"/>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A66" s="3"/>
-      <x:c r="B66" s="15">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C66" s="15" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D66" s="15" t="s">
-        <x:v>23</x:v>
+      <x:c r="B66" s="17">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C66" s="18" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D66" s="17" t="s">
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E66" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F66" s="9">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G66" s="9" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H66" s="9"/>
-      <x:c r="I66" s="21" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J66" s="15"/>
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G66" s="9"/>
+      <x:c r="H66" s="19"/>
+      <x:c r="I66" s="22"/>
+      <x:c r="J66" s="13"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="3"/>
-      <x:c r="B67" s="2"/>
-      <x:c r="C67" s="2"/>
-      <x:c r="D67" s="2"/>
-      <x:c r="E67" s="2"/>
-      <x:c r="F67" s="2"/>
-      <x:c r="G67" s="2"/>
-      <x:c r="H67" s="2"/>
-      <x:c r="I67" s="2"/>
-      <x:c r="J67" s="3"/>
+      <x:c r="B67" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C67" s="20" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D67" s="15" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E67" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F67" s="9">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G67" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H67" s="21"/>
+      <x:c r="I67" s="14"/>
+      <x:c r="J67" s="13" t="s">
+        <x:v>129</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="3"/>
-      <x:c r="B68" s="30" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C68" s="30"/>
-      <x:c r="D68" s="30"/>
-      <x:c r="E68" s="30"/>
-      <x:c r="F68" s="30"/>
-      <x:c r="G68" s="30"/>
-      <x:c r="H68" s="30"/>
-      <x:c r="I68" s="30"/>
-      <x:c r="J68" s="30"/>
+      <x:c r="B68" s="17">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C68" s="20" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D68" s="15" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E68" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F68" s="9">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G68" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H68" s="9"/>
+      <x:c r="I68" s="21"/>
+      <x:c r="J68" s="23" t="s">
+        <x:v>126</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="3"/>
-      <x:c r="B69" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C69" s="14" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D69" s="14" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E69" s="14" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F69" s="14" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G69" s="14" t="s">
+      <x:c r="B69" s="15">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C69" s="20" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H69" s="14" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I69" s="14" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="J69" s="14" t="s">
-        <x:v>106</x:v>
+      <x:c r="D69" s="15" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E69" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F69" s="9">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G69" s="9"/>
+      <x:c r="H69" s="9"/>
+      <x:c r="I69" s="21"/>
+      <x:c r="J69" s="15" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="3"/>
-      <x:c r="B70" s="14">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C70" s="14" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D70" s="14" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E70" s="14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F70" s="14">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G70" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H70" s="14" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I70" s="14" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J70" s="14"/>
+      <x:c r="B70" s="15">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C70" s="15" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D70" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E70" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F70" s="9">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G70" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H70" s="9"/>
+      <x:c r="I70" s="21" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J70" s="15"/>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="3"/>
-      <x:c r="B71" s="14">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C71" s="14" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D71" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E71" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F71" s="14">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G71" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H71" s="14"/>
-      <x:c r="I71" s="14"/>
-      <x:c r="J71" s="14"/>
+      <x:c r="B71" s="2"/>
+      <x:c r="C71" s="2"/>
+      <x:c r="D71" s="2"/>
+      <x:c r="E71" s="2"/>
+      <x:c r="F71" s="2"/>
+      <x:c r="G71" s="2"/>
+      <x:c r="H71" s="2"/>
+      <x:c r="I71" s="2"/>
+      <x:c r="J71" s="3"/>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="2"/>
-      <x:c r="B72" s="14">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C72" s="14" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D72" s="14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E72" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F72" s="14">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="G72" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H72" s="14"/>
-      <x:c r="I72" s="14"/>
-      <x:c r="J72" s="14"/>
+      <x:c r="B72" s="30" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C72" s="30"/>
+      <x:c r="D72" s="30"/>
+      <x:c r="E72" s="30"/>
+      <x:c r="F72" s="30"/>
+      <x:c r="G72" s="30"/>
+      <x:c r="H72" s="30"/>
+      <x:c r="I72" s="30"/>
+      <x:c r="J72" s="30"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="3"/>
-      <x:c r="B73" s="14">
-        <x:v>4</x:v>
+      <x:c r="B73" s="14" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C73" s="14" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D73" s="14" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E73" s="14" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F73" s="14" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G73" s="14" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H73" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I73" s="14" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D73" s="14" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E73" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F73" s="14">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G73" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H73" s="14"/>
-      <x:c r="I73" s="14"/>
-      <x:c r="J73" s="13" t="s">
+      <x:c r="J73" s="14" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="3"/>
       <x:c r="B74" s="14">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C74" s="14" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D74" s="14" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E74" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F74" s="14">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C74" s="14" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D74" s="14" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E74" s="14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F74" s="14">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="G74" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H74" s="14"/>
-      <x:c r="I74" s="14"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H74" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I74" s="14" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="J74" s="14"/>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="3"/>
       <x:c r="B75" s="14">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C75" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D75" s="14" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E75" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F75" s="9">
-        <x:v>6</x:v>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E75" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F75" s="14">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G75" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H75" s="14"/>
-      <x:c r="I75" s="14" t="s">
-        <x:v>121</x:v>
-      </x:c>
+      <x:c r="I75" s="14"/>
       <x:c r="J75" s="14"/>
     </x:row>
-    <x:row r="76" spans="1:10" ht="13.75">
+    <x:row r="76" spans="1:10" ht="16.399999999999999">
       <x:c r="A76" s="3"/>
-      <x:c r="B76" s="2"/>
-      <x:c r="C76" s="2"/>
-      <x:c r="D76" s="2"/>
-      <x:c r="E76" s="2"/>
-      <x:c r="F76" s="2"/>
-      <x:c r="G76" s="2"/>
-      <x:c r="H76" s="2"/>
-      <x:c r="I76" s="2"/>
-      <x:c r="J76" s="3"/>
+      <x:c r="B76" s="14">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C76" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D76" s="14" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E76" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F76" s="14">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="G76" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H76" s="14"/>
+      <x:c r="I76" s="14"/>
+      <x:c r="J76" s="14"/>
     </x:row>
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="3"/>
-      <x:c r="B77" s="30" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C77" s="30"/>
-      <x:c r="D77" s="30"/>
-      <x:c r="E77" s="30"/>
-      <x:c r="F77" s="30"/>
-      <x:c r="G77" s="30"/>
-      <x:c r="H77" s="30"/>
-      <x:c r="I77" s="30"/>
-      <x:c r="J77" s="30"/>
+      <x:c r="B77" s="14">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C77" s="14" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D77" s="14" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E77" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F77" s="14">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G77" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H77" s="14"/>
+      <x:c r="I77" s="14"/>
+      <x:c r="J77" s="13" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="3"/>
-      <x:c r="B78" s="14" t="s">
-        <x:v>117</x:v>
+      <x:c r="B78" s="14">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C78" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D78" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E78" s="14" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F78" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F78" s="14">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G78" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H78" s="14" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I78" s="14" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="J78" s="14" t="s">
-        <x:v>106</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H78" s="14"/>
+      <x:c r="I78" s="14"/>
+      <x:c r="J78" s="14"/>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="3"/>
       <x:c r="B79" s="14">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C79" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D79" s="14" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E79" s="14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F79" s="14">
-        <x:v>10</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E79" s="9" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F79" s="9">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G79" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H79" s="14" t="s">
-        <x:v>97</x:v>
-      </x:c>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H79" s="14"/>
       <x:c r="I79" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J79" s="14"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="3"/>
-      <x:c r="B80" s="14">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C80" s="14" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D80" s="14" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E80" s="14" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F80" s="14" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G80" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H80" s="14"/>
-      <x:c r="I80" s="14"/>
-      <x:c r="J80" s="9" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="B80" s="2"/>
+      <x:c r="C80" s="2"/>
+      <x:c r="D80" s="2"/>
+      <x:c r="E80" s="2"/>
+      <x:c r="F80" s="2"/>
+      <x:c r="G80" s="2"/>
+      <x:c r="H80" s="2"/>
+      <x:c r="I80" s="2"/>
+      <x:c r="J80" s="3"/>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="3"/>
-      <x:c r="B81" s="14">
+      <x:c r="B81" s="30" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C81" s="14" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D81" s="14" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E81" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F81" s="14">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="G81" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H81" s="14"/>
-      <x:c r="I81" s="14"/>
-      <x:c r="J81" s="14"/>
+      <x:c r="C81" s="30"/>
+      <x:c r="D81" s="30"/>
+      <x:c r="E81" s="30"/>
+      <x:c r="F81" s="30"/>
+      <x:c r="G81" s="30"/>
+      <x:c r="H81" s="30"/>
+      <x:c r="I81" s="30"/>
+      <x:c r="J81" s="30"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="3"/>
-      <x:c r="B82" s="14">
-        <x:v>4</x:v>
+      <x:c r="B82" s="14" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C82" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D82" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E82" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F82" s="14">
-        <x:v>50</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F82" s="14" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G82" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H82" s="14"/>
-      <x:c r="I82" s="14"/>
-      <x:c r="J82" s="14"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H82" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I82" s="14" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J82" s="14" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="3"/>
       <x:c r="B83" s="14">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C83" s="14" t="s">
-        <x:v>60</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D83" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E83" s="14" t="s">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F83" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G83" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H83" s="14"/>
-      <x:c r="I83" s="14"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H83" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I83" s="14" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="J83" s="14"/>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="2"/>
       <x:c r="B84" s="14">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C84" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D84" s="14" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="E84" s="14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F84" s="14">
-        <x:v>6</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F84" s="14" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G84" s="14" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H84" s="14" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I84" s="14" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J84" s="14"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H84" s="14"/>
+      <x:c r="I84" s="14"/>
+      <x:c r="J84" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A85" s="2"/>
-      <x:c r="B85" s="2"/>
-      <x:c r="C85" s="2"/>
-      <x:c r="D85" s="2"/>
-      <x:c r="E85" s="2"/>
-      <x:c r="F85" s="2"/>
-      <x:c r="G85" s="2"/>
-      <x:c r="H85" s="2"/>
-      <x:c r="I85" s="2"/>
-      <x:c r="J85" s="3"/>
+      <x:c r="B85" s="14">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C85" s="14" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D85" s="14" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E85" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F85" s="14">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="G85" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H85" s="14"/>
+      <x:c r="I85" s="14"/>
+      <x:c r="J85" s="14"/>
     </x:row>
     <x:row r="86" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A86" s="5"/>
-      <x:c r="B86" s="2"/>
-      <x:c r="C86" s="2"/>
-      <x:c r="D86" s="2"/>
-      <x:c r="E86" s="2"/>
-      <x:c r="F86" s="2"/>
-      <x:c r="G86" s="2"/>
-      <x:c r="H86" s="2"/>
-      <x:c r="I86" s="2"/>
-      <x:c r="J86" s="3"/>
+      <x:c r="B86" s="14">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C86" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D86" s="14" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E86" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F86" s="14">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G86" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H86" s="14"/>
+      <x:c r="I86" s="14"/>
+      <x:c r="J86" s="14"/>
     </x:row>
     <x:row r="87" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A87" s="2"/>
-      <x:c r="B87" s="2"/>
-      <x:c r="C87" s="2"/>
-      <x:c r="D87" s="2"/>
-      <x:c r="E87" s="2"/>
-      <x:c r="F87" s="2"/>
-      <x:c r="G87" s="2"/>
-      <x:c r="H87" s="2"/>
-      <x:c r="I87" s="2"/>
-      <x:c r="J87" s="3"/>
+      <x:c r="B87" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C87" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D87" s="14" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E87" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F87" s="14">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G87" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H87" s="14"/>
+      <x:c r="I87" s="14"/>
+      <x:c r="J87" s="14"/>
     </x:row>
     <x:row r="88" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A88" s="2"/>
-      <x:c r="B88" s="2"/>
-      <x:c r="C88" s="2"/>
-      <x:c r="D88" s="2"/>
-      <x:c r="E88" s="2"/>
-      <x:c r="F88" s="2"/>
-      <x:c r="G88" s="2"/>
-      <x:c r="H88" s="2"/>
-      <x:c r="I88" s="2"/>
-      <x:c r="J88" s="3"/>
+      <x:c r="B88" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C88" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D88" s="14" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E88" s="14" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F88" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G88" s="14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H88" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I88" s="14" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J88" s="14"/>
     </x:row>
     <x:row r="89" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A89" s="2"/>
@@ -6732,15 +6823,15 @@
     <x:row r="1001" ht="15.75" customHeight="1"/>
   </x:sheetData>
   <x:mergeCells count="9">
-    <x:mergeCell ref="B46:J46"/>
-    <x:mergeCell ref="B57:J57"/>
-    <x:mergeCell ref="B68:J68"/>
-    <x:mergeCell ref="B77:J77"/>
     <x:mergeCell ref="B2:J3"/>
     <x:mergeCell ref="B5:J5"/>
     <x:mergeCell ref="B18:J18"/>
-    <x:mergeCell ref="B30:J30"/>
-    <x:mergeCell ref="B38:J38"/>
+    <x:mergeCell ref="B50:J50"/>
+    <x:mergeCell ref="B61:J61"/>
+    <x:mergeCell ref="B72:J72"/>
+    <x:mergeCell ref="B81:J81"/>
+    <x:mergeCell ref="B34:J34"/>
+    <x:mergeCell ref="B42:J42"/>
   </x:mergeCells>
   <x:pageMargins left="0.69958335161209106" right="0.69958335161209106" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -14,7 +14,373 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="137">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="140">
+  <x:si>
+    <x:t>r_extraservice2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약펫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
   <x:si>
     <x:t>회원 (Member_tbl)</x:t>
   </x:si>
@@ -23,9 +389,18 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice1</x:t>
+  </x:si>
+  <x:si>
     <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
   <x:si>
@@ -35,397 +410,31 @@
     <x:t>r_extraservice3</x:t>
   </x:si>
   <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 unuse, use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
     <x:t>n_registrant</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스4</x:t>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 done, cancel, valid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 small, middle, big</x:t>
   </x:si>
   <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
     <x:t>예약 (Reservation_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스1</x:t>
+    <x:t>r_pet</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -677,48 +686,14 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
         <x:color indexed="64"/>
@@ -796,14 +771,48 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
-      <x:top>
-        <x:color indexed="64"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
       <x:diagonal>
         <x:color indexed="64"/>
@@ -1155,21 +1164,88 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1197,73 +1273,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1302,6 +1311,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1322,6 +1332,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1342,6 +1353,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1372,6 +1384,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1402,6 +1415,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1479,6 +1493,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1513,6 +1528,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1547,6 +1563,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1591,6 +1608,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1634,6 +1652,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1924,8 +1943,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K23" activeCellId="0" sqref="K23:K23"/>
+    <x:sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J33" activeCellId="0" sqref="J33:J33"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1953,29 +1972,29 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="31" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C2" s="32"/>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
-      <x:c r="I2" s="32"/>
-      <x:c r="J2" s="33"/>
+      <x:c r="B2" s="28" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C2" s="29"/>
+      <x:c r="D2" s="29"/>
+      <x:c r="E2" s="29"/>
+      <x:c r="F2" s="29"/>
+      <x:c r="G2" s="29"/>
+      <x:c r="H2" s="29"/>
+      <x:c r="I2" s="29"/>
+      <x:c r="J2" s="30"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="34"/>
-      <x:c r="C3" s="35"/>
-      <x:c r="D3" s="35"/>
-      <x:c r="E3" s="35"/>
-      <x:c r="F3" s="35"/>
-      <x:c r="G3" s="35"/>
-      <x:c r="H3" s="35"/>
-      <x:c r="I3" s="35"/>
-      <x:c r="J3" s="36"/>
+      <x:c r="B3" s="31"/>
+      <x:c r="C3" s="32"/>
+      <x:c r="D3" s="32"/>
+      <x:c r="E3" s="32"/>
+      <x:c r="F3" s="32"/>
+      <x:c r="G3" s="32"/>
+      <x:c r="H3" s="32"/>
+      <x:c r="I3" s="32"/>
+      <x:c r="J3" s="33"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A4" s="2"/>
@@ -1991,46 +2010,46 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="3"/>
-      <x:c r="B5" s="25" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="26"/>
-      <x:c r="D5" s="26"/>
-      <x:c r="E5" s="26"/>
-      <x:c r="F5" s="26"/>
-      <x:c r="G5" s="26"/>
-      <x:c r="H5" s="26"/>
-      <x:c r="I5" s="26"/>
-      <x:c r="J5" s="27"/>
+      <x:c r="B5" s="34" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C5" s="35"/>
+      <x:c r="D5" s="35"/>
+      <x:c r="E5" s="35"/>
+      <x:c r="F5" s="35"/>
+      <x:c r="G5" s="35"/>
+      <x:c r="H5" s="35"/>
+      <x:c r="I5" s="35"/>
+      <x:c r="J5" s="36"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="3"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H6" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I6" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -2039,28 +2058,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D7" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F7" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H7" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I7" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2069,24 +2088,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>90</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D8" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F8" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="9"/>
       <x:c r="I8" s="10"/>
       <x:c r="J8" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2095,19 +2114,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F9" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10"/>
@@ -2119,22 +2138,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="9"/>
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2143,19 +2162,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F11" s="9">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10"/>
@@ -2167,24 +2186,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D12" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F12" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H12" s="10"/>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2193,19 +2212,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D13" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="9"/>
       <x:c r="I13" s="10"/>
@@ -2217,24 +2236,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D14" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E14" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F14" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H14" s="10"/>
       <x:c r="I14" s="12"/>
       <x:c r="J14" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2243,24 +2262,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D15" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F15" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H15" s="10"/>
       <x:c r="I15" s="12"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2269,24 +2288,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="9" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E16" s="9" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="E16" s="9" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="F16" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H16" s="10"/>
       <x:c r="I16" s="12"/>
       <x:c r="J16" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2303,43 +2322,43 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="2"/>
-      <x:c r="B18" s="25" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C18" s="26"/>
-      <x:c r="D18" s="26"/>
-      <x:c r="E18" s="26"/>
-      <x:c r="F18" s="26"/>
-      <x:c r="G18" s="26"/>
-      <x:c r="H18" s="26"/>
-      <x:c r="I18" s="26"/>
-      <x:c r="J18" s="27"/>
+      <x:c r="B18" s="34" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C18" s="35"/>
+      <x:c r="D18" s="35"/>
+      <x:c r="E18" s="35"/>
+      <x:c r="F18" s="35"/>
+      <x:c r="G18" s="35"/>
+      <x:c r="H18" s="35"/>
+      <x:c r="I18" s="35"/>
+      <x:c r="J18" s="36"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F19" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G19" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H19" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I19" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J19" s="9"/>
     </x:row>
@@ -2349,25 +2368,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D20" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F20" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H20" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I20" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J20" s="11"/>
     </x:row>
@@ -2377,24 +2396,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D21" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E21" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F21" s="10">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H21" s="9"/>
       <x:c r="I21" s="12"/>
       <x:c r="J21" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2403,19 +2422,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="10"/>
       <x:c r="I22" s="12"/>
@@ -2427,23 +2446,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D23" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F23" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H23" s="9"/>
       <x:c r="I23" s="10"/>
-      <x:c r="J23" s="9"/>
+      <x:c r="J23" s="13" t="s">
+        <x:v>133</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A24" s="2"/>
@@ -2451,22 +2472,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E24" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F24" s="9"/>
       <x:c r="G24" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="10"/>
       <x:c r="I24" s="10"/>
       <x:c r="J24" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2475,46 +2496,46 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D25" s="9" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E25" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F25" s="9"/>
       <x:c r="G25" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="10"/>
       <x:c r="I25" s="10"/>
       <x:c r="J25" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="37">
+      <x:c r="B26" s="25">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>98</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F26" s="11"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
-      <x:c r="I26" s="38"/>
+      <x:c r="I26" s="26"/>
       <x:c r="J26" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2523,22 +2544,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="14" t="s">
-        <x:v>135</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D27" s="14" t="s">
-        <x:v>136</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E27" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F27" s="14">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G27" s="14"/>
       <x:c r="H27" s="14"/>
-      <x:c r="I27" s="39"/>
+      <x:c r="I27" s="27"/>
       <x:c r="J27" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2547,22 +2568,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="14" t="s">
-        <x:v>133</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="14" t="s">
-        <x:v>75</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E28" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F28" s="14">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G28" s="14"/>
       <x:c r="H28" s="14"/>
-      <x:c r="I28" s="39"/>
+      <x:c r="I28" s="27"/>
       <x:c r="J28" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2571,22 +2592,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D29" s="14" t="s">
-        <x:v>124</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E29" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F29" s="14">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G29" s="14"/>
       <x:c r="H29" s="14"/>
-      <x:c r="I29" s="39"/>
+      <x:c r="I29" s="27"/>
       <x:c r="J29" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2595,22 +2616,22 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C30" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E30" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F30" s="14">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G30" s="14"/>
       <x:c r="H30" s="14"/>
-      <x:c r="I30" s="39"/>
+      <x:c r="I30" s="27"/>
       <x:c r="J30" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2619,23 +2640,23 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D31" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E31" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F31" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G31" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H31" s="14"/>
-      <x:c r="I31" s="39" t="s">
-        <x:v>51</x:v>
+      <x:c r="I31" s="27" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J31" s="14"/>
     </x:row>
@@ -2645,1029 +2666,1031 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C32" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D32" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E32" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F32" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H32" s="10"/>
       <x:c r="I32" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J32" s="9"/>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="6"/>
-      <x:c r="C33" s="6"/>
-      <x:c r="D33" s="6"/>
-      <x:c r="E33" s="6"/>
-      <x:c r="F33" s="6"/>
-      <x:c r="G33" s="6"/>
-      <x:c r="H33" s="6"/>
-      <x:c r="I33" s="6"/>
-      <x:c r="J33" s="7"/>
+      <x:c r="B33" s="8">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C33" s="9" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D33" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E33" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F33" s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G33" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H33" s="10"/>
+      <x:c r="I33" s="10"/>
+      <x:c r="J33" s="9"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A34" s="3"/>
-      <x:c r="B34" s="28" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C34" s="29"/>
-      <x:c r="D34" s="29"/>
-      <x:c r="E34" s="29"/>
-      <x:c r="F34" s="29"/>
-      <x:c r="G34" s="29"/>
-      <x:c r="H34" s="29"/>
-      <x:c r="I34" s="29"/>
-      <x:c r="J34" s="29"/>
+      <x:c r="B34" s="6"/>
+      <x:c r="C34" s="6"/>
+      <x:c r="D34" s="6"/>
+      <x:c r="E34" s="6"/>
+      <x:c r="F34" s="6"/>
+      <x:c r="G34" s="6"/>
+      <x:c r="H34" s="6"/>
+      <x:c r="I34" s="6"/>
+      <x:c r="J34" s="7"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="3"/>
-      <x:c r="B35" s="8" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C35" s="9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D35" s="9" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E35" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F35" s="9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G35" s="9" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H35" s="9" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I35" s="9" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J35" s="9"/>
+      <x:c r="B35" s="37" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C35" s="38"/>
+      <x:c r="D35" s="38"/>
+      <x:c r="E35" s="38"/>
+      <x:c r="F35" s="38"/>
+      <x:c r="G35" s="38"/>
+      <x:c r="H35" s="38"/>
+      <x:c r="I35" s="38"/>
+      <x:c r="J35" s="38"/>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="3"/>
-      <x:c r="B36" s="8">
-        <x:v>1</x:v>
+      <x:c r="B36" s="8" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C36" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D36" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E36" s="9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F36" s="9">
-        <x:v>6</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F36" s="9" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G36" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H36" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I36" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J36" s="15"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J36" s="9"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="2"/>
       <x:c r="B37" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C37" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C37" s="9" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E37" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F37" s="9">
-        <x:v>50</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G37" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H37" s="9"/>
-      <x:c r="I37" s="9"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H37" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I37" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="J37" s="15"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="3"/>
       <x:c r="B38" s="8">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C38" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D38" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E38" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F38" s="9">
-        <x:v>3000</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G38" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H38" s="9"/>
       <x:c r="I38" s="9"/>
-      <x:c r="J38" s="9"/>
+      <x:c r="J38" s="15"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A39" s="4"/>
-      <x:c r="B39" s="17">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C39" s="18" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D39" s="17" t="s">
-        <x:v>102</x:v>
+      <x:c r="B39" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C39" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D39" s="9" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E39" s="9" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F39" s="9"/>
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F39" s="9">
+        <x:v>3000</x:v>
+      </x:c>
       <x:c r="G39" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H39" s="19"/>
-      <x:c r="I39" s="19"/>
-      <x:c r="J39" s="9" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H39" s="9"/>
+      <x:c r="I39" s="9"/>
+      <x:c r="J39" s="9"/>
     </x:row>
     <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A40" s="4"/>
-      <x:c r="B40" s="15">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C40" s="20" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D40" s="15" t="s">
-        <x:v>65</x:v>
+      <x:c r="B40" s="17">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C40" s="18" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D40" s="17" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E40" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F40" s="9">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F40" s="9"/>
       <x:c r="G40" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H40" s="9"/>
-      <x:c r="I40" s="21" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J40" s="13"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H40" s="19"/>
+      <x:c r="I40" s="19"/>
+      <x:c r="J40" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A41" s="4"/>
-      <x:c r="B41" s="6"/>
-      <x:c r="C41" s="6"/>
-      <x:c r="D41" s="6"/>
-      <x:c r="E41" s="6"/>
-      <x:c r="F41" s="6"/>
-      <x:c r="G41" s="6"/>
-      <x:c r="H41" s="6"/>
-      <x:c r="I41" s="6"/>
-      <x:c r="J41" s="7"/>
+      <x:c r="B41" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C41" s="20" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D41" s="15" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E41" s="9" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F41" s="9">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G41" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H41" s="9"/>
+      <x:c r="I41" s="21" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J41" s="13"/>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A42" s="4"/>
-      <x:c r="B42" s="25" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C42" s="26"/>
-      <x:c r="D42" s="26"/>
-      <x:c r="E42" s="26"/>
-      <x:c r="F42" s="26"/>
-      <x:c r="G42" s="26"/>
-      <x:c r="H42" s="26"/>
-      <x:c r="I42" s="26"/>
-      <x:c r="J42" s="27"/>
+      <x:c r="B42" s="6"/>
+      <x:c r="C42" s="6"/>
+      <x:c r="D42" s="6"/>
+      <x:c r="E42" s="6"/>
+      <x:c r="F42" s="6"/>
+      <x:c r="G42" s="6"/>
+      <x:c r="H42" s="6"/>
+      <x:c r="I42" s="6"/>
+      <x:c r="J42" s="7"/>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A43" s="4"/>
-      <x:c r="B43" s="8" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C43" s="9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D43" s="9" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E43" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F43" s="9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G43" s="9" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H43" s="9" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I43" s="9" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J43" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="B43" s="34" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C43" s="35"/>
+      <x:c r="D43" s="35"/>
+      <x:c r="E43" s="35"/>
+      <x:c r="F43" s="35"/>
+      <x:c r="G43" s="35"/>
+      <x:c r="H43" s="35"/>
+      <x:c r="I43" s="35"/>
+      <x:c r="J43" s="36"/>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A44" s="4"/>
-      <x:c r="B44" s="8">
-        <x:v>1</x:v>
+      <x:c r="B44" s="8" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C44" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D44" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E44" s="9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F44" s="9">
-        <x:v>6</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F44" s="9" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G44" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H44" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I44" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J44" s="9"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J44" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="2"/>
       <x:c r="B45" s="8">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C45" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D45" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E45" s="9" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F45" s="10"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F45" s="9">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="G45" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H45" s="9"/>
-      <x:c r="I45" s="10"/>
-      <x:c r="J45" s="24" t="s">
-        <x:v>1</x:v>
-      </x:c>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H45" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I45" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J45" s="9"/>
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="2"/>
       <x:c r="B46" s="8">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C46" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D46" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E46" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F46" s="9">
-        <x:v>3000</x:v>
-      </x:c>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F46" s="10"/>
       <x:c r="G46" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H46" s="10"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H46" s="9"/>
       <x:c r="I46" s="10"/>
-      <x:c r="J46" s="9"/>
+      <x:c r="J46" s="24" t="s">
+        <x:v>123</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="3"/>
       <x:c r="B47" s="8">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C47" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D47" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E47" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F47" s="9">
-        <x:v>50</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="G47" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H47" s="9"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H47" s="10"/>
       <x:c r="I47" s="10"/>
       <x:c r="J47" s="9"/>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A48" s="3"/>
       <x:c r="B48" s="8">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C48" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D48" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E48" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F48" s="9">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G48" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H48" s="10"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H48" s="9"/>
       <x:c r="I48" s="10"/>
-      <x:c r="J48" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="J48" s="9"/>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A49" s="3"/>
-      <x:c r="B49" s="6"/>
-      <x:c r="C49" s="6"/>
-      <x:c r="D49" s="6"/>
-      <x:c r="E49" s="6"/>
-      <x:c r="F49" s="6"/>
-      <x:c r="G49" s="6"/>
-      <x:c r="H49" s="6"/>
-      <x:c r="I49" s="6"/>
-      <x:c r="J49" s="7"/>
+      <x:c r="B49" s="8">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C49" s="9" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D49" s="9" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E49" s="9" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F49" s="9">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G49" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H49" s="10"/>
+      <x:c r="I49" s="10"/>
+      <x:c r="J49" s="9" t="s">
+        <x:v>95</x:v>
+      </x:c>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A50" s="3"/>
-      <x:c r="B50" s="25" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C50" s="26"/>
-      <x:c r="D50" s="26"/>
-      <x:c r="E50" s="26"/>
-      <x:c r="F50" s="26"/>
-      <x:c r="G50" s="26"/>
-      <x:c r="H50" s="26"/>
-      <x:c r="I50" s="26"/>
-      <x:c r="J50" s="27"/>
+      <x:c r="B50" s="6"/>
+      <x:c r="C50" s="6"/>
+      <x:c r="D50" s="6"/>
+      <x:c r="E50" s="6"/>
+      <x:c r="F50" s="6"/>
+      <x:c r="G50" s="6"/>
+      <x:c r="H50" s="6"/>
+      <x:c r="I50" s="6"/>
+      <x:c r="J50" s="7"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="3"/>
-      <x:c r="B51" s="8" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C51" s="9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D51" s="9" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E51" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F51" s="9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G51" s="9" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H51" s="9" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I51" s="9" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J51" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="B51" s="34" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C51" s="35"/>
+      <x:c r="D51" s="35"/>
+      <x:c r="E51" s="35"/>
+      <x:c r="F51" s="35"/>
+      <x:c r="G51" s="35"/>
+      <x:c r="H51" s="35"/>
+      <x:c r="I51" s="35"/>
+      <x:c r="J51" s="36"/>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="3"/>
-      <x:c r="B52" s="8">
-        <x:v>1</x:v>
+      <x:c r="B52" s="8" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C52" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D52" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E52" s="9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F52" s="9">
-        <x:v>6</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F52" s="9" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G52" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H52" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J52" s="9"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J52" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="3"/>
       <x:c r="B53" s="8">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C53" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D53" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E53" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F53" s="9">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G53" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H53" s="9"/>
-      <x:c r="I53" s="10"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H53" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I53" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="J53" s="9"/>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="3"/>
       <x:c r="B54" s="8">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C54" s="9" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D54" s="9" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C54" s="9" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D54" s="9" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E54" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F54" s="9">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H54" s="10"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H54" s="9"/>
       <x:c r="I54" s="10"/>
-      <x:c r="J54" s="9"/>
+      <x:c r="J54" s="23" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A55" s="2"/>
       <x:c r="B55" s="8">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C55" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D55" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E55" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F55" s="9">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G55" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H55" s="9"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H55" s="10"/>
       <x:c r="I55" s="10"/>
       <x:c r="J55" s="9"/>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="2"/>
       <x:c r="B56" s="8">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C56" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D56" s="9" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E56" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F56" s="9">
-        <x:v>1000</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G56" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H56" s="10"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H56" s="9"/>
       <x:c r="I56" s="10"/>
       <x:c r="J56" s="9"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="2"/>
       <x:c r="B57" s="8">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C57" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D57" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E57" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F57" s="9">
-        <x:v>50</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G57" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H57" s="10"/>
       <x:c r="I57" s="10"/>
-      <x:c r="J57" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="J57" s="9"/>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="2"/>
       <x:c r="B58" s="8">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C58" s="9" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D58" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C58" s="9" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D58" s="9" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E58" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F58" s="9">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G58" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H58" s="9"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H58" s="10"/>
       <x:c r="I58" s="10"/>
-      <x:c r="J58" s="13" t="s">
-        <x:v>44</x:v>
+      <x:c r="J58" s="15" t="s">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A59" s="2"/>
       <x:c r="B59" s="8">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C59" s="9" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D59" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E59" s="9" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F59" s="9">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G59" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C59" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D59" s="9" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E59" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F59" s="9">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G59" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H59" s="10"/>
+      <x:c r="H59" s="9"/>
       <x:c r="I59" s="10"/>
       <x:c r="J59" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="6"/>
-      <x:c r="C60" s="6"/>
-      <x:c r="D60" s="6"/>
-      <x:c r="E60" s="6"/>
-      <x:c r="F60" s="6"/>
-      <x:c r="G60" s="6"/>
-      <x:c r="H60" s="6"/>
-      <x:c r="I60" s="6"/>
-      <x:c r="J60" s="7"/>
+      <x:c r="B60" s="8">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C60" s="9" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D60" s="9" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E60" s="9" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F60" s="9">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G60" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H60" s="10"/>
+      <x:c r="I60" s="10"/>
+      <x:c r="J60" s="13" t="s">
+        <x:v>121</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="28" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C61" s="29"/>
-      <x:c r="D61" s="29"/>
-      <x:c r="E61" s="29"/>
-      <x:c r="F61" s="29"/>
-      <x:c r="G61" s="29"/>
-      <x:c r="H61" s="29"/>
-      <x:c r="I61" s="29"/>
-      <x:c r="J61" s="29"/>
+      <x:c r="B61" s="6"/>
+      <x:c r="C61" s="6"/>
+      <x:c r="D61" s="6"/>
+      <x:c r="E61" s="6"/>
+      <x:c r="F61" s="6"/>
+      <x:c r="G61" s="6"/>
+      <x:c r="H61" s="6"/>
+      <x:c r="I61" s="6"/>
+      <x:c r="J61" s="7"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="8" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C62" s="9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D62" s="9" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E62" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F62" s="9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G62" s="9" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H62" s="9" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I62" s="9" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J62" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="B62" s="37" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C62" s="38"/>
+      <x:c r="D62" s="38"/>
+      <x:c r="E62" s="38"/>
+      <x:c r="F62" s="38"/>
+      <x:c r="G62" s="38"/>
+      <x:c r="H62" s="38"/>
+      <x:c r="I62" s="38"/>
+      <x:c r="J62" s="38"/>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="8">
-        <x:v>1</x:v>
+      <x:c r="B63" s="8" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C63" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E63" s="9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F63" s="9">
-        <x:v>6</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F63" s="9" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G63" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H63" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I63" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J63" s="15"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J63" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="2"/>
       <x:c r="B64" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C64" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C64" s="9" t="s">
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D64" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E64" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F64" s="9">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G64" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H64" s="9"/>
-      <x:c r="I64" s="9"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H64" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I64" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="J64" s="15"/>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A65" s="2"/>
       <x:c r="B65" s="8">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C65" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D65" s="9" t="s">
-        <x:v>62</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E65" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F65" s="9">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G65" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H65" s="9"/>
       <x:c r="I65" s="9"/>
-      <x:c r="J65" s="9"/>
+      <x:c r="J65" s="15"/>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A66" s="3"/>
-      <x:c r="B66" s="17">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C66" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D66" s="17" t="s">
-        <x:v>106</x:v>
+      <x:c r="B66" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C66" s="16" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D66" s="9" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E66" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F66" s="9">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="G66" s="9"/>
-      <x:c r="H66" s="19"/>
-      <x:c r="I66" s="22"/>
-      <x:c r="J66" s="13"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G66" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H66" s="9"/>
+      <x:c r="I66" s="9"/>
+      <x:c r="J66" s="9"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="3"/>
-      <x:c r="B67" s="15">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C67" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D67" s="15" t="s">
-        <x:v>50</x:v>
+      <x:c r="B67" s="17">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C67" s="18" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D67" s="17" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E67" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F67" s="9">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G67" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H67" s="21"/>
-      <x:c r="I67" s="14"/>
-      <x:c r="J67" s="13" t="s">
-        <x:v>129</x:v>
-      </x:c>
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G67" s="9"/>
+      <x:c r="H67" s="19"/>
+      <x:c r="I67" s="22"/>
+      <x:c r="J67" s="13"/>
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="3"/>
-      <x:c r="B68" s="17">
-        <x:v>6</x:v>
+      <x:c r="B68" s="15">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C68" s="20" t="s">
-        <x:v>37</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D68" s="15" t="s">
-        <x:v>63</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E68" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F68" s="9">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G68" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H68" s="9"/>
-      <x:c r="I68" s="21"/>
-      <x:c r="J68" s="23" t="s">
-        <x:v>126</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H68" s="21"/>
+      <x:c r="I68" s="14"/>
+      <x:c r="J68" s="13" t="s">
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="3"/>
-      <x:c r="B69" s="15">
-        <x:v>7</x:v>
+      <x:c r="B69" s="17">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="20" t="s">
-        <x:v>18</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D69" s="15" t="s">
-        <x:v>114</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E69" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F69" s="9">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G69" s="9"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G69" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="H69" s="9"/>
       <x:c r="I69" s="21"/>
-      <x:c r="J69" s="15" t="s">
-        <x:v>22</x:v>
+      <x:c r="J69" s="23" t="s">
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="3"/>
       <x:c r="B70" s="15">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C70" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C70" s="20" t="s">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D70" s="15" t="s">
-        <x:v>119</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E70" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F70" s="9">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G70" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G70" s="9"/>
       <x:c r="H70" s="9"/>
-      <x:c r="I70" s="21" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J70" s="15"/>
+      <x:c r="I70" s="21"/>
+      <x:c r="J70" s="15" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="3"/>
-      <x:c r="B71" s="2"/>
-      <x:c r="C71" s="2"/>
-      <x:c r="D71" s="2"/>
-      <x:c r="E71" s="2"/>
-      <x:c r="F71" s="2"/>
-      <x:c r="G71" s="2"/>
-      <x:c r="H71" s="2"/>
-      <x:c r="I71" s="2"/>
-      <x:c r="J71" s="3"/>
+      <x:c r="B71" s="15">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C71" s="15" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D71" s="15" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E71" s="9" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F71" s="9">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G71" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H71" s="9"/>
+      <x:c r="I71" s="21" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J71" s="15"/>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="2"/>
-      <x:c r="B72" s="30" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C72" s="30"/>
-      <x:c r="D72" s="30"/>
-      <x:c r="E72" s="30"/>
-      <x:c r="F72" s="30"/>
-      <x:c r="G72" s="30"/>
-      <x:c r="H72" s="30"/>
-      <x:c r="I72" s="30"/>
-      <x:c r="J72" s="30"/>
+      <x:c r="B72" s="2"/>
+      <x:c r="C72" s="2"/>
+      <x:c r="D72" s="2"/>
+      <x:c r="E72" s="2"/>
+      <x:c r="F72" s="2"/>
+      <x:c r="G72" s="2"/>
+      <x:c r="H72" s="2"/>
+      <x:c r="I72" s="2"/>
+      <x:c r="J72" s="3"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="3"/>
-      <x:c r="B73" s="14" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C73" s="14" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D73" s="14" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E73" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F73" s="14" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G73" s="14" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H73" s="14" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I73" s="14" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J73" s="14" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="B73" s="39" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C73" s="39"/>
+      <x:c r="D73" s="39"/>
+      <x:c r="E73" s="39"/>
+      <x:c r="F73" s="39"/>
+      <x:c r="G73" s="39"/>
+      <x:c r="H73" s="39"/>
+      <x:c r="I73" s="39"/>
+      <x:c r="J73" s="39"/>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="3"/>
-      <x:c r="B74" s="14">
-        <x:v>1</x:v>
+      <x:c r="B74" s="14" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C74" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D74" s="14" t="s">
-        <x:v>104</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E74" s="14" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F74" s="14">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F74" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G74" s="14" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H74" s="14" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I74" s="14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J74" s="14" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G74" s="14" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H74" s="14" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I74" s="14" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J74" s="14"/>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="3"/>
       <x:c r="B75" s="14">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C75" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D75" s="14" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E75" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F75" s="14">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G75" s="14" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H75" s="14"/>
-      <x:c r="I75" s="14"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H75" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I75" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="J75" s="14"/>
     </x:row>
     <x:row r="76" spans="1:10" ht="16.399999999999999">
       <x:c r="A76" s="3"/>
       <x:c r="B76" s="14">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C76" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D76" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E76" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F76" s="14">
-        <x:v>500</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G76" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H76" s="14"/>
       <x:c r="I76" s="14"/>
@@ -3676,232 +3699,232 @@
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="3"/>
       <x:c r="B77" s="14">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C77" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D77" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E77" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F77" s="14">
-        <x:v>15</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G77" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H77" s="14"/>
       <x:c r="I77" s="14"/>
-      <x:c r="J77" s="13" t="s">
-        <x:v>44</x:v>
-      </x:c>
+      <x:c r="J77" s="14"/>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="3"/>
       <x:c r="B78" s="14">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C78" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D78" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F78" s="14">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G78" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H78" s="14"/>
       <x:c r="I78" s="14"/>
-      <x:c r="J78" s="14"/>
+      <x:c r="J78" s="13" t="s">
+        <x:v>124</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="3"/>
       <x:c r="B79" s="14">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C79" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D79" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E79" s="9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F79" s="9">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E79" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F79" s="14">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G79" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H79" s="14"/>
-      <x:c r="I79" s="14" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="I79" s="14"/>
       <x:c r="J79" s="14"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="3"/>
-      <x:c r="B80" s="2"/>
-      <x:c r="C80" s="2"/>
-      <x:c r="D80" s="2"/>
-      <x:c r="E80" s="2"/>
-      <x:c r="F80" s="2"/>
-      <x:c r="G80" s="2"/>
-      <x:c r="H80" s="2"/>
-      <x:c r="I80" s="2"/>
-      <x:c r="J80" s="3"/>
+      <x:c r="B80" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C80" s="14" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D80" s="14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E80" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F80" s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G80" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H80" s="14"/>
+      <x:c r="I80" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J80" s="14"/>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="3"/>
-      <x:c r="B81" s="30" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C81" s="30"/>
-      <x:c r="D81" s="30"/>
-      <x:c r="E81" s="30"/>
-      <x:c r="F81" s="30"/>
-      <x:c r="G81" s="30"/>
-      <x:c r="H81" s="30"/>
-      <x:c r="I81" s="30"/>
-      <x:c r="J81" s="30"/>
+      <x:c r="B81" s="2"/>
+      <x:c r="C81" s="2"/>
+      <x:c r="D81" s="2"/>
+      <x:c r="E81" s="2"/>
+      <x:c r="F81" s="2"/>
+      <x:c r="G81" s="2"/>
+      <x:c r="H81" s="2"/>
+      <x:c r="I81" s="2"/>
+      <x:c r="J81" s="3"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="3"/>
-      <x:c r="B82" s="14" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C82" s="14" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D82" s="14" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E82" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F82" s="14" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G82" s="14" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H82" s="14" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I82" s="14" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J82" s="14" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="B82" s="39" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C82" s="39"/>
+      <x:c r="D82" s="39"/>
+      <x:c r="E82" s="39"/>
+      <x:c r="F82" s="39"/>
+      <x:c r="G82" s="39"/>
+      <x:c r="H82" s="39"/>
+      <x:c r="I82" s="39"/>
+      <x:c r="J82" s="39"/>
     </x:row>
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="3"/>
-      <x:c r="B83" s="14">
-        <x:v>1</x:v>
+      <x:c r="B83" s="14" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C83" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D83" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E83" s="14" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F83" s="14">
-        <x:v>10</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F83" s="14" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G83" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H83" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I83" s="14" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J83" s="14"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J83" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="2"/>
       <x:c r="B84" s="14">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C84" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D84" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E84" s="14" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F84" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F84" s="14">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G84" s="14" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H84" s="14"/>
-      <x:c r="I84" s="14"/>
-      <x:c r="J84" s="9" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H84" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I84" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J84" s="14"/>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A85" s="2"/>
       <x:c r="B85" s="14">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C85" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D85" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E85" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F85" s="14">
-        <x:v>1000</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F85" s="14" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G85" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H85" s="14"/>
       <x:c r="I85" s="14"/>
-      <x:c r="J85" s="14"/>
+      <x:c r="J85" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A86" s="5"/>
       <x:c r="B86" s="14">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C86" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D86" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E86" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F86" s="14">
-        <x:v>50</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G86" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H86" s="14"/>
       <x:c r="I86" s="14"/>
@@ -3910,22 +3933,22 @@
     <x:row r="87" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A87" s="2"/>
       <x:c r="B87" s="14">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C87" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D87" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E87" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F87" s="14">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G87" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H87" s="14"/>
       <x:c r="I87" s="14"/>
@@ -3934,42 +3957,54 @@
     <x:row r="88" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A88" s="2"/>
       <x:c r="B88" s="14">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C88" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D88" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E88" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F88" s="14">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="14" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H88" s="14" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I88" s="14" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H88" s="14"/>
+      <x:c r="I88" s="14"/>
       <x:c r="J88" s="14"/>
     </x:row>
     <x:row r="89" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A89" s="2"/>
-      <x:c r="B89" s="2"/>
-      <x:c r="C89" s="2"/>
-      <x:c r="D89" s="2"/>
-      <x:c r="E89" s="2"/>
-      <x:c r="F89" s="2"/>
-      <x:c r="G89" s="2"/>
-      <x:c r="H89" s="2"/>
-      <x:c r="I89" s="2"/>
-      <x:c r="J89" s="3"/>
+      <x:c r="B89" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C89" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D89" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E89" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F89" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G89" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H89" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I89" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J89" s="14"/>
     </x:row>
     <x:row r="90" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A90" s="2"/>
@@ -6826,12 +6861,12 @@
     <x:mergeCell ref="B2:J3"/>
     <x:mergeCell ref="B5:J5"/>
     <x:mergeCell ref="B18:J18"/>
-    <x:mergeCell ref="B50:J50"/>
-    <x:mergeCell ref="B61:J61"/>
-    <x:mergeCell ref="B72:J72"/>
-    <x:mergeCell ref="B81:J81"/>
-    <x:mergeCell ref="B34:J34"/>
-    <x:mergeCell ref="B42:J42"/>
+    <x:mergeCell ref="B51:J51"/>
+    <x:mergeCell ref="B62:J62"/>
+    <x:mergeCell ref="B73:J73"/>
+    <x:mergeCell ref="B82:J82"/>
+    <x:mergeCell ref="B35:J35"/>
+    <x:mergeCell ref="B43:J43"/>
   </x:mergeCells>
   <x:pageMargins left="0.69958335161209106" right="0.69958335161209106" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -14,427 +14,430 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="140">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="141">
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약펫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_pet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
   <x:si>
     <x:t>r_extraservice2</x:t>
   </x:si>
   <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_extraservice4</x:t>
   </x:si>
   <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약펫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력값 YYYY-MM-DD</x:t>
   </x:si>
   <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원 (Member_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice3</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 unuse, use</x:t>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_registrant</x:t>
   </x:si>
   <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 done, cancel, valid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_pet</x:t>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1943,8 +1946,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J33" activeCellId="0" sqref="J33:J33"/>
+    <x:sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K21" activeCellId="0" sqref="K21:K21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1973,7 +1976,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
       <x:c r="B2" s="28" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C2" s="29"/>
       <x:c r="D2" s="29"/>
@@ -2011,7 +2014,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="3"/>
       <x:c r="B5" s="34" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="35"/>
@@ -2025,31 +2028,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="3"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G6" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H6" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I6" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J6" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -2058,28 +2061,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D7" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F7" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H7" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2088,24 +2091,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D8" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F8" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H8" s="9"/>
       <x:c r="I8" s="10"/>
       <x:c r="J8" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2114,19 +2117,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D9" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F9" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10"/>
@@ -2138,22 +2141,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D10" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="9"/>
       <x:c r="I10" s="10"/>
       <x:c r="J10" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2162,19 +2165,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F11" s="9">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10"/>
@@ -2186,24 +2189,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D12" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F12" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H12" s="10"/>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2212,19 +2215,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D13" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F13" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="9"/>
       <x:c r="I13" s="10"/>
@@ -2236,24 +2239,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D14" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E14" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F14" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H14" s="10"/>
       <x:c r="I14" s="12"/>
       <x:c r="J14" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2262,24 +2265,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D15" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F15" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H15" s="10"/>
       <x:c r="I15" s="12"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2288,24 +2291,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D16" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E16" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F16" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H16" s="10"/>
       <x:c r="I16" s="12"/>
       <x:c r="J16" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2323,7 +2326,7 @@
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="34" t="s">
-        <x:v>138</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="35"/>
       <x:c r="D18" s="35"/>
@@ -2337,28 +2340,28 @@
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D19" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G19" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H19" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I19" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J19" s="9"/>
     </x:row>
@@ -2371,22 +2374,22 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D20" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E20" s="9" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="E20" s="9" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="F20" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H20" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J20" s="11"/>
     </x:row>
@@ -2396,24 +2399,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D21" s="9" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E21" s="9" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D21" s="9" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E21" s="9" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F21" s="10">
+      <x:c r="F21" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H21" s="9"/>
       <x:c r="I21" s="12"/>
       <x:c r="J21" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2422,19 +2425,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E22" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F22" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="10"/>
       <x:c r="I22" s="12"/>
@@ -2446,24 +2449,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D23" s="9" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E23" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F23" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H23" s="9"/>
       <x:c r="I23" s="10"/>
       <x:c r="J23" s="13" t="s">
-        <x:v>133</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -2472,22 +2475,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D24" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E24" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F24" s="9"/>
       <x:c r="G24" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="10"/>
       <x:c r="I24" s="10"/>
       <x:c r="J24" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2496,22 +2499,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D25" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E25" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F25" s="9"/>
       <x:c r="G25" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H25" s="10"/>
       <x:c r="I25" s="10"/>
       <x:c r="J25" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2520,22 +2523,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="11"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H26" s="11"/>
       <x:c r="I26" s="26"/>
       <x:c r="J26" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2544,13 +2547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D27" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E27" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F27" s="14">
         <x:v>5</x:v>
@@ -2559,7 +2562,7 @@
       <x:c r="H27" s="14"/>
       <x:c r="I27" s="27"/>
       <x:c r="J27" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2568,13 +2571,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D28" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E28" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F28" s="14">
         <x:v>5</x:v>
@@ -2583,7 +2586,7 @@
       <x:c r="H28" s="14"/>
       <x:c r="I28" s="27"/>
       <x:c r="J28" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2592,13 +2595,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D29" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E29" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F29" s="14">
         <x:v>5</x:v>
@@ -2607,7 +2610,7 @@
       <x:c r="H29" s="14"/>
       <x:c r="I29" s="27"/>
       <x:c r="J29" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2616,13 +2619,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C30" s="14" t="s">
-        <x:v>1</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D30" s="14" t="s">
-        <x:v>83</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E30" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F30" s="14">
         <x:v>5</x:v>
@@ -2631,7 +2634,7 @@
       <x:c r="H30" s="14"/>
       <x:c r="I30" s="27"/>
       <x:c r="J30" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2640,23 +2643,23 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="14" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D31" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E31" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F31" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G31" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H31" s="14"/>
       <x:c r="I31" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J31" s="14"/>
     </x:row>
@@ -2666,23 +2669,23 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C32" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D32" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E32" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F32" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H32" s="10"/>
       <x:c r="I32" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J32" s="9"/>
     </x:row>
@@ -2692,19 +2695,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C33" s="9" t="s">
-        <x:v>139</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D33" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E33" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F33" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G33" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H33" s="10"/>
       <x:c r="I33" s="10"/>
@@ -2725,7 +2728,7 @@
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="3"/>
       <x:c r="B35" s="37" t="s">
-        <x:v>136</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C35" s="38"/>
       <x:c r="D35" s="38"/>
@@ -2739,28 +2742,28 @@
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="3"/>
       <x:c r="B36" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C36" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D36" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E36" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F36" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G36" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H36" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I36" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J36" s="9"/>
     </x:row>
@@ -2770,25 +2773,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C37" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D37" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F37" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G37" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H37" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I37" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J37" s="15"/>
     </x:row>
@@ -2798,19 +2801,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C38" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D38" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E38" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F38" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G38" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H38" s="9"/>
       <x:c r="I38" s="9"/>
@@ -2822,19 +2825,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C39" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D39" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E39" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F39" s="9">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G39" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H39" s="9"/>
       <x:c r="I39" s="9"/>
@@ -2846,22 +2849,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D40" s="17" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E40" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F40" s="9"/>
       <x:c r="G40" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H40" s="19"/>
       <x:c r="I40" s="19"/>
       <x:c r="J40" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
@@ -2870,23 +2873,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C41" s="20" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D41" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E41" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F41" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G41" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H41" s="9"/>
       <x:c r="I41" s="21" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J41" s="13"/>
     </x:row>
@@ -2905,7 +2908,7 @@
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A43" s="4"/>
       <x:c r="B43" s="34" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C43" s="35"/>
       <x:c r="D43" s="35"/>
@@ -2919,31 +2922,31 @@
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A44" s="4"/>
       <x:c r="B44" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C44" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D44" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E44" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F44" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G44" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H44" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I44" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J44" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
@@ -2952,25 +2955,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C45" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D45" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E45" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F45" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G45" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H45" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I45" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J45" s="9"/>
     </x:row>
@@ -2980,22 +2983,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C46" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D46" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E46" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F46" s="10"/>
       <x:c r="G46" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H46" s="9"/>
       <x:c r="I46" s="10"/>
       <x:c r="J46" s="24" t="s">
-        <x:v>123</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -3004,19 +3007,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C47" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D47" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E47" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F47" s="9">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G47" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H47" s="10"/>
       <x:c r="I47" s="10"/>
@@ -3028,19 +3031,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C48" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D48" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E48" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F48" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G48" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H48" s="9"/>
       <x:c r="I48" s="10"/>
@@ -3052,24 +3055,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C49" s="9" t="s">
-        <x:v>131</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D49" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E49" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F49" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G49" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="10"/>
       <x:c r="I49" s="10"/>
       <x:c r="J49" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
@@ -3087,7 +3090,7 @@
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="3"/>
       <x:c r="B51" s="34" t="s">
-        <x:v>132</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C51" s="35"/>
       <x:c r="D51" s="35"/>
@@ -3101,31 +3104,31 @@
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="3"/>
       <x:c r="B52" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C52" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D52" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E52" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F52" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G52" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H52" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J52" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
@@ -3134,25 +3137,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C53" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D53" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E53" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F53" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G53" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H53" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I53" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J53" s="9"/>
     </x:row>
@@ -3162,24 +3165,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C54" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D54" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E54" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F54" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H54" s="9"/>
       <x:c r="I54" s="10"/>
       <x:c r="J54" s="23" t="s">
-        <x:v>137</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3188,19 +3191,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C55" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D55" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E55" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F55" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G55" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H55" s="10"/>
       <x:c r="I55" s="10"/>
@@ -3212,19 +3215,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C56" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D56" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E56" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F56" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G56" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H56" s="9"/>
       <x:c r="I56" s="10"/>
@@ -3236,19 +3239,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C57" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D57" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E57" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F57" s="9">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G57" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H57" s="10"/>
       <x:c r="I57" s="10"/>
@@ -3260,24 +3263,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C58" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D58" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E58" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F58" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G58" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H58" s="10"/>
       <x:c r="I58" s="10"/>
       <x:c r="J58" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
@@ -3286,24 +3289,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C59" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D59" s="9" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E59" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F59" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G59" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H59" s="9"/>
       <x:c r="I59" s="10"/>
       <x:c r="J59" s="13" t="s">
-        <x:v>124</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
@@ -3312,24 +3315,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C60" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D60" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E60" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F60" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G60" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H60" s="10"/>
       <x:c r="I60" s="10"/>
       <x:c r="J60" s="13" t="s">
-        <x:v>121</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
@@ -3347,7 +3350,7 @@
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A62" s="2"/>
       <x:c r="B62" s="37" t="s">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C62" s="38"/>
       <x:c r="D62" s="38"/>
@@ -3361,31 +3364,31 @@
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="2"/>
       <x:c r="B63" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C63" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E63" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F63" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G63" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H63" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I63" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J63" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
@@ -3394,25 +3397,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C64" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D64" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E64" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F64" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G64" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H64" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I64" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J64" s="15"/>
     </x:row>
@@ -3422,19 +3425,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C65" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D65" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E65" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F65" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G65" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H65" s="9"/>
       <x:c r="I65" s="9"/>
@@ -3446,19 +3449,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C66" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D66" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E66" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F66" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G66" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H66" s="9"/>
       <x:c r="I66" s="9"/>
@@ -3470,13 +3473,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D67" s="17" t="s">
-        <x:v>75</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E67" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F67" s="9">
         <x:v>200</x:v>
@@ -3492,24 +3495,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C68" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D68" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E68" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F68" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G68" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H68" s="21"/>
       <x:c r="I68" s="14"/>
       <x:c r="J68" s="13" t="s">
-        <x:v>135</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
@@ -3518,24 +3521,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="20" t="s">
-        <x:v>114</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D69" s="15" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E69" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F69" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G69" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H69" s="9"/>
       <x:c r="I69" s="21"/>
       <x:c r="J69" s="23" t="s">
-        <x:v>137</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -3544,13 +3547,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C70" s="20" t="s">
-        <x:v>100</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D70" s="15" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E70" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F70" s="9">
         <x:v>50</x:v>
@@ -3559,7 +3562,7 @@
       <x:c r="H70" s="9"/>
       <x:c r="I70" s="21"/>
       <x:c r="J70" s="15" t="s">
-        <x:v>97</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
@@ -3568,23 +3571,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C71" s="15" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D71" s="15" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E71" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F71" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G71" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H71" s="9"/>
       <x:c r="I71" s="21" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J71" s="15"/>
     </x:row>
@@ -3603,7 +3606,7 @@
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="3"/>
       <x:c r="B73" s="39" t="s">
-        <x:v>134</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C73" s="39"/>
       <x:c r="D73" s="39"/>
@@ -3617,31 +3620,31 @@
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="3"/>
       <x:c r="B74" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C74" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D74" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E74" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F74" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G74" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H74" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I74" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J74" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
@@ -3650,25 +3653,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C75" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D75" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E75" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F75" s="14">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G75" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H75" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I75" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J75" s="14"/>
     </x:row>
@@ -3678,19 +3681,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C76" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D76" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E76" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F76" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G76" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="14"/>
       <x:c r="I76" s="14"/>
@@ -3702,19 +3705,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C77" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D77" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E77" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F77" s="14">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G77" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="14"/>
       <x:c r="I77" s="14"/>
@@ -3726,24 +3729,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C78" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D78" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E78" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F78" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G78" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H78" s="14"/>
       <x:c r="I78" s="14"/>
       <x:c r="J78" s="13" t="s">
-        <x:v>124</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
@@ -3752,19 +3755,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C79" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D79" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E79" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F79" s="14">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G79" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H79" s="14"/>
       <x:c r="I79" s="14"/>
@@ -3776,23 +3779,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C80" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D80" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E80" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F80" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G80" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H80" s="14"/>
       <x:c r="I80" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J80" s="14"/>
     </x:row>
@@ -3811,7 +3814,7 @@
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="3"/>
       <x:c r="B82" s="39" t="s">
-        <x:v>128</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C82" s="39"/>
       <x:c r="D82" s="39"/>
@@ -3825,31 +3828,31 @@
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="3"/>
       <x:c r="B83" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C83" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D83" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E83" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F83" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G83" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H83" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="I83" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J83" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
@@ -3858,25 +3861,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C84" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D84" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E84" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F84" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G84" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H84" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I84" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J84" s="14"/>
     </x:row>
@@ -3886,24 +3889,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C85" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D85" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E85" s="14" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F85" s="14" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G85" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H85" s="14"/>
       <x:c r="I85" s="14"/>
       <x:c r="J85" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:10" ht="15.75" customHeight="1">
@@ -3912,19 +3915,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C86" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D86" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E86" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F86" s="14">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G86" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H86" s="14"/>
       <x:c r="I86" s="14"/>
@@ -3936,19 +3939,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C87" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D87" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E87" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F87" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G87" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H87" s="14"/>
       <x:c r="I87" s="14"/>
@@ -3960,19 +3963,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C88" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D88" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E88" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F88" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H88" s="14"/>
       <x:c r="I88" s="14"/>
@@ -3984,25 +3987,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C89" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D89" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E89" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F89" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G89" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H89" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I89" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J89" s="14"/>
     </x:row>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -14,439 +14,430 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="144">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
+  <x:si>
+    <x:t>m_regdate</x:t>
+  </x:si>
   <x:si>
     <x:t>r_extraservice2</x:t>
   </x:si>
   <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice1</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
+    <x:t>8자리 이상 15자리 이내</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
     <x:t>입력값 unuse, use</x:t>
   </x:si>
   <x:si>
+    <x:t>r_extraservice4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_extraservice3</x:t>
   </x:si>
   <x:si>
+    <x:t>r_extraservice1</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 (Member_tbl)</x:t>
   </x:si>
   <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약펫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 member, secession</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
     <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 member, secession</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
   </x:si>
   <x:si>
     <x:t>예약상태</x:t>
   </x:si>
   <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
     <x:t>서비스 번호</x:t>
   </x:si>
   <x:si>
     <x:t>s_price</x:t>
   </x:si>
   <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
   </x:si>
   <x:si>
     <x:t>신청날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
     <x:t>r_pet</x:t>
   </x:si>
   <x:si>
-    <x:t>부가서비스3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
   </x:si>
   <x:si>
     <x:t>특이사항</x:t>
   </x:si>
   <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
     <x:t>NUMBER</x:t>
   </x:si>
   <x:si>
-    <x:t>사용현황</x:t>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
   </x:si>
   <x:si>
     <x:t>m_phone</x:t>
   </x:si>
   <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
   </x:si>
   <x:si>
     <x:t>m_status</x:t>
   </x:si>
   <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_payprice</x:t>
   </x:si>
   <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
+    <x:t>r_startdate</x:t>
   </x:si>
   <x:si>
     <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약펫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자리 이상 15자리 이내</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1358,7 +1349,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1379,7 +1369,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1400,7 +1389,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1431,7 +1419,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1462,7 +1449,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1540,7 +1526,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1575,7 +1560,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1610,7 +1594,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1655,7 +1638,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1699,7 +1681,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1988,10 +1969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:J267"/>
+  <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H27" activeCellId="0" sqref="H27:H27"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K20" activeCellId="0" sqref="K20:K20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2020,7 +2001,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="6"/>
       <x:c r="B2" s="39" t="s">
-        <x:v>100</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C2" s="40"/>
       <x:c r="D2" s="40"/>
@@ -2058,7 +2039,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="8"/>
       <x:c r="B5" s="36" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="37"/>
       <x:c r="D5" s="37"/>
@@ -2072,31 +2053,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="8"/>
       <x:c r="B6" s="13" t="s">
-        <x:v>132</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E6" s="14" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E6" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G6" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J6" s="14" t="s">
-        <x:v>119</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -2105,28 +2086,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F7" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J7" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2135,24 +2116,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D8" s="14" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F8" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H8" s="14"/>
       <x:c r="I8" s="15"/>
       <x:c r="J8" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2161,19 +2142,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D9" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F9" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H9" s="15"/>
       <x:c r="I9" s="15"/>
@@ -2185,22 +2166,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>96</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D10" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E10" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F10" s="14"/>
       <x:c r="G10" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H10" s="14"/>
       <x:c r="I10" s="15"/>
       <x:c r="J10" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2209,19 +2190,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="14" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E11" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F11" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H11" s="15"/>
       <x:c r="I11" s="15"/>
@@ -2233,24 +2214,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D12" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F12" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H12" s="15"/>
       <x:c r="I12" s="15"/>
       <x:c r="J12" s="14" t="s">
-        <x:v>141</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2259,19 +2240,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D13" s="14" t="s">
-        <x:v>135</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E13" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F13" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="14"/>
       <x:c r="I13" s="15"/>
@@ -2283,24 +2264,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F14" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H14" s="15"/>
       <x:c r="I14" s="17"/>
       <x:c r="J14" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2309,24 +2290,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D15" s="14" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="E15" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F15" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H15" s="15"/>
       <x:c r="I15" s="17"/>
       <x:c r="J15" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2335,24 +2316,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E16" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F16" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H16" s="15"/>
       <x:c r="I16" s="17"/>
       <x:c r="J16" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2361,293 +2342,291 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>128</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E17" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F17" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G17" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H17" s="15"/>
       <x:c r="I17" s="17"/>
       <x:c r="J17" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="7"/>
-      <x:c r="B18" s="11"/>
-      <x:c r="C18" s="11"/>
-      <x:c r="D18" s="11"/>
-      <x:c r="E18" s="11"/>
-      <x:c r="F18" s="11"/>
-      <x:c r="G18" s="11"/>
-      <x:c r="H18" s="11"/>
-      <x:c r="I18" s="11"/>
-      <x:c r="J18" s="12"/>
+      <x:c r="B18" s="19">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C18" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D18" s="19" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E18" s="19" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F18" s="19"/>
+      <x:c r="G18" s="19"/>
+      <x:c r="H18" s="19"/>
+      <x:c r="I18" s="19"/>
+      <x:c r="J18" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="7"/>
-      <x:c r="B19" s="36" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C19" s="37"/>
-      <x:c r="D19" s="37"/>
-      <x:c r="E19" s="37"/>
-      <x:c r="F19" s="37"/>
-      <x:c r="G19" s="37"/>
-      <x:c r="H19" s="37"/>
-      <x:c r="I19" s="37"/>
-      <x:c r="J19" s="38"/>
+      <x:c r="B19" s="11"/>
+      <x:c r="C19" s="11"/>
+      <x:c r="D19" s="11"/>
+      <x:c r="E19" s="11"/>
+      <x:c r="F19" s="11"/>
+      <x:c r="G19" s="11"/>
+      <x:c r="H19" s="11"/>
+      <x:c r="I19" s="11"/>
+      <x:c r="J19" s="12"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A20" s="7"/>
-      <x:c r="B20" s="13" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C20" s="14" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D20" s="14" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E20" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F20" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G20" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H20" s="14" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I20" s="14" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="J20" s="14"/>
+      <x:c r="B20" s="36" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C20" s="37"/>
+      <x:c r="D20" s="37"/>
+      <x:c r="E20" s="37"/>
+      <x:c r="F20" s="37"/>
+      <x:c r="G20" s="37"/>
+      <x:c r="H20" s="37"/>
+      <x:c r="I20" s="37"/>
+      <x:c r="J20" s="38"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A21" s="7"/>
-      <x:c r="B21" s="13">
-        <x:v>1</x:v>
+      <x:c r="B21" s="13" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C21" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E21" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F21" s="14">
-        <x:v>6</x:v>
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F21" s="14" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H21" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I21" s="14" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J21" s="16"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J21" s="14"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A22" s="7"/>
       <x:c r="B22" s="13">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F22" s="14">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G22" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H22" s="14"/>
-      <x:c r="I22" s="17"/>
-      <x:c r="J22" s="18" t="s">
-        <x:v>45</x:v>
-      </x:c>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H22" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I22" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J22" s="16"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A23" s="7"/>
       <x:c r="B23" s="13">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C23" s="14" t="s">
-        <x:v>41</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D23" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E23" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F23" s="14">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H23" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H23" s="14"/>
       <x:c r="I23" s="17"/>
-      <x:c r="J23" s="19"/>
+      <x:c r="J23" s="18" t="s">
+        <x:v>116</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A24" s="7"/>
       <x:c r="B24" s="13">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D24" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E24" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F24" s="14">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G24" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H24" s="14"/>
-      <x:c r="I24" s="15"/>
-      <x:c r="J24" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H24" s="15"/>
+      <x:c r="I24" s="17"/>
+      <x:c r="J24" s="19"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A25" s="7"/>
       <x:c r="B25" s="13">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C25" s="14" t="s">
-        <x:v>1</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D25" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E25" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F25" s="14"/>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F25" s="14">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="G25" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H25" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H25" s="14"/>
       <x:c r="I25" s="15"/>
-      <x:c r="J25" s="14" t="s">
-        <x:v>2</x:v>
+      <x:c r="J25" s="18" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A26" s="7"/>
       <x:c r="B26" s="13">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C26" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D26" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E26" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F26" s="14"/>
       <x:c r="G26" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H26" s="15"/>
       <x:c r="I26" s="15"/>
       <x:c r="J26" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A27" s="7"/>
-      <x:c r="B27" s="30">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C27" s="16" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D27" s="16" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E27" s="16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F27" s="16"/>
-      <x:c r="G27" s="16" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H27" s="16"/>
-      <x:c r="I27" s="31"/>
-      <x:c r="J27" s="16" t="s">
-        <x:v>2</x:v>
+      <x:c r="B27" s="13">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C27" s="14" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D27" s="14" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E27" s="14" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F27" s="14"/>
+      <x:c r="G27" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H27" s="15"/>
+      <x:c r="I27" s="15"/>
+      <x:c r="J27" s="14" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A28" s="7"/>
-      <x:c r="B28" s="19">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C28" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D28" s="19" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E28" s="19" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F28" s="19">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G28" s="19"/>
-      <x:c r="H28" s="19"/>
-      <x:c r="I28" s="32"/>
-      <x:c r="J28" s="19" t="s">
-        <x:v>61</x:v>
+      <x:c r="B28" s="30">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C28" s="16" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D28" s="16" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E28" s="16" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F28" s="16"/>
+      <x:c r="G28" s="16" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H28" s="16"/>
+      <x:c r="I28" s="31"/>
+      <x:c r="J28" s="16" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="7"/>
       <x:c r="B29" s="19">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="19" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E29" s="19" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="E29" s="19" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="F29" s="19">
         <x:v>5</x:v>
@@ -2656,22 +2635,22 @@
       <x:c r="H29" s="19"/>
       <x:c r="I29" s="32"/>
       <x:c r="J29" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="7"/>
       <x:c r="B30" s="19">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="19" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F30" s="19">
         <x:v>5</x:v>
@@ -2680,22 +2659,22 @@
       <x:c r="H30" s="19"/>
       <x:c r="I30" s="32"/>
       <x:c r="J30" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="7"/>
       <x:c r="B31" s="19">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="19" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F31" s="19">
         <x:v>5</x:v>
@@ -2704,705 +2683,703 @@
       <x:c r="H31" s="19"/>
       <x:c r="I31" s="32"/>
       <x:c r="J31" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A32" s="7"/>
       <x:c r="B32" s="19">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F32" s="19">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G32" s="19" t="s">
-        <x:v>114</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G32" s="19"/>
       <x:c r="H32" s="19"/>
-      <x:c r="I32" s="32" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J32" s="19"/>
+      <x:c r="I32" s="32"/>
+      <x:c r="J32" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A33" s="7"/>
-      <x:c r="B33" s="13">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C33" s="14" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D33" s="14" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E33" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F33" s="14">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G33" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H33" s="15"/>
-      <x:c r="I33" s="15" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J33" s="14"/>
+      <x:c r="B33" s="19">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C33" s="19" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E33" s="19" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F33" s="19">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G33" s="19" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H33" s="19"/>
+      <x:c r="I33" s="32" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J33" s="19"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A34" s="7"/>
       <x:c r="B34" s="13">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C34" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D34" s="14" t="s">
-        <x:v>124</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E34" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F34" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G34" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H34" s="15"/>
-      <x:c r="I34" s="15"/>
+      <x:c r="I34" s="15" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="J34" s="14"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A35" s="8"/>
-      <x:c r="B35" s="11"/>
-      <x:c r="C35" s="11"/>
-      <x:c r="D35" s="11"/>
-      <x:c r="E35" s="11"/>
-      <x:c r="F35" s="11"/>
-      <x:c r="G35" s="11"/>
-      <x:c r="H35" s="11"/>
-      <x:c r="I35" s="11"/>
-      <x:c r="J35" s="12"/>
+      <x:c r="A35" s="7"/>
+      <x:c r="B35" s="13">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C35" s="14" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D35" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E35" s="14" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F35" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G35" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H35" s="15"/>
+      <x:c r="I35" s="15"/>
+      <x:c r="J35" s="14"/>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="8"/>
-      <x:c r="B36" s="34" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C36" s="35"/>
-      <x:c r="D36" s="35"/>
-      <x:c r="E36" s="35"/>
-      <x:c r="F36" s="35"/>
-      <x:c r="G36" s="35"/>
-      <x:c r="H36" s="35"/>
-      <x:c r="I36" s="35"/>
-      <x:c r="J36" s="35"/>
+      <x:c r="B36" s="11"/>
+      <x:c r="C36" s="11"/>
+      <x:c r="D36" s="11"/>
+      <x:c r="E36" s="11"/>
+      <x:c r="F36" s="11"/>
+      <x:c r="G36" s="11"/>
+      <x:c r="H36" s="11"/>
+      <x:c r="I36" s="11"/>
+      <x:c r="J36" s="12"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="8"/>
-      <x:c r="B37" s="13" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C37" s="14" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D37" s="14" t="s">
+      <x:c r="B37" s="34" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C37" s="35"/>
+      <x:c r="D37" s="35"/>
+      <x:c r="E37" s="35"/>
+      <x:c r="F37" s="35"/>
+      <x:c r="G37" s="35"/>
+      <x:c r="H37" s="35"/>
+      <x:c r="I37" s="35"/>
+      <x:c r="J37" s="35"/>
+    </x:row>
+    <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A38" s="8"/>
+      <x:c r="B38" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C38" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D38" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E38" s="14" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E37" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F37" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G37" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H37" s="14" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I37" s="14" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="J37" s="14"/>
-    </x:row>
-    <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A38" s="7"/>
-      <x:c r="B38" s="13">
+      <x:c r="F38" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G38" s="14" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H38" s="14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I38" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J38" s="14"/>
+    </x:row>
+    <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A39" s="7"/>
+      <x:c r="B39" s="13">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C38" s="14" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D38" s="14" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E38" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F38" s="14">
+      <x:c r="C39" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D39" s="14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E39" s="14" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F39" s="14">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G38" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H38" s="14" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="I38" s="14" t="s">
+      <x:c r="G39" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H39" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I39" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J39" s="20"/>
+    </x:row>
+    <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A40" s="8"/>
+      <x:c r="B40" s="13">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C40" s="21" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="J38" s="20"/>
-    </x:row>
-    <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A39" s="8"/>
-      <x:c r="B39" s="13">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C39" s="21" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D39" s="14" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E39" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F39" s="14">
+      <x:c r="D40" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E40" s="14" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F40" s="14">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G39" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H39" s="14"/>
-      <x:c r="I39" s="14"/>
-      <x:c r="J39" s="20"/>
-    </x:row>
-    <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A40" s="9"/>
-      <x:c r="B40" s="13">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C40" s="21" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D40" s="14" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E40" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F40" s="14">
-        <x:v>3000</x:v>
-      </x:c>
       <x:c r="G40" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H40" s="14"/>
       <x:c r="I40" s="14"/>
-      <x:c r="J40" s="14"/>
+      <x:c r="J40" s="20"/>
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A41" s="9"/>
-      <x:c r="B41" s="22">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C41" s="23" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D41" s="22" t="s">
-        <x:v>21</x:v>
+      <x:c r="B41" s="13">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C41" s="21" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D41" s="14" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E41" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F41" s="14"/>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F41" s="14">
+        <x:v>3000</x:v>
+      </x:c>
       <x:c r="G41" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H41" s="24"/>
-      <x:c r="I41" s="24"/>
-      <x:c r="J41" s="14" t="s">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H41" s="14"/>
+      <x:c r="I41" s="14"/>
+      <x:c r="J41" s="14"/>
     </x:row>
     <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A42" s="9"/>
-      <x:c r="B42" s="20">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C42" s="25" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D42" s="20" t="s">
-        <x:v>127</x:v>
+      <x:c r="B42" s="22">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C42" s="23" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D42" s="22" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E42" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F42" s="14">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F42" s="14"/>
       <x:c r="G42" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H42" s="14"/>
-      <x:c r="I42" s="26" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J42" s="18"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H42" s="24"/>
+      <x:c r="I42" s="24"/>
+      <x:c r="J42" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A43" s="9"/>
-      <x:c r="B43" s="11"/>
-      <x:c r="C43" s="11"/>
-      <x:c r="D43" s="11"/>
-      <x:c r="E43" s="11"/>
-      <x:c r="F43" s="11"/>
-      <x:c r="G43" s="11"/>
-      <x:c r="H43" s="11"/>
-      <x:c r="I43" s="11"/>
-      <x:c r="J43" s="12"/>
+      <x:c r="B43" s="20">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C43" s="25" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D43" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E43" s="14" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F43" s="14">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G43" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H43" s="14"/>
+      <x:c r="I43" s="26" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J43" s="18"/>
     </x:row>
     <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A44" s="9"/>
-      <x:c r="B44" s="36" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C44" s="37"/>
-      <x:c r="D44" s="37"/>
-      <x:c r="E44" s="37"/>
-      <x:c r="F44" s="37"/>
-      <x:c r="G44" s="37"/>
-      <x:c r="H44" s="37"/>
-      <x:c r="I44" s="37"/>
-      <x:c r="J44" s="38"/>
+      <x:c r="B44" s="11"/>
+      <x:c r="C44" s="11"/>
+      <x:c r="D44" s="11"/>
+      <x:c r="E44" s="11"/>
+      <x:c r="F44" s="11"/>
+      <x:c r="G44" s="11"/>
+      <x:c r="H44" s="11"/>
+      <x:c r="I44" s="11"/>
+      <x:c r="J44" s="12"/>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="9"/>
-      <x:c r="B45" s="13" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C45" s="14" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D45" s="14" t="s">
+      <x:c r="B45" s="36" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C45" s="37"/>
+      <x:c r="D45" s="37"/>
+      <x:c r="E45" s="37"/>
+      <x:c r="F45" s="37"/>
+      <x:c r="G45" s="37"/>
+      <x:c r="H45" s="37"/>
+      <x:c r="I45" s="37"/>
+      <x:c r="J45" s="38"/>
+    </x:row>
+    <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A46" s="9"/>
+      <x:c r="B46" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D46" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E46" s="14" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E45" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F45" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G45" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H45" s="14" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I45" s="14" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="J45" s="14" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A46" s="7"/>
-      <x:c r="B46" s="13">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C46" s="14" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D46" s="14" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E46" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F46" s="14">
-        <x:v>6</x:v>
+      <x:c r="F46" s="14" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G46" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H46" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I46" s="14" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J46" s="14"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J46" s="14" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="7"/>
       <x:c r="B47" s="13">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C47" s="14" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D47" s="14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E47" s="14" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F47" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G47" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H47" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I47" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J47" s="14"/>
+    </x:row>
+    <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A48" s="7"/>
+      <x:c r="B48" s="13">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C47" s="14" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D47" s="14" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E47" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F47" s="15"/>
-      <x:c r="G47" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H47" s="14"/>
-      <x:c r="I47" s="15"/>
-      <x:c r="J47" s="29" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A48" s="8"/>
-      <x:c r="B48" s="13">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="C48" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D48" s="14" t="s">
-        <x:v>83</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E48" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F48" s="14">
-        <x:v>3000</x:v>
-      </x:c>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F48" s="15"/>
       <x:c r="G48" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H48" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H48" s="14"/>
       <x:c r="I48" s="15"/>
-      <x:c r="J48" s="14"/>
+      <x:c r="J48" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A49" s="8"/>
       <x:c r="B49" s="13">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C49" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D49" s="14" t="s">
-        <x:v>120</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E49" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F49" s="14">
-        <x:v>50</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="G49" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H49" s="14"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H49" s="15"/>
       <x:c r="I49" s="15"/>
       <x:c r="J49" s="14"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A50" s="8"/>
       <x:c r="B50" s="13">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C50" s="14" t="s">
-        <x:v>138</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D50" s="14" t="s">
-        <x:v>136</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E50" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F50" s="14">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G50" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H50" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H50" s="14"/>
       <x:c r="I50" s="15"/>
-      <x:c r="J50" s="14" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="J50" s="14"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="8"/>
-      <x:c r="B51" s="11"/>
-      <x:c r="C51" s="11"/>
-      <x:c r="D51" s="11"/>
-      <x:c r="E51" s="11"/>
-      <x:c r="F51" s="11"/>
-      <x:c r="G51" s="11"/>
-      <x:c r="H51" s="11"/>
-      <x:c r="I51" s="11"/>
-      <x:c r="J51" s="12"/>
+      <x:c r="B51" s="13">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C51" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D51" s="14" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E51" s="14" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F51" s="14">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G51" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H51" s="15"/>
+      <x:c r="I51" s="15"/>
+      <x:c r="J51" s="14" t="s">
+        <x:v>60</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="8"/>
-      <x:c r="B52" s="36" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C52" s="37"/>
-      <x:c r="D52" s="37"/>
-      <x:c r="E52" s="37"/>
-      <x:c r="F52" s="37"/>
-      <x:c r="G52" s="37"/>
-      <x:c r="H52" s="37"/>
-      <x:c r="I52" s="37"/>
-      <x:c r="J52" s="38"/>
+      <x:c r="B52" s="11"/>
+      <x:c r="C52" s="11"/>
+      <x:c r="D52" s="11"/>
+      <x:c r="E52" s="11"/>
+      <x:c r="F52" s="11"/>
+      <x:c r="G52" s="11"/>
+      <x:c r="H52" s="11"/>
+      <x:c r="I52" s="11"/>
+      <x:c r="J52" s="12"/>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="8"/>
-      <x:c r="B53" s="13" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C53" s="14" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D53" s="14" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E53" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F53" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G53" s="14" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H53" s="14" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I53" s="14" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="J53" s="14" t="s">
-        <x:v>119</x:v>
-      </x:c>
+      <x:c r="B53" s="36" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C53" s="37"/>
+      <x:c r="D53" s="37"/>
+      <x:c r="E53" s="37"/>
+      <x:c r="F53" s="37"/>
+      <x:c r="G53" s="37"/>
+      <x:c r="H53" s="37"/>
+      <x:c r="I53" s="37"/>
+      <x:c r="J53" s="38"/>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="8"/>
-      <x:c r="B54" s="13">
-        <x:v>1</x:v>
+      <x:c r="B54" s="13" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C54" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D54" s="14" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E54" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F54" s="14">
-        <x:v>6</x:v>
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F54" s="14" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G54" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H54" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I54" s="14" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J54" s="14"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J54" s="14" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A55" s="8"/>
       <x:c r="B55" s="13">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C55" s="14" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D55" s="14" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E55" s="14" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F55" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G55" s="14" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H55" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I55" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J55" s="14"/>
+    </x:row>
+    <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A56" s="8"/>
+      <x:c r="B56" s="13">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C55" s="14" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D55" s="14" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E55" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F55" s="14">
+      <x:c r="C56" s="14" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D56" s="14" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E56" s="14" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F56" s="14">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G55" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H55" s="14"/>
-      <x:c r="I55" s="15"/>
-      <x:c r="J55" s="28" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A56" s="7"/>
-      <x:c r="B56" s="13">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C56" s="14" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D56" s="14" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E56" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F56" s="14">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="G56" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H56" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H56" s="14"/>
       <x:c r="I56" s="15"/>
-      <x:c r="J56" s="14"/>
+      <x:c r="J56" s="28" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="7"/>
       <x:c r="B57" s="13">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C57" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D57" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E57" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F57" s="14">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H57" s="14"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H57" s="15"/>
       <x:c r="I57" s="15"/>
       <x:c r="J57" s="14"/>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="7"/>
       <x:c r="B58" s="13">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C58" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D58" s="14" t="s">
-        <x:v>131</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E58" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F58" s="14">
-        <x:v>1000</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G58" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H58" s="15"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H58" s="14"/>
       <x:c r="I58" s="15"/>
       <x:c r="J58" s="14"/>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A59" s="7"/>
       <x:c r="B59" s="13">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C59" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D59" s="14" t="s">
-        <x:v>123</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E59" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F59" s="14">
-        <x:v>50</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G59" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H59" s="15"/>
       <x:c r="I59" s="15"/>
-      <x:c r="J59" s="20" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="J59" s="14"/>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A60" s="7"/>
       <x:c r="B60" s="13">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D60" s="14" t="s">
-        <x:v>128</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E60" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F60" s="14">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G60" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H60" s="14"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H60" s="15"/>
       <x:c r="I60" s="15"/>
-      <x:c r="J60" s="18" t="s">
-        <x:v>6</x:v>
+      <x:c r="J60" s="20" t="s">
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A61" s="7"/>
       <x:c r="B61" s="13">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C61" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D61" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E61" s="14" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F61" s="14">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G61" s="14" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E61" s="14" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F61" s="14">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G61" s="14" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H61" s="15"/>
+      <x:c r="H61" s="14"/>
       <x:c r="I61" s="15"/>
       <x:c r="J61" s="18" t="s">
-        <x:v>139</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
@@ -3420,7 +3397,7 @@
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="7"/>
       <x:c r="B63" s="34" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C63" s="35"/>
       <x:c r="D63" s="35"/>
@@ -3434,31 +3411,31 @@
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="7"/>
       <x:c r="B64" s="13" t="s">
-        <x:v>132</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C64" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D64" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E64" s="14" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E64" s="14" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="F64" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G64" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H64" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I64" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J64" s="14" t="s">
-        <x:v>119</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3467,25 +3444,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C65" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D65" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E65" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F65" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G65" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H65" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I65" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J65" s="20"/>
     </x:row>
@@ -3495,19 +3472,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>89</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D66" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E66" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F66" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G66" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H66" s="14"/>
       <x:c r="I66" s="14"/>
@@ -3519,19 +3496,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>55</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D67" s="14" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E67" s="14" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="E67" s="14" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="F67" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G67" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H67" s="14"/>
       <x:c r="I67" s="14"/>
@@ -3543,13 +3520,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C68" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D68" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E68" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F68" s="14">
         <x:v>200</x:v>
@@ -3565,24 +3542,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C69" s="25" t="s">
-        <x:v>67</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D69" s="20" t="s">
-        <x:v>125</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E69" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F69" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G69" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H69" s="26"/>
       <x:c r="I69" s="19"/>
       <x:c r="J69" s="18" t="s">
-        <x:v>14</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -3591,24 +3568,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C70" s="25" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D70" s="20" t="s">
-        <x:v>122</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E70" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F70" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G70" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H70" s="14"/>
       <x:c r="I70" s="26"/>
       <x:c r="J70" s="28" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
@@ -3617,13 +3594,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C71" s="25" t="s">
-        <x:v>71</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D71" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E71" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F71" s="14">
         <x:v>50</x:v>
@@ -3632,7 +3609,7 @@
       <x:c r="H71" s="14"/>
       <x:c r="I71" s="26"/>
       <x:c r="J71" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
@@ -3641,23 +3618,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C72" s="20" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D72" s="20" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E72" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F72" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G72" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H72" s="14"/>
       <x:c r="I72" s="26" t="s">
-        <x:v>121</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J72" s="20"/>
     </x:row>
@@ -3676,7 +3653,7 @@
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="8"/>
       <x:c r="B74" s="33" t="s">
-        <x:v>16</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C74" s="33"/>
       <x:c r="D74" s="33"/>
@@ -3690,31 +3667,31 @@
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="8"/>
       <x:c r="B75" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C75" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E75" s="19" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E75" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="F75" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G75" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I75" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J75" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10" ht="15.75" customHeight="1">
@@ -3723,25 +3700,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C76" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D76" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F76" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G76" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I76" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J76" s="19"/>
     </x:row>
@@ -3751,19 +3728,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C77" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D77" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E77" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F77" s="19">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G77" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H77" s="19"/>
       <x:c r="I77" s="19"/>
@@ -3775,19 +3752,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C78" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D78" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E78" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F78" s="19">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G78" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H78" s="19"/>
       <x:c r="I78" s="19"/>
@@ -3799,24 +3776,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C79" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D79" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E79" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F79" s="19">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G79" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H79" s="19"/>
       <x:c r="I79" s="19"/>
       <x:c r="J79" s="18" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
@@ -3825,19 +3802,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C80" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D80" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E80" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F80" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G80" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H80" s="19"/>
       <x:c r="I80" s="19"/>
@@ -3849,23 +3826,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C81" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D81" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E81" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F81" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G81" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H81" s="19"/>
       <x:c r="I81" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J81" s="19"/>
     </x:row>
@@ -3884,7 +3861,7 @@
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="8"/>
       <x:c r="B83" s="33" t="s">
-        <x:v>143</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C83" s="33"/>
       <x:c r="D83" s="33"/>
@@ -3898,31 +3875,31 @@
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="8"/>
       <x:c r="B84" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C84" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D84" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E84" s="19" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E84" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="F84" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G84" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H84" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I84" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J84" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
@@ -3931,25 +3908,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C85" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D85" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E85" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F85" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G85" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H85" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I85" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J85" s="19"/>
     </x:row>
@@ -3959,24 +3936,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C86" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D86" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E86" s="19" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F86" s="19" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G86" s="19" t="s">
-        <x:v>114</x:v>
-      </x:c>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F86" s="19"/>
+      <x:c r="G86" s="19"/>
       <x:c r="H86" s="19"/>
       <x:c r="I86" s="19"/>
       <x:c r="J86" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10" ht="15.75" customHeight="1">
@@ -3985,19 +3958,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C87" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D87" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E87" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F87" s="19">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G87" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H87" s="19"/>
       <x:c r="I87" s="19"/>
@@ -4006,22 +3979,22 @@
     <x:row r="88" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A88" s="7"/>
       <x:c r="B88" s="19">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C88" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D88" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E88" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F88" s="19">
-        <x:v>50</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H88" s="19"/>
       <x:c r="I88" s="19"/>
@@ -4030,54 +4003,42 @@
     <x:row r="89" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A89" s="7"/>
       <x:c r="B89" s="19">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C89" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D89" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E89" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F89" s="19">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G89" s="19" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H89" s="19"/>
-      <x:c r="I89" s="19"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H89" s="19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I89" s="19" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="J89" s="19"/>
     </x:row>
     <x:row r="90" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A90" s="7"/>
-      <x:c r="B90" s="19">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C90" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D90" s="19" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E90" s="19" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F90" s="19">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G90" s="19" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H90" s="19" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="I90" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J90" s="19"/>
+      <x:c r="B90" s="7"/>
+      <x:c r="C90" s="7"/>
+      <x:c r="D90" s="7"/>
+      <x:c r="E90" s="7"/>
+      <x:c r="F90" s="7"/>
+      <x:c r="G90" s="7"/>
+      <x:c r="H90" s="7"/>
+      <x:c r="I90" s="7"/>
+      <x:c r="J90" s="8"/>
     </x:row>
     <x:row r="91" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A91" s="7"/>
@@ -6179,21 +6140,10 @@
       <x:c r="I265" s="7"/>
       <x:c r="J265" s="8"/>
     </x:row>
-    <x:row r="266" spans="1:10" ht="15.75" customHeight="1">
+    <x:row r="266" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A266" s="7"/>
-      <x:c r="B266" s="7"/>
-      <x:c r="C266" s="7"/>
-      <x:c r="D266" s="7"/>
-      <x:c r="E266" s="7"/>
-      <x:c r="F266" s="7"/>
-      <x:c r="G266" s="7"/>
-      <x:c r="H266" s="7"/>
-      <x:c r="I266" s="7"/>
-      <x:c r="J266" s="8"/>
-    </x:row>
-    <x:row r="267" spans="1:1" ht="15.75" customHeight="1">
-      <x:c r="A267" s="7"/>
-    </x:row>
+    </x:row>
+    <x:row r="267" ht="15.75" customHeight="1"/>
     <x:row r="268" ht="15.75" customHeight="1"/>
     <x:row r="269" ht="15.75" customHeight="1"/>
     <x:row r="270" ht="15.75" customHeight="1"/>
@@ -6928,17 +6878,16 @@
     <x:row r="999" ht="15.75" customHeight="1"/>
     <x:row r="1000" ht="15.75" customHeight="1"/>
     <x:row r="1001" ht="15.75" customHeight="1"/>
-    <x:row r="1002" ht="15.75" customHeight="1"/>
   </x:sheetData>
   <x:mergeCells count="9">
     <x:mergeCell ref="B74:J74"/>
     <x:mergeCell ref="B83:J83"/>
-    <x:mergeCell ref="B36:J36"/>
-    <x:mergeCell ref="B44:J44"/>
+    <x:mergeCell ref="B37:J37"/>
+    <x:mergeCell ref="B45:J45"/>
     <x:mergeCell ref="B2:J3"/>
     <x:mergeCell ref="B5:J5"/>
-    <x:mergeCell ref="B19:J19"/>
-    <x:mergeCell ref="B52:J52"/>
+    <x:mergeCell ref="B20:J20"/>
+    <x:mergeCell ref="B53:J53"/>
     <x:mergeCell ref="B63:J63"/>
   </x:mergeCells>
   <x:pageMargins left="0.69958335161209106" right="0.69958335161209106" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -1,397 +1,400 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4167"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githud\PuppyPlaytime\프로젝트 산출물\5. 테이블명세서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="6190"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
   </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="127">
+  <x:si>
+    <x:t>공지사항 (Notice_TBL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 using, reserved, unusing</x:t>
+  </x:si>
   <x:si>
     <x:t>실제 예약 시작날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_registrant</x:t>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 YYYY-MM-DD</x:t>
   </x:si>
   <x:si>
     <x:t>r_requestdate</x:t>
   </x:si>
   <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
+    <x:t>입력값 unuse, use</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
-    <x:t>reply_regdate</x:t>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
   </x:si>
   <x:si>
     <x:t>회원 (Member_TBL)</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
     <x:t>입력값 F(female), M(male)</x:t>
   </x:si>
   <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
     <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
   </x:si>
   <x:si>
     <x:t>r_startdate</x:t>
   </x:si>
   <x:si>
+    <x:t>c_usestatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
     <x:t>c_picture</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 using, reserved, unusing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_usestatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_optional</x:t>
   </x:si>
   <x:si>
     <x:t>admin 고정</x:t>
   </x:si>
   <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
     <x:t>p_picture</x:t>
   </x:si>
   <x:si>
-    <x:t>VARCHAR2</x:t>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
   </x:si>
   <x:si>
     <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_optional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (QuestionBoard_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_TBL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 unuse, use</x:t>
   </x:si>
   <x:si>
     <x:t>실제 예약 종료날짜</x:t>
@@ -404,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="12">
+  <x:fonts count="11">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -433,11 +436,6 @@
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
@@ -505,28 +503,26 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="15">
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -534,84 +530,69 @@
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -624,11 +605,8 @@
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -639,49 +617,40 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
@@ -690,35 +659,29 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
@@ -726,16 +689,13 @@
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
@@ -743,13 +703,10 @@
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
+    <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
@@ -760,62 +717,46 @@
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="40">
+  <x:cellXfs count="39">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -829,9 +770,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -860,45 +811,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -912,39 +824,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -964,163 +850,53 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1139,83 +915,206 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle xfId="0" builtinId="0"/>
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1223,6 +1122,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1305,6 +1205,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1339,6 +1240,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1383,6 +1285,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1426,6 +1329,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1433,10 +1337,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff315f97"/>
@@ -1445,10 +1349,10 @@
               <x:color rgb="ff315f97"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1460,10 +1364,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff315f97"/>
@@ -1472,10 +1376,10 @@
               <x:color rgb="ff315f97"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1510,6 +1414,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1530,6 +1435,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1560,6 +1466,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1613,7 +1520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1811,1530 +1718,1530 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+    <x:sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D87" activeCellId="0" sqref="D87:D88"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.328125" customWidth="1"/>
-    <x:col min="2" max="2" width="14.4375" customWidth="1"/>
-    <x:col min="3" max="3" width="21.8828125" customWidth="1"/>
-    <x:col min="4" max="4" width="28.109375" customWidth="1"/>
-    <x:col min="5" max="9" width="14.4375" customWidth="1"/>
-    <x:col min="10" max="10" width="62.109375" customWidth="1"/>
-    <x:col min="11" max="24" width="14.4375" customWidth="1"/>
+    <x:col min="1" max="1" width="4.328125" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.4375" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="21.8828125" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="28.109375" style="1" customWidth="1"/>
+    <x:col min="5" max="9" width="14.4375" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="62.109375" style="1" customWidth="1"/>
+    <x:col min="11" max="24" width="14.4375" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="1"/>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1"/>
-      <x:c r="J1" s="1"/>
+      <x:c r="A1" s="2"/>
+      <x:c r="B1" s="2"/>
+      <x:c r="C1" s="2"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+      <x:c r="F1" s="2"/>
+      <x:c r="G1" s="2"/>
+      <x:c r="H1" s="2"/>
+      <x:c r="I1" s="2"/>
+      <x:c r="J1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="28" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C2" s="29"/>
-      <x:c r="D2" s="29"/>
-      <x:c r="E2" s="29"/>
-      <x:c r="F2" s="29"/>
-      <x:c r="G2" s="29"/>
-      <x:c r="H2" s="29"/>
-      <x:c r="I2" s="29"/>
-      <x:c r="J2" s="30"/>
+      <x:c r="A2" s="2"/>
+      <x:c r="B2" s="27" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C2" s="28"/>
+      <x:c r="D2" s="28"/>
+      <x:c r="E2" s="28"/>
+      <x:c r="F2" s="28"/>
+      <x:c r="G2" s="28"/>
+      <x:c r="H2" s="28"/>
+      <x:c r="I2" s="28"/>
+      <x:c r="J2" s="29"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="31"/>
-      <x:c r="C3" s="32"/>
-      <x:c r="D3" s="32"/>
-      <x:c r="E3" s="32"/>
-      <x:c r="F3" s="32"/>
-      <x:c r="G3" s="32"/>
-      <x:c r="H3" s="32"/>
-      <x:c r="I3" s="32"/>
-      <x:c r="J3" s="33"/>
+      <x:c r="A3" s="2"/>
+      <x:c r="B3" s="30"/>
+      <x:c r="C3" s="31"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+      <x:c r="F3" s="31"/>
+      <x:c r="G3" s="31"/>
+      <x:c r="H3" s="31"/>
+      <x:c r="I3" s="31"/>
+      <x:c r="J3" s="32"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A4" s="3"/>
-      <x:c r="B4" s="8"/>
-      <x:c r="C4" s="8"/>
-      <x:c r="D4" s="8"/>
-      <x:c r="E4" s="8"/>
-      <x:c r="F4" s="8"/>
-      <x:c r="G4" s="8"/>
-      <x:c r="H4" s="8"/>
-      <x:c r="I4" s="8"/>
-      <x:c r="J4" s="9"/>
+      <x:c r="B4" s="7"/>
+      <x:c r="C4" s="7"/>
+      <x:c r="D4" s="7"/>
+      <x:c r="E4" s="7"/>
+      <x:c r="F4" s="7"/>
+      <x:c r="G4" s="7"/>
+      <x:c r="H4" s="7"/>
+      <x:c r="I4" s="7"/>
+      <x:c r="J4" s="8"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="4"/>
-      <x:c r="B5" s="34" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C5" s="35"/>
-      <x:c r="D5" s="35"/>
-      <x:c r="E5" s="35"/>
-      <x:c r="F5" s="35"/>
-      <x:c r="G5" s="35"/>
-      <x:c r="H5" s="35"/>
-      <x:c r="I5" s="35"/>
-      <x:c r="J5" s="36"/>
+      <x:c r="B5" s="33" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C5" s="34"/>
+      <x:c r="D5" s="34"/>
+      <x:c r="E5" s="34"/>
+      <x:c r="F5" s="34"/>
+      <x:c r="G5" s="34"/>
+      <x:c r="H5" s="34"/>
+      <x:c r="I5" s="34"/>
+      <x:c r="J5" s="35"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="4"/>
-      <x:c r="B6" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C6" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D6" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E6" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F6" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G6" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H6" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I6" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J6" s="11" t="s">
-        <x:v>67</x:v>
+      <x:c r="B6" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G6" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H6" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I6" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J6" s="10" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A7" s="4"/>
-      <x:c r="B7" s="10">
+      <x:c r="B7" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C7" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D7" s="11" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F7" s="11">
+      <x:c r="C7" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F7" s="10">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G7" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H7" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I7" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J7" s="11" t="s">
-        <x:v>58</x:v>
+      <x:c r="G7" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I7" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J7" s="10" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A8" s="4"/>
-      <x:c r="B8" s="10">
+      <x:c r="B8" s="9">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C8" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E8" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F8" s="12">
+      <x:c r="C8" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F8" s="11">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G8" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H8" s="11"/>
-      <x:c r="I8" s="12"/>
-      <x:c r="J8" s="11" t="s">
-        <x:v>58</x:v>
+      <x:c r="G8" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="10"/>
+      <x:c r="I8" s="11"/>
+      <x:c r="J8" s="10" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A9" s="4"/>
-      <x:c r="B9" s="10">
+      <x:c r="B9" s="9">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D9" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E9" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F9" s="11">
+      <x:c r="C9" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F9" s="10">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G9" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H9" s="12"/>
-      <x:c r="I9" s="12"/>
-      <x:c r="J9" s="11"/>
+      <x:c r="G9" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="11"/>
+      <x:c r="I9" s="11"/>
+      <x:c r="J9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A10" s="4"/>
-      <x:c r="B10" s="10">
+      <x:c r="B10" s="9">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C10" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D10" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E10" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F10" s="11"/>
-      <x:c r="G10" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H10" s="11"/>
-      <x:c r="I10" s="12"/>
-      <x:c r="J10" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="C10" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F10" s="10"/>
+      <x:c r="G10" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="10"/>
+      <x:c r="I10" s="11"/>
+      <x:c r="J10" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A11" s="4"/>
-      <x:c r="B11" s="10">
+      <x:c r="B11" s="9">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C11" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D11" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E11" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F11" s="11">
+      <x:c r="C11" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F11" s="10">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G11" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H11" s="12"/>
-      <x:c r="I11" s="12"/>
-      <x:c r="J11" s="11"/>
+      <x:c r="G11" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H11" s="11"/>
+      <x:c r="I11" s="11"/>
+      <x:c r="J11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A12" s="4"/>
-      <x:c r="B12" s="10">
+      <x:c r="B12" s="9">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C12" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D12" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E12" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F12" s="11">
+      <x:c r="C12" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F12" s="10">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G12" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H12" s="12"/>
-      <x:c r="I12" s="12"/>
-      <x:c r="J12" s="11" t="s">
-        <x:v>52</x:v>
+      <x:c r="G12" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H12" s="11"/>
+      <x:c r="I12" s="11"/>
+      <x:c r="J12" s="10" t="s">
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A13" s="4"/>
-      <x:c r="B13" s="10">
+      <x:c r="B13" s="9">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C13" s="11" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D13" s="11" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E13" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F13" s="11">
+      <x:c r="C13" s="10" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D13" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F13" s="10">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G13" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H13" s="11"/>
-      <x:c r="I13" s="12"/>
-      <x:c r="J13" s="13"/>
+      <x:c r="G13" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H13" s="10"/>
+      <x:c r="I13" s="11"/>
+      <x:c r="J13" s="12"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A14" s="4"/>
-      <x:c r="B14" s="10">
+      <x:c r="B14" s="9">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C14" s="11" t="s">
+      <x:c r="C14" s="10" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D14" s="11" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F14" s="11">
+      <x:c r="D14" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F14" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G14" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H14" s="12"/>
-      <x:c r="I14" s="14"/>
-      <x:c r="J14" s="15" t="s">
-        <x:v>124</x:v>
+      <x:c r="G14" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H14" s="11"/>
+      <x:c r="I14" s="13"/>
+      <x:c r="J14" s="14" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A15" s="3"/>
-      <x:c r="B15" s="10">
+      <x:c r="B15" s="9">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C15" s="11" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D15" s="11" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E15" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F15" s="11">
+      <x:c r="C15" s="10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D15" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F15" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G15" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H15" s="12"/>
-      <x:c r="I15" s="14"/>
-      <x:c r="J15" s="15" t="s">
-        <x:v>124</x:v>
+      <x:c r="G15" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H15" s="11"/>
+      <x:c r="I15" s="13"/>
+      <x:c r="J15" s="14" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A16" s="3"/>
-      <x:c r="B16" s="10">
+      <x:c r="B16" s="9">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C16" s="11" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D16" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E16" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F16" s="11">
+      <x:c r="C16" s="10" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D16" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F16" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G16" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H16" s="12"/>
-      <x:c r="I16" s="14"/>
-      <x:c r="J16" s="15" t="s">
-        <x:v>124</x:v>
+      <x:c r="G16" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H16" s="11"/>
+      <x:c r="I16" s="13"/>
+      <x:c r="J16" s="14" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A17" s="3"/>
-      <x:c r="B17" s="8"/>
-      <x:c r="C17" s="8"/>
-      <x:c r="D17" s="8"/>
-      <x:c r="E17" s="8"/>
-      <x:c r="F17" s="8"/>
-      <x:c r="G17" s="8"/>
-      <x:c r="H17" s="8"/>
-      <x:c r="I17" s="8"/>
-      <x:c r="J17" s="9"/>
+      <x:c r="B17" s="7"/>
+      <x:c r="C17" s="7"/>
+      <x:c r="D17" s="7"/>
+      <x:c r="E17" s="7"/>
+      <x:c r="F17" s="7"/>
+      <x:c r="G17" s="7"/>
+      <x:c r="H17" s="7"/>
+      <x:c r="I17" s="7"/>
+      <x:c r="J17" s="8"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="34" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C18" s="35"/>
-      <x:c r="D18" s="35"/>
-      <x:c r="E18" s="35"/>
-      <x:c r="F18" s="35"/>
-      <x:c r="G18" s="35"/>
-      <x:c r="H18" s="35"/>
-      <x:c r="I18" s="35"/>
-      <x:c r="J18" s="36"/>
+      <x:c r="B18" s="33" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C18" s="34"/>
+      <x:c r="D18" s="34"/>
+      <x:c r="E18" s="34"/>
+      <x:c r="F18" s="34"/>
+      <x:c r="G18" s="34"/>
+      <x:c r="H18" s="34"/>
+      <x:c r="I18" s="34"/>
+      <x:c r="J18" s="35"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A19" s="3"/>
-      <x:c r="B19" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C19" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D19" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E19" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F19" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G19" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H19" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I19" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J19" s="11"/>
+      <x:c r="B19" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C19" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D19" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E19" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F19" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G19" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H19" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I19" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J19" s="10"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A20" s="3"/>
-      <x:c r="B20" s="10">
+      <x:c r="B20" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C20" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D20" s="11" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E20" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F20" s="11">
+      <x:c r="C20" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D20" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F20" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G20" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H20" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I20" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J20" s="13"/>
+      <x:c r="G20" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H20" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I20" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J20" s="12"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A21" s="3"/>
-      <x:c r="B21" s="10">
+      <x:c r="B21" s="9">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C21" s="11" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D21" s="11" t="s">
+      <x:c r="C21" s="10" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D21" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F21" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E21" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F21" s="12">
+      <x:c r="G21" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H21" s="10"/>
+      <x:c r="I21" s="13"/>
+      <x:c r="J21" s="14" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="G21" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H21" s="11"/>
-      <x:c r="I21" s="14"/>
-      <x:c r="J21" s="15" t="s">
-        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A22" s="3"/>
-      <x:c r="B22" s="10">
+      <x:c r="B22" s="9">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C22" s="11" t="s">
+      <x:c r="C22" s="10" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D22" s="11" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E22" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F22" s="11">
+      <x:c r="D22" s="10" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F22" s="10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G22" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H22" s="12"/>
-      <x:c r="I22" s="14"/>
-      <x:c r="J22" s="16"/>
+      <x:c r="G22" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H22" s="11"/>
+      <x:c r="I22" s="13"/>
+      <x:c r="J22" s="15"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A23" s="3"/>
-      <x:c r="B23" s="10">
+      <x:c r="B23" s="9">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C23" s="11" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D23" s="11" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E23" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F23" s="11">
+      <x:c r="C23" s="10" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F23" s="10">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G23" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H23" s="11"/>
-      <x:c r="I23" s="12"/>
-      <x:c r="J23" s="11"/>
+      <x:c r="G23" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H23" s="10"/>
+      <x:c r="I23" s="11"/>
+      <x:c r="J23" s="10"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A24" s="3"/>
-      <x:c r="B24" s="10">
+      <x:c r="B24" s="9">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C24" s="11" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D24" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E24" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F24" s="11"/>
-      <x:c r="G24" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H24" s="12"/>
-      <x:c r="I24" s="12"/>
-      <x:c r="J24" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="C24" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D24" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E24" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F24" s="10"/>
+      <x:c r="G24" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H24" s="11"/>
+      <x:c r="I24" s="11"/>
+      <x:c r="J24" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A25" s="3"/>
-      <x:c r="B25" s="10">
+      <x:c r="B25" s="9">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C25" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D25" s="11" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E25" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F25" s="11"/>
-      <x:c r="G25" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H25" s="12"/>
-      <x:c r="I25" s="12"/>
-      <x:c r="J25" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="C25" s="10" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D25" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E25" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F25" s="10"/>
+      <x:c r="G25" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H25" s="11"/>
+      <x:c r="I25" s="11"/>
+      <x:c r="J25" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A26" s="3"/>
-      <x:c r="B26" s="10">
+      <x:c r="B26" s="9">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C26" s="11" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D26" s="11" t="s">
+      <x:c r="C26" s="10" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E26" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F26" s="11"/>
-      <x:c r="G26" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H26" s="11"/>
-      <x:c r="I26" s="12"/>
-      <x:c r="J26" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="D26" s="10" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E26" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F26" s="10"/>
+      <x:c r="G26" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H26" s="10"/>
+      <x:c r="I26" s="11"/>
+      <x:c r="J26" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A27" s="3"/>
-      <x:c r="B27" s="10">
+      <x:c r="B27" s="9">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C27" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D27" s="11" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E27" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F27" s="11">
+      <x:c r="C27" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D27" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E27" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F27" s="10">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G27" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H27" s="11"/>
-      <x:c r="I27" s="12" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J27" s="11"/>
+      <x:c r="G27" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H27" s="10"/>
+      <x:c r="I27" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J27" s="10"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A28" s="3"/>
-      <x:c r="B28" s="10">
+      <x:c r="B28" s="9">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C28" s="11" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D28" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E28" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F28" s="11">
+      <x:c r="C28" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D28" s="10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E28" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F28" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G28" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H28" s="12"/>
-      <x:c r="I28" s="12" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J28" s="11"/>
+      <x:c r="G28" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H28" s="11"/>
+      <x:c r="I28" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J28" s="10"/>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A29" s="3"/>
-      <x:c r="B29" s="8"/>
-      <x:c r="C29" s="8"/>
-      <x:c r="D29" s="8"/>
-      <x:c r="E29" s="8"/>
-      <x:c r="F29" s="8"/>
-      <x:c r="G29" s="8"/>
-      <x:c r="H29" s="8"/>
-      <x:c r="I29" s="8"/>
-      <x:c r="J29" s="9"/>
+      <x:c r="B29" s="7"/>
+      <x:c r="C29" s="7"/>
+      <x:c r="D29" s="7"/>
+      <x:c r="E29" s="7"/>
+      <x:c r="F29" s="7"/>
+      <x:c r="G29" s="7"/>
+      <x:c r="H29" s="7"/>
+      <x:c r="I29" s="7"/>
+      <x:c r="J29" s="8"/>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="3"/>
-      <x:c r="B30" s="37" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C30" s="38"/>
-      <x:c r="D30" s="38"/>
-      <x:c r="E30" s="38"/>
-      <x:c r="F30" s="38"/>
-      <x:c r="G30" s="38"/>
-      <x:c r="H30" s="38"/>
-      <x:c r="I30" s="38"/>
-      <x:c r="J30" s="38"/>
+      <x:c r="B30" s="36" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C30" s="37"/>
+      <x:c r="D30" s="37"/>
+      <x:c r="E30" s="37"/>
+      <x:c r="F30" s="37"/>
+      <x:c r="G30" s="37"/>
+      <x:c r="H30" s="37"/>
+      <x:c r="I30" s="37"/>
+      <x:c r="J30" s="37"/>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A31" s="3"/>
-      <x:c r="B31" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C31" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D31" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E31" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F31" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G31" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H31" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I31" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J31" s="11"/>
+      <x:c r="B31" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C31" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D31" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E31" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F31" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G31" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H31" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I31" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J31" s="10"/>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A32" s="3"/>
-      <x:c r="B32" s="10">
+      <x:c r="B32" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C32" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D32" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E32" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F32" s="11">
+      <x:c r="C32" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D32" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E32" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F32" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G32" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H32" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I32" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J32" s="17"/>
+      <x:c r="G32" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H32" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I32" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J32" s="16"/>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A33" s="3"/>
-      <x:c r="B33" s="10">
+      <x:c r="B33" s="9">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C33" s="18" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D33" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E33" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F33" s="11">
+      <x:c r="C33" s="17" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D33" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E33" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F33" s="10">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G33" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H33" s="11"/>
-      <x:c r="I33" s="11"/>
-      <x:c r="J33" s="17"/>
+      <x:c r="G33" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H33" s="10"/>
+      <x:c r="I33" s="10"/>
+      <x:c r="J33" s="16"/>
     </x:row>
     <x:row r="34" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A34" s="4"/>
-      <x:c r="B34" s="10">
+      <x:c r="B34" s="9">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C34" s="18" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D34" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E34" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F34" s="11">
+      <x:c r="C34" s="17" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D34" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E34" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F34" s="10">
         <x:v>3000</x:v>
       </x:c>
-      <x:c r="G34" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H34" s="11"/>
-      <x:c r="I34" s="11"/>
-      <x:c r="J34" s="11"/>
+      <x:c r="G34" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H34" s="10"/>
+      <x:c r="I34" s="10"/>
+      <x:c r="J34" s="10"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="4"/>
-      <x:c r="B35" s="19">
+      <x:c r="B35" s="18">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C35" s="20" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D35" s="19" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E35" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F35" s="11"/>
-      <x:c r="G35" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H35" s="21"/>
-      <x:c r="I35" s="21"/>
-      <x:c r="J35" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="C35" s="19" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D35" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E35" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F35" s="10"/>
+      <x:c r="G35" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H35" s="20"/>
+      <x:c r="I35" s="20"/>
+      <x:c r="J35" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A36" s="4"/>
-      <x:c r="B36" s="17">
+      <x:c r="B36" s="16">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C36" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D36" s="17" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E36" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F36" s="11">
+      <x:c r="C36" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D36" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E36" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F36" s="10">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G36" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H36" s="11"/>
-      <x:c r="I36" s="23" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J36" s="15"/>
+      <x:c r="G36" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H36" s="10"/>
+      <x:c r="I36" s="22" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J36" s="14"/>
     </x:row>
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="3"/>
-      <x:c r="B37" s="8"/>
-      <x:c r="C37" s="8"/>
-      <x:c r="D37" s="8"/>
-      <x:c r="E37" s="8"/>
-      <x:c r="F37" s="8"/>
-      <x:c r="G37" s="8"/>
-      <x:c r="H37" s="8"/>
-      <x:c r="I37" s="8"/>
-      <x:c r="J37" s="9"/>
+      <x:c r="B37" s="7"/>
+      <x:c r="C37" s="7"/>
+      <x:c r="D37" s="7"/>
+      <x:c r="E37" s="7"/>
+      <x:c r="F37" s="7"/>
+      <x:c r="G37" s="7"/>
+      <x:c r="H37" s="7"/>
+      <x:c r="I37" s="7"/>
+      <x:c r="J37" s="8"/>
     </x:row>
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="4"/>
-      <x:c r="B38" s="34" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C38" s="35"/>
-      <x:c r="D38" s="35"/>
-      <x:c r="E38" s="35"/>
-      <x:c r="F38" s="35"/>
-      <x:c r="G38" s="35"/>
-      <x:c r="H38" s="35"/>
-      <x:c r="I38" s="35"/>
-      <x:c r="J38" s="36"/>
+      <x:c r="B38" s="33" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C38" s="34"/>
+      <x:c r="D38" s="34"/>
+      <x:c r="E38" s="34"/>
+      <x:c r="F38" s="34"/>
+      <x:c r="G38" s="34"/>
+      <x:c r="H38" s="34"/>
+      <x:c r="I38" s="34"/>
+      <x:c r="J38" s="35"/>
     </x:row>
     <x:row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A39" s="6"/>
-      <x:c r="B39" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C39" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D39" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E39" s="11" t="s">
+      <x:c r="A39" s="5"/>
+      <x:c r="B39" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C39" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D39" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E39" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F39" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G39" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H39" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I39" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J39" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A40" s="5"/>
+      <x:c r="B40" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F39" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G39" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H39" s="11" t="s">
+      <x:c r="C40" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D40" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E40" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F40" s="10">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G40" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H40" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I40" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J40" s="10"/>
+    </x:row>
+    <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A41" s="5"/>
+      <x:c r="B41" s="9">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C41" s="10" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E41" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F41" s="11"/>
+      <x:c r="G41" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H41" s="10"/>
+      <x:c r="I41" s="11"/>
+      <x:c r="J41" s="25" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="I39" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J39" s="11" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A40" s="6"/>
-      <x:c r="B40" s="10">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C40" s="11" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D40" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E40" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F40" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G40" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H40" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I40" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J40" s="11"/>
-    </x:row>
-    <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A41" s="6"/>
-      <x:c r="B41" s="10">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C41" s="11" t="s">
+    </x:row>
+    <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A42" s="5"/>
+      <x:c r="B42" s="9">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C42" s="10" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D42" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E42" s="10" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D41" s="11" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E41" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F41" s="12"/>
-      <x:c r="G41" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H41" s="11"/>
-      <x:c r="I41" s="12"/>
-      <x:c r="J41" s="26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A42" s="6"/>
-      <x:c r="B42" s="10">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C42" s="11" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D42" s="11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E42" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F42" s="11">
+      <x:c r="F42" s="10">
         <x:v>3000</x:v>
       </x:c>
-      <x:c r="G42" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H42" s="12"/>
-      <x:c r="I42" s="12"/>
-      <x:c r="J42" s="11"/>
+      <x:c r="G42" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H42" s="11"/>
+      <x:c r="I42" s="11"/>
+      <x:c r="J42" s="10"/>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A43" s="6"/>
-      <x:c r="B43" s="10">
+      <x:c r="A43" s="5"/>
+      <x:c r="B43" s="9">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C43" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D43" s="11" t="s">
+      <x:c r="C43" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D43" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E43" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F43" s="10">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G43" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H43" s="10"/>
+      <x:c r="I43" s="11"/>
+      <x:c r="J43" s="10"/>
+    </x:row>
+    <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="A44" s="5"/>
+      <x:c r="B44" s="9">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C44" s="10" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E43" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F43" s="11">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G43" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H43" s="11"/>
-      <x:c r="I43" s="12"/>
-      <x:c r="J43" s="11"/>
-    </x:row>
-    <x:row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A44" s="6"/>
-      <x:c r="B44" s="10">
+      <x:c r="D44" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E44" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F44" s="10">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G44" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C44" s="11" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D44" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E44" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F44" s="11">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G44" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H44" s="12"/>
-      <x:c r="I44" s="12"/>
-      <x:c r="J44" s="11" t="s">
-        <x:v>107</x:v>
+      <x:c r="H44" s="11"/>
+      <x:c r="I44" s="11"/>
+      <x:c r="J44" s="10" t="s">
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A45" s="3"/>
-      <x:c r="B45" s="8"/>
-      <x:c r="C45" s="8"/>
-      <x:c r="D45" s="8"/>
-      <x:c r="E45" s="8"/>
-      <x:c r="F45" s="8"/>
-      <x:c r="G45" s="8"/>
-      <x:c r="H45" s="8"/>
-      <x:c r="I45" s="8"/>
-      <x:c r="J45" s="9"/>
+      <x:c r="B45" s="7"/>
+      <x:c r="C45" s="7"/>
+      <x:c r="D45" s="7"/>
+      <x:c r="E45" s="7"/>
+      <x:c r="F45" s="7"/>
+      <x:c r="G45" s="7"/>
+      <x:c r="H45" s="7"/>
+      <x:c r="I45" s="7"/>
+      <x:c r="J45" s="8"/>
     </x:row>
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="3"/>
-      <x:c r="B46" s="34" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C46" s="35"/>
-      <x:c r="D46" s="35"/>
-      <x:c r="E46" s="35"/>
-      <x:c r="F46" s="35"/>
-      <x:c r="G46" s="35"/>
-      <x:c r="H46" s="35"/>
-      <x:c r="I46" s="35"/>
-      <x:c r="J46" s="36"/>
+      <x:c r="B46" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C46" s="34"/>
+      <x:c r="D46" s="34"/>
+      <x:c r="E46" s="34"/>
+      <x:c r="F46" s="34"/>
+      <x:c r="G46" s="34"/>
+      <x:c r="H46" s="34"/>
+      <x:c r="I46" s="34"/>
+      <x:c r="J46" s="35"/>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A47" s="4"/>
-      <x:c r="B47" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C47" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D47" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E47" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F47" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G47" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H47" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I47" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J47" s="11" t="s">
-        <x:v>67</x:v>
+      <x:c r="B47" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C47" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D47" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E47" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F47" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G47" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H47" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I47" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J47" s="10" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A48" s="4"/>
-      <x:c r="B48" s="10">
+      <x:c r="B48" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C48" s="11" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D48" s="11" t="s">
+      <x:c r="C48" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D48" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E48" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F48" s="10">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G48" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E48" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F48" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G48" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H48" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I48" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J48" s="11"/>
+      <x:c r="H48" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I48" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J48" s="10"/>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A49" s="4"/>
-      <x:c r="B49" s="10">
+      <x:c r="B49" s="9">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C49" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D49" s="11" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E49" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F49" s="12">
+      <x:c r="C49" s="10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D49" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E49" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F49" s="11">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G49" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H49" s="11"/>
-      <x:c r="I49" s="12"/>
-      <x:c r="J49" s="11"/>
+      <x:c r="G49" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H49" s="10"/>
+      <x:c r="I49" s="11"/>
+      <x:c r="J49" s="10"/>
     </x:row>
     <x:row r="50" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A50" s="4"/>
-      <x:c r="B50" s="10">
+      <x:c r="B50" s="9">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C50" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D50" s="11" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E50" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F50" s="11">
+      <x:c r="C50" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D50" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E50" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F50" s="10">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G50" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H50" s="12"/>
-      <x:c r="I50" s="12"/>
-      <x:c r="J50" s="11"/>
+      <x:c r="G50" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H50" s="11"/>
+      <x:c r="I50" s="11"/>
+      <x:c r="J50" s="10"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A51" s="4"/>
-      <x:c r="B51" s="10">
+      <x:c r="B51" s="9">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C51" s="11" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D51" s="11" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E51" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F51" s="11">
+      <x:c r="C51" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D51" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E51" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F51" s="10">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G51" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H51" s="11"/>
-      <x:c r="I51" s="12"/>
-      <x:c r="J51" s="11"/>
+      <x:c r="G51" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H51" s="10"/>
+      <x:c r="I51" s="11"/>
+      <x:c r="J51" s="10"/>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A52" s="4"/>
-      <x:c r="B52" s="10">
+      <x:c r="B52" s="9">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C52" s="11" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D52" s="11" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E52" s="11" t="s">
+      <x:c r="C52" s="10" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="F52" s="11">
+      <x:c r="D52" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E52" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F52" s="10">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="G52" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H52" s="12"/>
-      <x:c r="I52" s="12"/>
-      <x:c r="J52" s="11"/>
+      <x:c r="G52" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H52" s="11"/>
+      <x:c r="I52" s="11"/>
+      <x:c r="J52" s="10"/>
     </x:row>
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="4"/>
-      <x:c r="B53" s="10">
+      <x:c r="B53" s="9">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C53" s="11" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D53" s="11" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E53" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F53" s="11">
+      <x:c r="C53" s="10" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D53" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E53" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F53" s="10">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G53" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H53" s="12"/>
-      <x:c r="I53" s="12"/>
-      <x:c r="J53" s="17" t="s">
-        <x:v>98</x:v>
+      <x:c r="G53" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H53" s="11"/>
+      <x:c r="I53" s="11"/>
+      <x:c r="J53" s="16" t="s">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="4"/>
-      <x:c r="B54" s="10">
+      <x:c r="B54" s="9">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C54" s="11" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D54" s="11" t="s">
+      <x:c r="C54" s="10" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D54" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E54" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F54" s="10">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G54" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H54" s="10"/>
+      <x:c r="I54" s="11"/>
+      <x:c r="J54" s="14" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="E54" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F54" s="11">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G54" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H54" s="11"/>
-      <x:c r="I54" s="12"/>
-      <x:c r="J54" s="15" t="s">
-        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A55" s="3"/>
-      <x:c r="B55" s="10">
+      <x:c r="B55" s="9">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C55" s="11" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D55" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E55" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F55" s="11">
+      <x:c r="C55" s="10" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D55" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E55" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F55" s="10">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G55" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H55" s="12"/>
-      <x:c r="I55" s="12"/>
-      <x:c r="J55" s="15" t="s">
-        <x:v>93</x:v>
+      <x:c r="G55" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H55" s="11"/>
+      <x:c r="I55" s="11"/>
+      <x:c r="J55" s="14" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A56" s="3"/>
-      <x:c r="B56" s="8"/>
-      <x:c r="C56" s="8"/>
-      <x:c r="D56" s="8"/>
-      <x:c r="E56" s="8"/>
-      <x:c r="F56" s="8"/>
-      <x:c r="G56" s="8"/>
-      <x:c r="H56" s="8"/>
-      <x:c r="I56" s="8"/>
-      <x:c r="J56" s="9"/>
+      <x:c r="B56" s="7"/>
+      <x:c r="C56" s="7"/>
+      <x:c r="D56" s="7"/>
+      <x:c r="E56" s="7"/>
+      <x:c r="F56" s="7"/>
+      <x:c r="G56" s="7"/>
+      <x:c r="H56" s="7"/>
+      <x:c r="I56" s="7"/>
+      <x:c r="J56" s="8"/>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A57" s="3"/>
-      <x:c r="B57" s="37" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C57" s="38"/>
-      <x:c r="D57" s="38"/>
-      <x:c r="E57" s="38"/>
-      <x:c r="F57" s="38"/>
-      <x:c r="G57" s="38"/>
-      <x:c r="H57" s="38"/>
-      <x:c r="I57" s="38"/>
-      <x:c r="J57" s="38"/>
+      <x:c r="B57" s="36" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C57" s="37"/>
+      <x:c r="D57" s="37"/>
+      <x:c r="E57" s="37"/>
+      <x:c r="F57" s="37"/>
+      <x:c r="G57" s="37"/>
+      <x:c r="H57" s="37"/>
+      <x:c r="I57" s="37"/>
+      <x:c r="J57" s="37"/>
     </x:row>
     <x:row r="58" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A58" s="3"/>
-      <x:c r="B58" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C58" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D58" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E58" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F58" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G58" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H58" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I58" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J58" s="11" t="s">
-        <x:v>67</x:v>
+      <x:c r="B58" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C58" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D58" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E58" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F58" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G58" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H58" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I58" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J58" s="10" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A59" s="3"/>
-      <x:c r="B59" s="10">
+      <x:c r="B59" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C59" s="11" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D59" s="11" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E59" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F59" s="11">
+      <x:c r="C59" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D59" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E59" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F59" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G59" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H59" s="11" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I59" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J59" s="17"/>
+      <x:c r="G59" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H59" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I59" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J59" s="16"/>
     </x:row>
     <x:row r="60" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A60" s="3"/>
-      <x:c r="B60" s="10">
+      <x:c r="B60" s="9">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C60" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D60" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E60" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F60" s="11">
+      <x:c r="C60" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D60" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E60" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F60" s="10">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G60" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H60" s="11"/>
-      <x:c r="I60" s="11"/>
-      <x:c r="J60" s="17"/>
+      <x:c r="G60" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H60" s="10"/>
+      <x:c r="I60" s="10"/>
+      <x:c r="J60" s="16"/>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A61" s="3"/>
-      <x:c r="B61" s="10">
+      <x:c r="B61" s="9">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C61" s="18" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D61" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E61" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F61" s="11">
+      <x:c r="C61" s="17" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D61" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E61" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F61" s="10">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G61" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H61" s="11"/>
-      <x:c r="I61" s="11"/>
-      <x:c r="J61" s="11"/>
+      <x:c r="G61" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H61" s="10"/>
+      <x:c r="I61" s="10"/>
+      <x:c r="J61" s="10"/>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A62" s="3"/>
-      <x:c r="B62" s="19">
+      <x:c r="B62" s="18">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C62" s="20" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D62" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E62" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F62" s="11">
+      <x:c r="C62" s="19" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D62" s="18" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E62" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F62" s="10">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="G62" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H62" s="21"/>
-      <x:c r="I62" s="24"/>
-      <x:c r="J62" s="15"/>
+      <x:c r="G62" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H62" s="20"/>
+      <x:c r="I62" s="23"/>
+      <x:c r="J62" s="14"/>
     </x:row>
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="3"/>
-      <x:c r="B63" s="17">
+      <x:c r="B63" s="16">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C63" s="22" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D63" s="17" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E63" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F63" s="11">
+      <x:c r="C63" s="21" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D63" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E63" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F63" s="10">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G63" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H63" s="23"/>
-      <x:c r="I63" s="16"/>
-      <x:c r="J63" s="15" t="s">
-        <x:v>59</x:v>
+      <x:c r="G63" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H63" s="22"/>
+      <x:c r="I63" s="15"/>
+      <x:c r="J63" s="14" t="s">
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="3"/>
-      <x:c r="B64" s="19">
+      <x:c r="B64" s="18">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C64" s="22" t="s">
+      <x:c r="C64" s="21" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D64" s="17" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E64" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F64" s="11">
+      <x:c r="D64" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E64" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F64" s="10">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G64" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H64" s="11"/>
-      <x:c r="I64" s="23"/>
-      <x:c r="J64" s="25" t="s">
-        <x:v>62</x:v>
+      <x:c r="G64" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H64" s="10"/>
+      <x:c r="I64" s="22"/>
+      <x:c r="J64" s="24" t="s">
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A65" s="3"/>
-      <x:c r="B65" s="17">
+      <x:c r="B65" s="16">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C65" s="22" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D65" s="17" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E65" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F65" s="11">
+      <x:c r="C65" s="21" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D65" s="16" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E65" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F65" s="10">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G65" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H65" s="11"/>
-      <x:c r="I65" s="23"/>
-      <x:c r="J65" s="17" t="s">
-        <x:v>98</x:v>
+      <x:c r="G65" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H65" s="10"/>
+      <x:c r="I65" s="22"/>
+      <x:c r="J65" s="16" t="s">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A66" s="4"/>
-      <x:c r="B66" s="17">
+      <x:c r="B66" s="16">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C66" s="17" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D66" s="17" t="s">
+      <x:c r="C66" s="16" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D66" s="16" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E66" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F66" s="10">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G66" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H66" s="10"/>
+      <x:c r="I66" s="22" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E66" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F66" s="11">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G66" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H66" s="11"/>
-      <x:c r="I66" s="23" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J66" s="17"/>
+      <x:c r="J66" s="16"/>
     </x:row>
     <x:row r="67" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A67" s="4"/>
@@ -3350,201 +3257,201 @@
     </x:row>
     <x:row r="68" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A68" s="4"/>
-      <x:c r="B68" s="39" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C68" s="39"/>
-      <x:c r="D68" s="39"/>
-      <x:c r="E68" s="39"/>
-      <x:c r="F68" s="39"/>
-      <x:c r="G68" s="39"/>
-      <x:c r="H68" s="39"/>
-      <x:c r="I68" s="39"/>
-      <x:c r="J68" s="39"/>
+      <x:c r="B68" s="38" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C68" s="38"/>
+      <x:c r="D68" s="38"/>
+      <x:c r="E68" s="38"/>
+      <x:c r="F68" s="38"/>
+      <x:c r="G68" s="38"/>
+      <x:c r="H68" s="38"/>
+      <x:c r="I68" s="38"/>
+      <x:c r="J68" s="38"/>
     </x:row>
     <x:row r="69" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A69" s="4"/>
-      <x:c r="B69" s="27" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C69" s="27" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D69" s="27" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E69" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F69" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G69" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H69" s="27" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I69" s="27" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J69" s="16" t="s">
-        <x:v>67</x:v>
+      <x:c r="B69" s="26" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C69" s="26" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D69" s="26" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E69" s="26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F69" s="26" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G69" s="26" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H69" s="26" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I69" s="26" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J69" s="15" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A70" s="4"/>
-      <x:c r="B70" s="27">
+      <x:c r="B70" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C70" s="27" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D70" s="27" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E70" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F70" s="27">
+      <x:c r="C70" s="26" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D70" s="26" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E70" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F70" s="26">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G70" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H70" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I70" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J70" s="16"/>
+      <x:c r="G70" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H70" s="26" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I70" s="26" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J70" s="15"/>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A71" s="4"/>
-      <x:c r="B71" s="27">
+      <x:c r="B71" s="26">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C71" s="27" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D71" s="27" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E71" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F71" s="27">
+      <x:c r="C71" s="26" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D71" s="26" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E71" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F71" s="26">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G71" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H71" s="27"/>
-      <x:c r="I71" s="27"/>
-      <x:c r="J71" s="16"/>
+      <x:c r="G71" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H71" s="26"/>
+      <x:c r="I71" s="26"/>
+      <x:c r="J71" s="15"/>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A72" s="3"/>
-      <x:c r="B72" s="27">
+      <x:c r="B72" s="26">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C72" s="27" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D72" s="27" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E72" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F72" s="27">
+      <x:c r="C72" s="26" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D72" s="26" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E72" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F72" s="26">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="G72" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H72" s="27"/>
-      <x:c r="I72" s="27"/>
-      <x:c r="J72" s="16"/>
+      <x:c r="G72" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H72" s="26"/>
+      <x:c r="I72" s="26"/>
+      <x:c r="J72" s="15"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A73" s="4"/>
-      <x:c r="B73" s="27">
+      <x:c r="B73" s="26">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C73" s="27" t="s">
+      <x:c r="C73" s="26" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D73" s="27" t="s">
+      <x:c r="D73" s="26" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E73" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F73" s="26">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G73" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H73" s="26"/>
+      <x:c r="I73" s="26"/>
+      <x:c r="J73" s="14" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="E73" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F73" s="27">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G73" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H73" s="27"/>
-      <x:c r="I73" s="27"/>
-      <x:c r="J73" s="15" t="s">
-        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="4"/>
-      <x:c r="B74" s="27">
+      <x:c r="B74" s="26">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C74" s="27" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D74" s="27" t="s">
+      <x:c r="C74" s="26" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E74" s="27" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F74" s="27">
+      <x:c r="D74" s="26" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E74" s="26" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F74" s="26">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G74" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H74" s="27"/>
-      <x:c r="I74" s="27"/>
-      <x:c r="J74" s="16"/>
+      <x:c r="G74" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H74" s="26"/>
+      <x:c r="I74" s="26"/>
+      <x:c r="J74" s="15"/>
     </x:row>
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="4"/>
-      <x:c r="B75" s="27">
+      <x:c r="B75" s="26">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C75" s="27" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D75" s="27" t="s">
+      <x:c r="C75" s="26" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D75" s="26" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E75" s="11" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F75" s="10">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G75" s="26" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E75" s="12" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F75" s="11">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G75" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H75" s="27"/>
-      <x:c r="I75" s="27" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J75" s="16"/>
-    </x:row>
-    <x:row r="76" spans="1:10" ht="13.75">
+      <x:c r="H75" s="26"/>
+      <x:c r="I75" s="26" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J75" s="15"/>
+    </x:row>
+    <x:row r="76" spans="1:10" ht="16.399999999999999">
       <x:c r="A76" s="4"/>
       <x:c r="B76" s="3"/>
       <x:c r="C76" s="3"/>
@@ -3558,201 +3465,180 @@
     </x:row>
     <x:row r="77" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A77" s="4"/>
-      <x:c r="B77" s="39" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C77" s="39"/>
-      <x:c r="D77" s="39"/>
-      <x:c r="E77" s="39"/>
-      <x:c r="F77" s="39"/>
-      <x:c r="G77" s="39"/>
-      <x:c r="H77" s="39"/>
-      <x:c r="I77" s="39"/>
-      <x:c r="J77" s="39"/>
+      <x:c r="B77" s="38" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C77" s="38"/>
+      <x:c r="D77" s="38"/>
+      <x:c r="E77" s="38"/>
+      <x:c r="F77" s="38"/>
+      <x:c r="G77" s="38"/>
+      <x:c r="H77" s="38"/>
+      <x:c r="I77" s="38"/>
+      <x:c r="J77" s="38"/>
     </x:row>
     <x:row r="78" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A78" s="4"/>
-      <x:c r="B78" s="27" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C78" s="27" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D78" s="27" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E78" s="27" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F78" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G78" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H78" s="27" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I78" s="27" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J78" s="16" t="s">
-        <x:v>67</x:v>
+      <x:c r="B78" s="26" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C78" s="26" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D78" s="26" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E78" s="26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F78" s="26" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G78" s="26" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H78" s="26" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I78" s="26" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J78" s="15" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A79" s="4"/>
-      <x:c r="B79" s="27">
+      <x:c r="B79" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C79" s="27" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D79" s="27" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E79" s="27" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F79" s="27">
+      <x:c r="C79" s="26" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D79" s="26" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E79" s="26" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F79" s="26">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G79" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H79" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I79" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J79" s="16"/>
+      <x:c r="G79" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H79" s="26" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I79" s="26" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J79" s="15"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A80" s="4"/>
-      <x:c r="B80" s="27">
+      <x:c r="B80" s="26">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C80" s="27" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D80" s="27" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E80" s="27" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F80" s="27" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G80" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H80" s="27"/>
-      <x:c r="I80" s="27"/>
-      <x:c r="J80" s="11" t="s">
-        <x:v>56</x:v>
+      <x:c r="C80" s="26" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D80" s="26" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E80" s="26" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F80" s="26" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G80" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H80" s="26"/>
+      <x:c r="I80" s="26"/>
+      <x:c r="J80" s="10" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A81" s="4"/>
-      <x:c r="B81" s="27">
+      <x:c r="B81" s="26">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C81" s="27" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D81" s="27" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E81" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F81" s="27">
+      <x:c r="C81" s="26" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D81" s="26" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E81" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F81" s="26">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="G81" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H81" s="27"/>
-      <x:c r="I81" s="27"/>
-      <x:c r="J81" s="16"/>
+      <x:c r="G81" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H81" s="26"/>
+      <x:c r="I81" s="26"/>
+      <x:c r="J81" s="15"/>
     </x:row>
     <x:row r="82" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A82" s="4"/>
-      <x:c r="B82" s="27">
+      <x:c r="B82" s="26">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C82" s="27" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D82" s="27" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E82" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F82" s="27">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G82" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H82" s="27"/>
-      <x:c r="I82" s="27"/>
-      <x:c r="J82" s="16"/>
+      <x:c r="C82" s="26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D82" s="26" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E82" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F82" s="26">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G82" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H82" s="26"/>
+      <x:c r="I82" s="26"/>
+      <x:c r="J82" s="15"/>
     </x:row>
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="4"/>
-      <x:c r="B83" s="27">
+      <x:c r="B83" s="26">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C83" s="27" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D83" s="27" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E83" s="27" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F83" s="27">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G83" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H83" s="27"/>
-      <x:c r="I83" s="27"/>
-      <x:c r="J83" s="16"/>
-    </x:row>
-    <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <x:c r="C83" s="26" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D83" s="26" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E83" s="26" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F83" s="26">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G83" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H83" s="26" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I83" s="26" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J83" s="15"/>
+    </x:row>
+    <x:row r="84" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A84" s="3"/>
-      <x:c r="B84" s="27">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C84" s="27" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D84" s="27" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E84" s="27" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F84" s="27">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G84" s="27" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H84" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I84" s="27" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J84" s="16"/>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A85" s="3"/>
@@ -3767,7 +3653,7 @@
       <x:c r="J85" s="4"/>
     </x:row>
     <x:row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <x:c r="A86" s="7"/>
+      <x:c r="A86" s="6"/>
       <x:c r="B86" s="3"/>
       <x:c r="C86" s="3"/>
       <x:c r="D86" s="3"/>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -16,47 +16,344 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
   <x:si>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
     <x:t>m_regdate</x:t>
   </x:si>
   <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 member, secession</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_pet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약펫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_extraservice2</x:t>
   </x:si>
   <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
+    <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
     <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 unuse, use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
-    <x:t>8자리 이상 15자리 이내</x:t>
-  </x:si>
-  <x:si>
     <x:t>reply_regdate</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 unuse, use</x:t>
-  </x:si>
-  <x:si>
     <x:t>r_extraservice4</x:t>
   </x:si>
   <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력값 YYYY-MM-DD</x:t>
   </x:si>
   <x:si>
     <x:t>n_registrant</x:t>
   </x:si>
   <x:si>
-    <x:t>r_extraservice3</x:t>
+    <x:t>댓글(Reply_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>r_extraservice1</x:t>
@@ -65,379 +362,82 @@
     <x:t>회원 (Member_tbl)</x:t>
   </x:si>
   <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약펫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 member, secession</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
+    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 Y(yes), N(no)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_registrant</x:t>
   </x:si>
   <x:si>
     <x:t>p_weight</x:t>
   </x:si>
   <x:si>
-    <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_pet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no)</x:t>
+    <x:t>m_status</x:t>
   </x:si>
   <x:si>
     <x:t>m_optional</x:t>
   </x:si>
   <x:si>
-    <x:t>m_status</x:t>
-  </x:si>
-  <x:si>
     <x:t>m_address</x:t>
   </x:si>
   <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_status</x:t>
   </x:si>
   <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
     <x:t>VARCHAR2</x:t>
   </x:si>
   <x:si>
     <x:t>s_explain</x:t>
   </x:si>
   <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
     <x:t>이미지 파일 경로명</x:t>
   </x:si>
   <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
   </x:si>
   <x:si>
     <x:t>r_payprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1349,6 +1349,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1369,6 +1370,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1389,6 +1391,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1419,6 +1422,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1449,6 +1453,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1526,6 +1531,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1560,6 +1566,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1594,6 +1601,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1638,6 +1646,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1681,6 +1690,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1972,7 +1982,7 @@
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K20" activeCellId="0" sqref="K20:K20"/>
+      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2001,7 +2011,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="6"/>
       <x:c r="B2" s="39" t="s">
-        <x:v>110</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C2" s="40"/>
       <x:c r="D2" s="40"/>
@@ -2039,7 +2049,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="8"/>
       <x:c r="B5" s="36" t="s">
-        <x:v>15</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C5" s="37"/>
       <x:c r="D5" s="37"/>
@@ -2053,31 +2063,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="8"/>
       <x:c r="B6" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C6" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G6" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J6" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -2086,28 +2096,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F7" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J7" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2116,24 +2126,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F8" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H8" s="14"/>
       <x:c r="I8" s="15"/>
       <x:c r="J8" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2142,19 +2152,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D9" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F9" s="14">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H9" s="15"/>
       <x:c r="I9" s="15"/>
@@ -2166,22 +2176,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>87</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="14"/>
       <x:c r="G10" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H10" s="14"/>
       <x:c r="I10" s="15"/>
       <x:c r="J10" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2190,19 +2200,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E11" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F11" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H11" s="15"/>
       <x:c r="I11" s="15"/>
@@ -2214,24 +2224,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D12" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F12" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="15"/>
       <x:c r="I12" s="15"/>
       <x:c r="J12" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2243,16 +2253,16 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D13" s="14" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E13" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F13" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H13" s="14"/>
       <x:c r="I13" s="15"/>
@@ -2264,24 +2274,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F14" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="15"/>
       <x:c r="I14" s="17"/>
       <x:c r="J14" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2293,21 +2303,21 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D15" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E15" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F15" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H15" s="15"/>
       <x:c r="I15" s="17"/>
       <x:c r="J15" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2316,24 +2326,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E16" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F16" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H16" s="15"/>
       <x:c r="I16" s="17"/>
       <x:c r="J16" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2342,24 +2352,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="14" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E17" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F17" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G17" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H17" s="15"/>
       <x:c r="I17" s="17"/>
       <x:c r="J17" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -2368,20 +2378,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="19" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="19"/>
       <x:c r="G18" s="19"/>
       <x:c r="H18" s="19"/>
       <x:c r="I18" s="19"/>
       <x:c r="J18" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -2399,7 +2409,7 @@
     <x:row r="20" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A20" s="7"/>
       <x:c r="B20" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="37"/>
       <x:c r="D20" s="37"/>
@@ -2413,28 +2423,28 @@
     <x:row r="21" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A21" s="7"/>
       <x:c r="B21" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C21" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E21" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F21" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G21" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H21" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I21" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J21" s="14"/>
     </x:row>
@@ -2444,25 +2454,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F22" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G22" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H22" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I22" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J22" s="16"/>
     </x:row>
@@ -2472,24 +2482,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C23" s="14" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D23" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E23" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F23" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H23" s="14"/>
       <x:c r="I23" s="17"/>
       <x:c r="J23" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -2498,19 +2508,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D24" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E24" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="14">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G24" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H24" s="15"/>
       <x:c r="I24" s="17"/>
@@ -2522,24 +2532,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C25" s="14" t="s">
-        <x:v>123</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D25" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E25" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F25" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G25" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H25" s="14"/>
       <x:c r="I25" s="15"/>
       <x:c r="J25" s="18" t="s">
-        <x:v>62</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2548,22 +2558,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C26" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D26" s="14" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E26" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F26" s="14"/>
       <x:c r="G26" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H26" s="15"/>
       <x:c r="I26" s="15"/>
       <x:c r="J26" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2575,19 +2585,19 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="D27" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E27" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F27" s="14"/>
       <x:c r="G27" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H27" s="15"/>
       <x:c r="I27" s="15"/>
       <x:c r="J27" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2596,22 +2606,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C28" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F28" s="16"/>
       <x:c r="G28" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H28" s="16"/>
       <x:c r="I28" s="31"/>
       <x:c r="J28" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2620,13 +2630,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F29" s="19">
         <x:v>5</x:v>
@@ -2635,7 +2645,7 @@
       <x:c r="H29" s="19"/>
       <x:c r="I29" s="32"/>
       <x:c r="J29" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2644,13 +2654,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F30" s="19">
         <x:v>5</x:v>
@@ -2659,7 +2669,7 @@
       <x:c r="H30" s="19"/>
       <x:c r="I30" s="32"/>
       <x:c r="J30" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2668,13 +2678,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="19" t="s">
-        <x:v>13</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F31" s="19">
         <x:v>5</x:v>
@@ -2683,7 +2693,7 @@
       <x:c r="H31" s="19"/>
       <x:c r="I31" s="32"/>
       <x:c r="J31" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
@@ -2692,13 +2702,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F32" s="19">
         <x:v>5</x:v>
@@ -2707,7 +2717,7 @@
       <x:c r="H32" s="19"/>
       <x:c r="I32" s="32"/>
       <x:c r="J32" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
@@ -2716,23 +2726,23 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F33" s="19">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H33" s="19"/>
       <x:c r="I33" s="32" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J33" s="19"/>
     </x:row>
@@ -2742,23 +2752,23 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C34" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D34" s="14" t="s">
-        <x:v>108</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E34" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F34" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G34" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H34" s="15"/>
       <x:c r="I34" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J34" s="14"/>
     </x:row>
@@ -2768,19 +2778,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D35" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E35" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F35" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G35" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H35" s="15"/>
       <x:c r="I35" s="15"/>
@@ -2801,7 +2811,7 @@
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="8"/>
       <x:c r="B37" s="34" t="s">
-        <x:v>50</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C37" s="35"/>
       <x:c r="D37" s="35"/>
@@ -2815,28 +2825,28 @@
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="8"/>
       <x:c r="B38" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C38" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D38" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E38" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G38" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H38" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I38" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J38" s="14"/>
     </x:row>
@@ -2846,25 +2856,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C39" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D39" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E39" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F39" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H39" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I39" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J39" s="20"/>
     </x:row>
@@ -2874,19 +2884,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>111</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D40" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E40" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F40" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G40" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H40" s="14"/>
       <x:c r="I40" s="14"/>
@@ -2898,19 +2908,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>135</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D41" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E41" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F41" s="14">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G41" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H41" s="14"/>
       <x:c r="I41" s="14"/>
@@ -2922,22 +2932,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C42" s="23" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D42" s="22" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E42" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F42" s="14"/>
       <x:c r="G42" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H42" s="24"/>
       <x:c r="I42" s="24"/>
       <x:c r="J42" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
@@ -2946,23 +2956,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C43" s="25" t="s">
-        <x:v>97</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D43" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E43" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F43" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G43" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H43" s="14"/>
       <x:c r="I43" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J43" s="18"/>
     </x:row>
@@ -2995,31 +3005,31 @@
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="9"/>
       <x:c r="B46" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C46" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D46" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E46" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G46" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H46" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I46" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J46" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -3028,25 +3038,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D47" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E47" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F47" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G47" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H47" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I47" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J47" s="14"/>
     </x:row>
@@ -3056,22 +3066,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C48" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D48" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E48" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F48" s="15"/>
       <x:c r="G48" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H48" s="14"/>
       <x:c r="I48" s="15"/>
       <x:c r="J48" s="29" t="s">
-        <x:v>4</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
@@ -3080,19 +3090,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C49" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D49" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E49" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F49" s="14">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G49" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H49" s="15"/>
       <x:c r="I49" s="15"/>
@@ -3104,19 +3114,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C50" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D50" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E50" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F50" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G50" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H50" s="14"/>
       <x:c r="I50" s="15"/>
@@ -3128,24 +3138,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C51" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D51" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E51" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F51" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G51" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H51" s="15"/>
       <x:c r="I51" s="15"/>
       <x:c r="J51" s="14" t="s">
-        <x:v>60</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -3163,7 +3173,7 @@
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="8"/>
       <x:c r="B53" s="36" t="s">
-        <x:v>48</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="37"/>
       <x:c r="D53" s="37"/>
@@ -3177,31 +3187,31 @@
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="8"/>
       <x:c r="B54" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C54" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E54" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F54" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G54" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H54" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I54" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J54" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3210,25 +3220,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C55" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D55" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E55" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F55" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G55" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H55" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I55" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J55" s="14"/>
     </x:row>
@@ -3238,24 +3248,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C56" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D56" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E56" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F56" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G56" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H56" s="14"/>
       <x:c r="I56" s="15"/>
       <x:c r="J56" s="28" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
@@ -3264,19 +3274,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C57" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D57" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E57" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F57" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H57" s="15"/>
       <x:c r="I57" s="15"/>
@@ -3288,19 +3298,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C58" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D58" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E58" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F58" s="14">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G58" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H58" s="14"/>
       <x:c r="I58" s="15"/>
@@ -3312,19 +3322,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C59" s="14" t="s">
-        <x:v>51</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D59" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E59" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F59" s="14">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G59" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H59" s="15"/>
       <x:c r="I59" s="15"/>
@@ -3336,24 +3346,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D60" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E60" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F60" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G60" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H60" s="15"/>
       <x:c r="I60" s="15"/>
       <x:c r="J60" s="20" t="s">
-        <x:v>131</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
@@ -3362,24 +3372,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C61" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D61" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E61" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F61" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H61" s="14"/>
       <x:c r="I61" s="15"/>
       <x:c r="J61" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
@@ -3397,7 +3407,7 @@
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="7"/>
       <x:c r="B63" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C63" s="35"/>
       <x:c r="D63" s="35"/>
@@ -3411,31 +3421,31 @@
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="7"/>
       <x:c r="B64" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C64" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D64" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E64" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F64" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G64" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H64" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I64" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J64" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3444,25 +3454,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C65" s="14" t="s">
-        <x:v>74</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D65" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E65" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F65" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G65" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H65" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I65" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J65" s="20"/>
     </x:row>
@@ -3472,19 +3482,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>112</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D66" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E66" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F66" s="14">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G66" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H66" s="14"/>
       <x:c r="I66" s="14"/>
@@ -3496,19 +3506,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D67" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E67" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F67" s="14">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G67" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H67" s="14"/>
       <x:c r="I67" s="14"/>
@@ -3520,13 +3530,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C68" s="23" t="s">
-        <x:v>128</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D68" s="22" t="s">
-        <x:v>92</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E68" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F68" s="14">
         <x:v>200</x:v>
@@ -3542,24 +3552,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C69" s="25" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D69" s="20" t="s">
-        <x:v>23</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E69" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F69" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G69" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H69" s="26"/>
       <x:c r="I69" s="19"/>
       <x:c r="J69" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -3568,24 +3578,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C70" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D70" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E70" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F70" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G70" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H70" s="14"/>
       <x:c r="I70" s="26"/>
       <x:c r="J70" s="28" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
@@ -3594,13 +3604,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C71" s="25" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D71" s="20" t="s">
-        <x:v>104</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E71" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F71" s="14">
         <x:v>50</x:v>
@@ -3609,7 +3619,7 @@
       <x:c r="H71" s="14"/>
       <x:c r="I71" s="26"/>
       <x:c r="J71" s="20" t="s">
-        <x:v>131</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
@@ -3618,23 +3628,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C72" s="20" t="s">
-        <x:v>97</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D72" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E72" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F72" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G72" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H72" s="14"/>
       <x:c r="I72" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J72" s="20"/>
     </x:row>
@@ -3653,7 +3663,7 @@
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="8"/>
       <x:c r="B74" s="33" t="s">
-        <x:v>49</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C74" s="33"/>
       <x:c r="D74" s="33"/>
@@ -3667,31 +3677,31 @@
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="8"/>
       <x:c r="B75" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C75" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F75" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G75" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I75" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J75" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10" ht="15.75" customHeight="1">
@@ -3700,25 +3710,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C76" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D76" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F76" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G76" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I76" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J76" s="19"/>
     </x:row>
@@ -3728,19 +3738,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C77" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D77" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E77" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F77" s="19">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G77" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H77" s="19"/>
       <x:c r="I77" s="19"/>
@@ -3752,19 +3762,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C78" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D78" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E78" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F78" s="19">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G78" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H78" s="19"/>
       <x:c r="I78" s="19"/>
@@ -3776,24 +3786,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C79" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D79" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E79" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F79" s="19">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G79" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H79" s="19"/>
       <x:c r="I79" s="19"/>
       <x:c r="J79" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
@@ -3802,19 +3812,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C80" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D80" s="19" t="s">
-        <x:v>17</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E80" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F80" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G80" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H80" s="19"/>
       <x:c r="I80" s="19"/>
@@ -3826,23 +3836,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C81" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D81" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E81" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F81" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G81" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H81" s="19"/>
       <x:c r="I81" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J81" s="19"/>
     </x:row>
@@ -3861,7 +3871,7 @@
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="8"/>
       <x:c r="B83" s="33" t="s">
-        <x:v>2</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C83" s="33"/>
       <x:c r="D83" s="33"/>
@@ -3875,31 +3885,31 @@
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="8"/>
       <x:c r="B84" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C84" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D84" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E84" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F84" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G84" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H84" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I84" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J84" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
@@ -3908,25 +3918,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C85" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D85" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E85" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F85" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G85" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H85" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I85" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J85" s="19"/>
     </x:row>
@@ -3936,20 +3946,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C86" s="19" t="s">
-        <x:v>6</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D86" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E86" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F86" s="19"/>
       <x:c r="G86" s="19"/>
       <x:c r="H86" s="19"/>
       <x:c r="I86" s="19"/>
       <x:c r="J86" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10" ht="15.75" customHeight="1">
@@ -3958,19 +3968,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C87" s="19" t="s">
-        <x:v>9</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D87" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E87" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F87" s="19">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G87" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H87" s="19"/>
       <x:c r="I87" s="19"/>
@@ -3985,16 +3995,16 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D88" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E88" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F88" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H88" s="19"/>
       <x:c r="I88" s="19"/>
@@ -4006,25 +4016,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C89" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D89" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E89" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F89" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G89" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H89" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I89" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J89" s="19"/>
     </x:row>

--- a/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/Puppy Playtime 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
@@ -16,66 +16,255 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
   <x:si>
-    <x:t>펫 (Pet_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin 고정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 (Reservation_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 member, secession</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스(ExtraService_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 F(female), M(male)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 small, middle, big</x:t>
+    <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유일키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약펫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펫번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특이사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강아지사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_payprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 종료날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 파일 경로명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택약관</x:t>
   </x:si>
   <x:si>
     <x:t>r_no</x:t>
   </x:si>
   <x:si>
-    <x:t>선택약관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일시</x:t>
+    <x:t>s_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수약관1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이지 번호</x:t>
   </x:si>
   <x:si>
     <x:t>전화번호</x:t>
   </x:si>
   <x:si>
+    <x:t>부가서비스4</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>부가서비스4</x:t>
-  </x:si>
-  <x:si>
     <x:t>n_no</x:t>
   </x:si>
   <x:si>
-    <x:t>n_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지 번호</x:t>
-  </x:si>
-  <x:si>
     <x:t>c_price</x:t>
   </x:si>
   <x:si>
@@ -85,292 +274,106 @@
     <x:t>s_price</x:t>
   </x:si>
   <x:si>
+    <x:t>예약번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>부가서비스3</x:t>
   </x:si>
   <x:si>
-    <x:t>예약번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 번호</x:t>
-  </x:si>
-  <x:si>
     <x:t>등록내용</x:t>
   </x:si>
   <x:si>
-    <x:t>신청날짜</x:t>
-  </x:si>
-  <x:si>
     <x:t>p_no</x:t>
   </x:si>
   <x:si>
-    <x:t>m_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특이사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수약관2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 s_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유일키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약펫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펫번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강아지사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가서비스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이지번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 done, cancel, refunded, valid(기본)</x:t>
+    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수문자 없이 숫자로만 구성</x:t>
   </x:si>
   <x:si>
     <x:t>r_extraservice2</x:t>
   </x:si>
   <x:si>
+    <x:t>reply_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_requestdate</x:t>
+  </x:si>
+  <x:si>
     <x:t>8자리 이상 15자리 이내</x:t>
   </x:si>
   <x:si>
-    <x:t>r_requestdate</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력값 unuse, use</x:t>
   </x:si>
   <x:si>
     <x:t>r_extraservice3</x:t>
   </x:si>
   <x:si>
-    <x:t>reply_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수문자 없이 숫자로만 구성</x:t>
+    <x:t>r_extraservice4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글(Reply_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_extraservice1</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">입력값 YYYY-MM-DD
 </x:t>
   </x:si>
   <x:si>
-    <x:t>reply_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice4</x:t>
+    <x:t>n_registrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 (Member_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 YYYY-MM-DD</x:t>
   </x:si>
   <x:si>
-    <x:t>n_registrant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글(Reply_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_extraservice1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 (Member_tbl)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값 Y(yes), N(no), W(wait)</x:t>
+    <x:t>펫 (Pet_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin 고정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 케이지 룸 (CageRoom_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 게시판 (Inquiry_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 F(female), M(male)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 (Reservation_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 member, secession</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가서비스(ExtraService_tbl)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 small, middle, big</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 (Notice_tbl)</x:t>
   </x:si>
   <x:si>
     <x:t>입력값 Y(yes), N(no)</x:t>
   </x:si>
   <x:si>
-    <x:t>공지사항 (Notice_tbl)</x:t>
-  </x:si>
-  <x:si>
     <x:t>reply_registrant</x:t>
   </x:si>
   <x:si>
@@ -380,64 +383,61 @@
     <x:t>m_status</x:t>
   </x:si>
   <x:si>
+    <x:t>m_required1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_unique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 예약 시작날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_dogbreed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_regdate</x:t>
+  </x:si>
+  <x:si>
     <x:t>m_optional</x:t>
   </x:si>
   <x:si>
     <x:t>m_address</x:t>
   </x:si>
   <x:si>
-    <x:t>n_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_unique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_required1</x:t>
+    <x:t>r_approval</x:t>
   </x:si>
   <x:si>
     <x:t>q_content</x:t>
   </x:si>
   <x:si>
-    <x:t>r_approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 시작날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_dogbreed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_explain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 예약 종료날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 파일 경로명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q_regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_payprice</x:t>
+    <x:t>c_explain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값 s_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_required2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c_picture</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -445,61 +445,211 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="12">
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="20"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="20"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1349,7 +1499,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1370,7 +1519,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1391,7 +1539,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1422,7 +1569,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1453,7 +1599,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1531,7 +1676,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1566,7 +1710,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1601,7 +1744,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1646,7 +1788,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1690,7 +1831,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1981,8 +2121,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J266"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H71" activeCellId="0" sqref="H71:H71"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2011,7 +2151,7 @@
     <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" s="6"/>
       <x:c r="B2" s="39" t="s">
-        <x:v>81</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C2" s="40"/>
       <x:c r="D2" s="40"/>
@@ -2049,7 +2189,7 @@
     <x:row r="5" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A5" s="8"/>
       <x:c r="B5" s="36" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C5" s="37"/>
       <x:c r="D5" s="37"/>
@@ -2063,31 +2203,31 @@
     <x:row r="6" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A6" s="8"/>
       <x:c r="B6" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H6" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I6" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J6" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -2096,28 +2236,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F7" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H7" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J7" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -2126,24 +2266,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F8" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="14"/>
       <x:c r="I8" s="15"/>
       <x:c r="J8" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -2152,19 +2292,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F9" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H9" s="15"/>
       <x:c r="I9" s="15"/>
@@ -2176,22 +2316,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D10" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E10" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F10" s="14"/>
       <x:c r="G10" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H10" s="14"/>
       <x:c r="I10" s="15"/>
       <x:c r="J10" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -2200,19 +2340,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D11" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F11" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H11" s="15"/>
       <x:c r="I11" s="15"/>
@@ -2224,24 +2364,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="15"/>
       <x:c r="I12" s="15"/>
       <x:c r="J12" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2250,19 +2390,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="14" t="s">
-        <x:v>122</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D13" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F13" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H13" s="14"/>
       <x:c r="I13" s="15"/>
@@ -2274,24 +2414,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>121</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D14" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E14" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F14" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H14" s="15"/>
       <x:c r="I14" s="17"/>
       <x:c r="J14" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2300,24 +2440,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D15" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F15" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H15" s="15"/>
       <x:c r="I15" s="17"/>
       <x:c r="J15" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -2326,24 +2466,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>51</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D16" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E16" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F16" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H16" s="15"/>
       <x:c r="I16" s="17"/>
       <x:c r="J16" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2352,24 +2492,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="14" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E17" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F17" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G17" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H17" s="15"/>
       <x:c r="I17" s="17"/>
       <x:c r="J17" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -2378,20 +2518,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F18" s="19"/>
       <x:c r="G18" s="19"/>
       <x:c r="H18" s="19"/>
       <x:c r="I18" s="19"/>
       <x:c r="J18" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -2409,7 +2549,7 @@
     <x:row r="20" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A20" s="7"/>
       <x:c r="B20" s="36" t="s">
-        <x:v>3</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C20" s="37"/>
       <x:c r="D20" s="37"/>
@@ -2423,28 +2563,28 @@
     <x:row r="21" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A21" s="7"/>
       <x:c r="B21" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C21" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F21" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G21" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H21" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I21" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J21" s="14"/>
     </x:row>
@@ -2454,25 +2594,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G22" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H22" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I22" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J22" s="16"/>
     </x:row>
@@ -2482,24 +2622,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C23" s="14" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D23" s="14" t="s">
-        <x:v>96</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F23" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H23" s="14"/>
       <x:c r="I23" s="17"/>
       <x:c r="J23" s="18" t="s">
-        <x:v>115</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -2508,19 +2648,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C24" s="14" t="s">
-        <x:v>140</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D24" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E24" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="14">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G24" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H24" s="15"/>
       <x:c r="I24" s="17"/>
@@ -2532,24 +2672,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C25" s="14" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D25" s="14" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E25" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F25" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G25" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H25" s="14"/>
       <x:c r="I25" s="15"/>
       <x:c r="J25" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2558,22 +2698,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C26" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D26" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E26" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F26" s="14"/>
       <x:c r="G26" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H26" s="15"/>
       <x:c r="I26" s="15"/>
       <x:c r="J26" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2582,22 +2722,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C27" s="14" t="s">
-        <x:v>139</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D27" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E27" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F27" s="14"/>
       <x:c r="G27" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H27" s="15"/>
       <x:c r="I27" s="15"/>
       <x:c r="J27" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2606,22 +2746,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C28" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>135</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F28" s="16"/>
       <x:c r="G28" s="16" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H28" s="16"/>
       <x:c r="I28" s="31"/>
       <x:c r="J28" s="16" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2630,13 +2770,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F29" s="19">
         <x:v>5</x:v>
@@ -2645,7 +2785,7 @@
       <x:c r="H29" s="19"/>
       <x:c r="I29" s="32"/>
       <x:c r="J29" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2654,13 +2794,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F30" s="19">
         <x:v>5</x:v>
@@ -2669,7 +2809,7 @@
       <x:c r="H30" s="19"/>
       <x:c r="I30" s="32"/>
       <x:c r="J30" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2678,13 +2818,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F31" s="19">
         <x:v>5</x:v>
@@ -2693,7 +2833,7 @@
       <x:c r="H31" s="19"/>
       <x:c r="I31" s="32"/>
       <x:c r="J31" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10" ht="15.75" customHeight="1">
@@ -2702,13 +2842,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F32" s="19">
         <x:v>5</x:v>
@@ -2717,7 +2857,7 @@
       <x:c r="H32" s="19"/>
       <x:c r="I32" s="32"/>
       <x:c r="J32" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10" ht="15.75" customHeight="1">
@@ -2726,23 +2866,23 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F33" s="19">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H33" s="19"/>
       <x:c r="I33" s="32" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J33" s="19"/>
     </x:row>
@@ -2752,23 +2892,23 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C34" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D34" s="14" t="s">
-        <x:v>95</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E34" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F34" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G34" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H34" s="15"/>
       <x:c r="I34" s="15" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J34" s="14"/>
     </x:row>
@@ -2778,19 +2918,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D35" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E35" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G35" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H35" s="15"/>
       <x:c r="I35" s="15"/>
@@ -2811,7 +2951,7 @@
     <x:row r="37" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A37" s="8"/>
       <x:c r="B37" s="34" t="s">
-        <x:v>5</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C37" s="35"/>
       <x:c r="D37" s="35"/>
@@ -2825,28 +2965,28 @@
     <x:row r="38" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A38" s="8"/>
       <x:c r="B38" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C38" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D38" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E38" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G38" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H38" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I38" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J38" s="14"/>
     </x:row>
@@ -2856,25 +2996,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C39" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D39" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E39" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F39" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H39" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I39" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J39" s="20"/>
     </x:row>
@@ -2884,19 +3024,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>87</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="14" t="s">
-        <x:v>60</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E40" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F40" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G40" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H40" s="14"/>
       <x:c r="I40" s="14"/>
@@ -2908,19 +3048,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D41" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E41" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F41" s="14">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G41" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H41" s="14"/>
       <x:c r="I41" s="14"/>
@@ -2932,22 +3072,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C42" s="23" t="s">
-        <x:v>138</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D42" s="22" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E42" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F42" s="14"/>
       <x:c r="G42" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H42" s="24"/>
       <x:c r="I42" s="24"/>
       <x:c r="J42" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10" ht="15.75" customHeight="1">
@@ -2956,23 +3096,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C43" s="25" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D43" s="20" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E43" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F43" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G43" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H43" s="14"/>
       <x:c r="I43" s="26" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J43" s="18"/>
     </x:row>
@@ -3005,31 +3145,31 @@
     <x:row r="46" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A46" s="9"/>
       <x:c r="B46" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C46" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D46" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E46" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G46" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H46" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I46" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J46" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -3038,25 +3178,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="14" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D47" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D47" s="14" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E47" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G47" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H47" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I47" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J47" s="14"/>
     </x:row>
@@ -3066,22 +3206,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C48" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D48" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E48" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F48" s="15"/>
       <x:c r="G48" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="14"/>
       <x:c r="I48" s="15"/>
       <x:c r="J48" s="29" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10" ht="15.75" customHeight="1">
@@ -3093,16 +3233,16 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="D49" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E49" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F49" s="14">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G49" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H49" s="15"/>
       <x:c r="I49" s="15"/>
@@ -3114,19 +3254,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C50" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D50" s="14" t="s">
-        <x:v>60</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E50" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F50" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G50" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H50" s="14"/>
       <x:c r="I50" s="15"/>
@@ -3138,24 +3278,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C51" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D51" s="14" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E51" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F51" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G51" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H51" s="15"/>
       <x:c r="I51" s="15"/>
       <x:c r="J51" s="14" t="s">
-        <x:v>1</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -3173,7 +3313,7 @@
     <x:row r="53" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A53" s="8"/>
       <x:c r="B53" s="36" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C53" s="37"/>
       <x:c r="D53" s="37"/>
@@ -3187,31 +3327,31 @@
     <x:row r="54" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A54" s="8"/>
       <x:c r="B54" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C54" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D54" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E54" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F54" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G54" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H54" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I54" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J54" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3220,25 +3360,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C55" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D55" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E55" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F55" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G55" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H55" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I55" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J55" s="14"/>
     </x:row>
@@ -3248,24 +3388,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C56" s="14" t="s">
-        <x:v>85</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D56" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F56" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G56" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H56" s="14"/>
       <x:c r="I56" s="15"/>
       <x:c r="J56" s="28" t="s">
-        <x:v>9</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10" ht="15.75" customHeight="1">
@@ -3274,19 +3414,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C57" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D57" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E57" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F57" s="14">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H57" s="15"/>
       <x:c r="I57" s="15"/>
@@ -3298,19 +3438,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C58" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D58" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E58" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F58" s="14">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G58" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H58" s="14"/>
       <x:c r="I58" s="15"/>
@@ -3322,19 +3462,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C59" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D59" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E59" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F59" s="14">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G59" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H59" s="15"/>
       <x:c r="I59" s="15"/>
@@ -3346,24 +3486,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D60" s="14" t="s">
-        <x:v>53</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E60" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F60" s="14">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G60" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="15"/>
       <x:c r="I60" s="15"/>
       <x:c r="J60" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="15.75" customHeight="1">
@@ -3372,24 +3512,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C61" s="14" t="s">
-        <x:v>80</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D61" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E61" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F61" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H61" s="14"/>
       <x:c r="I61" s="15"/>
       <x:c r="J61" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10" ht="15.75" customHeight="1">
@@ -3407,7 +3547,7 @@
     <x:row r="63" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A63" s="7"/>
       <x:c r="B63" s="34" t="s">
-        <x:v>0</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C63" s="35"/>
       <x:c r="D63" s="35"/>
@@ -3421,31 +3561,31 @@
     <x:row r="64" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A64" s="7"/>
       <x:c r="B64" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C64" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D64" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E64" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F64" s="14" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G64" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H64" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I64" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J64" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10" ht="15.75" customHeight="1">
@@ -3454,25 +3594,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C65" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D65" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E65" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F65" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G65" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H65" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I65" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J65" s="20"/>
     </x:row>
@@ -3482,19 +3622,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>97</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D66" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E66" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F66" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G66" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H66" s="14"/>
       <x:c r="I66" s="14"/>
@@ -3506,19 +3646,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D67" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E67" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F67" s="14">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G67" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H67" s="14"/>
       <x:c r="I67" s="14"/>
@@ -3533,10 +3673,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D68" s="22" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E68" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F68" s="14">
         <x:v>200</x:v>
@@ -3552,24 +3692,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C69" s="25" t="s">
-        <x:v>48</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D69" s="20" t="s">
-        <x:v>62</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E69" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F69" s="14">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G69" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H69" s="26"/>
       <x:c r="I69" s="19"/>
       <x:c r="J69" s="18" t="s">
-        <x:v>8</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -3578,24 +3718,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C70" s="25" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D70" s="20" t="s">
-        <x:v>75</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E70" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F70" s="14">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G70" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H70" s="14"/>
       <x:c r="I70" s="26"/>
       <x:c r="J70" s="28" t="s">
-        <x:v>9</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="15.75" customHeight="1">
@@ -3604,13 +3744,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C71" s="25" t="s">
-        <x:v>49</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D71" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E71" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F71" s="14">
         <x:v>50</x:v>
@@ -3619,7 +3759,7 @@
       <x:c r="H71" s="14"/>
       <x:c r="I71" s="26"/>
       <x:c r="J71" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10" ht="15.75" customHeight="1">
@@ -3628,23 +3768,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C72" s="20" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D72" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E72" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="14">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G72" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H72" s="14"/>
       <x:c r="I72" s="26" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J72" s="20"/>
     </x:row>
@@ -3663,7 +3803,7 @@
     <x:row r="74" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A74" s="8"/>
       <x:c r="B74" s="33" t="s">
-        <x:v>7</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C74" s="33"/>
       <x:c r="D74" s="33"/>
@@ -3677,31 +3817,31 @@
     <x:row r="75" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A75" s="8"/>
       <x:c r="B75" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C75" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F75" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G75" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I75" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J75" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10" ht="15.75" customHeight="1">
@@ -3710,25 +3850,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C76" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D76" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F76" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G76" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I76" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J76" s="19"/>
     </x:row>
@@ -3738,19 +3878,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C77" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D77" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E77" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F77" s="19">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G77" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H77" s="19"/>
       <x:c r="I77" s="19"/>
@@ -3762,19 +3902,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C78" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D78" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E78" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F78" s="19">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G78" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H78" s="19"/>
       <x:c r="I78" s="19"/>
@@ -3786,24 +3926,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C79" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D79" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E79" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F79" s="19">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G79" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H79" s="19"/>
       <x:c r="I79" s="19"/>
       <x:c r="J79" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10" ht="15.75" customHeight="1">
@@ -3812,19 +3952,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C80" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D80" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E80" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F80" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G80" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H80" s="19"/>
       <x:c r="I80" s="19"/>
@@ -3836,23 +3976,23 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C81" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D81" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E81" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F81" s="14">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G81" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H81" s="19"/>
       <x:c r="I81" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J81" s="19"/>
     </x:row>
@@ -3871,7 +4011,7 @@
     <x:row r="83" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A83" s="8"/>
       <x:c r="B83" s="33" t="s">
-        <x:v>112</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C83" s="33"/>
       <x:c r="D83" s="33"/>
@@ -3885,31 +4025,31 @@
     <x:row r="84" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A84" s="8"/>
       <x:c r="B84" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C84" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D84" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E84" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F84" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G84" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H84" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I84" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J84" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10" ht="15.75" customHeight="1">
@@ -3918,25 +4058,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C85" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D85" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E85" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F85" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G85" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H85" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I85" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J85" s="19"/>
     </x:row>
@@ -3946,20 +4086,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C86" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D86" s="19" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E86" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F86" s="19"/>
       <x:c r="G86" s="19"/>
       <x:c r="H86" s="19"/>
       <x:c r="I86" s="19"/>
       <x:c r="J86" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10" ht="15.75" customHeight="1">
@@ -3968,19 +4108,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C87" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D87" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E87" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F87" s="19">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G87" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H87" s="19"/>
       <x:c r="I87" s="19"/>
@@ -3992,19 +4132,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C88" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D88" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E88" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F88" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H88" s="19"/>
       <x:c r="I88" s="19"/>
@@ -4016,25 +4156,25 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C89" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D89" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E89" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F89" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G89" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H89" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I89" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J89" s="19"/>
     </x:row>
